--- a/eform/public/files/template/data_all.xlsx
+++ b/eform/public/files/template/data_all.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="785">
   <si>
     <t>Nama KK</t>
   </si>
@@ -2363,6 +2363,18 @@
   </si>
   <si>
     <t>G. PROFILE KESEHATAN ANGGOTA KELUARGA (5)</t>
+  </si>
+  <si>
+    <t>[a.jmljiwa_l]</t>
+  </si>
+  <si>
+    <t>[a.jmljiwa_p]</t>
+  </si>
+  <si>
+    <t>[a.pus_ikutkb]</t>
+  </si>
+  <si>
+    <t>[a.pus_tidakikutkb]</t>
   </si>
 </sst>
 </file>
@@ -2372,13 +2384,20 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2652,131 +2671,92 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2796,46 +2776,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2847,8 +2812,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3158,7 +3177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NX15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CL12" sqref="CL12:CM13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3186,71 +3207,71 @@
   <sheetData>
     <row r="1" spans="1:388" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
     </row>
     <row r="2" spans="1:388" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
     </row>
     <row r="3" spans="1:388" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
     </row>
     <row r="4" spans="1:388" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="59"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
     </row>
@@ -3259,10 +3280,10 @@
       <c r="B5" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="59"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -3271,10 +3292,10 @@
       <c r="B6" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -3283,10 +3304,10 @@
       <c r="B7" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -3294,555 +3315,555 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="60"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:388" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:388" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="BY10" s="30" t="s">
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="BY10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="BZ10" s="30"/>
-      <c r="CA10" s="30"/>
-      <c r="CB10" s="30"/>
-      <c r="CC10" s="30"/>
-      <c r="CD10" s="30"/>
-      <c r="CE10" s="30"/>
-      <c r="CF10" s="30"/>
-      <c r="HX10" s="30" t="s">
+      <c r="BZ10" s="27"/>
+      <c r="CA10" s="27"/>
+      <c r="CB10" s="27"/>
+      <c r="CC10" s="27"/>
+      <c r="CD10" s="27"/>
+      <c r="CE10" s="27"/>
+      <c r="CF10" s="27"/>
+      <c r="HX10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="HY10" s="30"/>
-      <c r="HZ10" s="30"/>
-      <c r="IA10" s="30"/>
-      <c r="IB10" s="30"/>
-      <c r="IC10" s="30"/>
-      <c r="ID10" s="30"/>
-      <c r="IE10" s="30"/>
-      <c r="IF10" s="30"/>
-      <c r="IG10" s="30"/>
-      <c r="IH10" s="30"/>
-      <c r="II10" s="30"/>
-      <c r="IW10" s="30" t="s">
+      <c r="HY10" s="27"/>
+      <c r="HZ10" s="27"/>
+      <c r="IA10" s="27"/>
+      <c r="IB10" s="27"/>
+      <c r="IC10" s="27"/>
+      <c r="ID10" s="27"/>
+      <c r="IE10" s="27"/>
+      <c r="IF10" s="27"/>
+      <c r="IG10" s="27"/>
+      <c r="IH10" s="27"/>
+      <c r="II10" s="27"/>
+      <c r="IW10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="IX10" s="30"/>
-      <c r="IY10" s="30"/>
-      <c r="IZ10" s="30"/>
-      <c r="JA10" s="30"/>
-      <c r="JB10" s="30"/>
-      <c r="JC10" s="30"/>
-      <c r="JD10" s="30"/>
-      <c r="JE10" s="30"/>
-      <c r="JF10" s="30"/>
-      <c r="JG10" s="30"/>
-      <c r="KB10" s="30" t="s">
+      <c r="IX10" s="27"/>
+      <c r="IY10" s="27"/>
+      <c r="IZ10" s="27"/>
+      <c r="JA10" s="27"/>
+      <c r="JB10" s="27"/>
+      <c r="JC10" s="27"/>
+      <c r="JD10" s="27"/>
+      <c r="JE10" s="27"/>
+      <c r="JF10" s="27"/>
+      <c r="JG10" s="27"/>
+      <c r="KB10" s="27" t="s">
         <v>779</v>
       </c>
-      <c r="KC10" s="30"/>
-      <c r="KD10" s="30"/>
-      <c r="KE10" s="30"/>
-      <c r="KF10" s="30"/>
-      <c r="KG10" s="30"/>
-      <c r="KH10" s="30"/>
-      <c r="KI10" s="30"/>
-      <c r="KJ10" s="30"/>
-      <c r="KK10" s="30"/>
-      <c r="KL10" s="30"/>
-      <c r="LI10" s="30" t="s">
+      <c r="KC10" s="27"/>
+      <c r="KD10" s="27"/>
+      <c r="KE10" s="27"/>
+      <c r="KF10" s="27"/>
+      <c r="KG10" s="27"/>
+      <c r="KH10" s="27"/>
+      <c r="KI10" s="27"/>
+      <c r="KJ10" s="27"/>
+      <c r="KK10" s="27"/>
+      <c r="KL10" s="27"/>
+      <c r="LI10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="LJ10" s="30"/>
-      <c r="LK10" s="30"/>
-      <c r="LL10" s="30"/>
-      <c r="LM10" s="30"/>
-      <c r="LN10" s="30"/>
-      <c r="LO10" s="30"/>
-      <c r="LP10" s="30"/>
-      <c r="LQ10" s="30"/>
-      <c r="LR10" s="30"/>
-      <c r="MM10" s="30" t="s">
+      <c r="LJ10" s="27"/>
+      <c r="LK10" s="27"/>
+      <c r="LL10" s="27"/>
+      <c r="LM10" s="27"/>
+      <c r="LN10" s="27"/>
+      <c r="LO10" s="27"/>
+      <c r="LP10" s="27"/>
+      <c r="LQ10" s="27"/>
+      <c r="LR10" s="27"/>
+      <c r="MM10" s="27" t="s">
         <v>780</v>
       </c>
-      <c r="MN10" s="30"/>
-      <c r="MO10" s="30"/>
-      <c r="MP10" s="30"/>
-      <c r="MQ10" s="30"/>
-      <c r="MR10" s="30"/>
-      <c r="MS10" s="30"/>
-      <c r="MT10" s="30"/>
-      <c r="MU10" s="30"/>
-      <c r="MV10" s="30"/>
-      <c r="MW10" s="30"/>
-      <c r="MX10" s="30"/>
-      <c r="MY10" s="30"/>
-      <c r="MZ10" s="30"/>
-      <c r="NK10" s="30" t="s">
+      <c r="MN10" s="27"/>
+      <c r="MO10" s="27"/>
+      <c r="MP10" s="27"/>
+      <c r="MQ10" s="27"/>
+      <c r="MR10" s="27"/>
+      <c r="MS10" s="27"/>
+      <c r="MT10" s="27"/>
+      <c r="MU10" s="27"/>
+      <c r="MV10" s="27"/>
+      <c r="MW10" s="27"/>
+      <c r="MX10" s="27"/>
+      <c r="MY10" s="27"/>
+      <c r="MZ10" s="27"/>
+      <c r="NK10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="NL10" s="30"/>
-      <c r="NM10" s="30"/>
-      <c r="NN10" s="30"/>
-      <c r="NO10" s="30"/>
-      <c r="NP10" s="30"/>
-      <c r="NQ10" s="30"/>
-      <c r="NR10" s="30"/>
-      <c r="NS10" s="30"/>
-      <c r="NT10" s="30"/>
-      <c r="NU10" s="30"/>
-      <c r="NV10" s="30"/>
-      <c r="NW10" s="30"/>
-      <c r="NX10" s="30"/>
+      <c r="NL10" s="27"/>
+      <c r="NM10" s="27"/>
+      <c r="NN10" s="27"/>
+      <c r="NO10" s="27"/>
+      <c r="NP10" s="27"/>
+      <c r="NQ10" s="27"/>
+      <c r="NR10" s="27"/>
+      <c r="NS10" s="27"/>
+      <c r="NT10" s="27"/>
+      <c r="NU10" s="27"/>
+      <c r="NV10" s="27"/>
+      <c r="NW10" s="27"/>
+      <c r="NX10" s="27"/>
     </row>
     <row r="11" spans="1:388" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="61" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33" t="s">
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="34" t="s">
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34" t="s">
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="34"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="34"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="34"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="34"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="34"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="34"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="34"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="34"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="34"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="34"/>
-      <c r="BI11" s="34"/>
-      <c r="BJ11" s="34"/>
-      <c r="BK11" s="34"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="34"/>
-      <c r="BN11" s="34"/>
-      <c r="BO11" s="34"/>
-      <c r="BP11" s="34"/>
-      <c r="BQ11" s="34"/>
-      <c r="BR11" s="34"/>
-      <c r="BS11" s="34"/>
-      <c r="BT11" s="34"/>
-      <c r="BU11" s="34"/>
-      <c r="BV11" s="34"/>
-      <c r="BW11" s="34"/>
-      <c r="BX11" s="34"/>
-      <c r="BY11" s="31"/>
-      <c r="BZ11" s="37"/>
-      <c r="CA11" s="37"/>
-      <c r="CB11" s="37"/>
-      <c r="CC11" s="37"/>
-      <c r="CD11" s="37"/>
-      <c r="CE11" s="37"/>
-      <c r="CF11" s="37"/>
-      <c r="CG11" s="37"/>
-      <c r="CH11" s="37"/>
-      <c r="CI11" s="37"/>
-      <c r="CJ11" s="37"/>
-      <c r="CK11" s="37"/>
-      <c r="CL11" s="37"/>
-      <c r="CM11" s="37"/>
-      <c r="CN11" s="37"/>
-      <c r="CO11" s="37"/>
-      <c r="CP11" s="37"/>
-      <c r="CQ11" s="37"/>
-      <c r="CR11" s="37"/>
-      <c r="CS11" s="37"/>
-      <c r="CT11" s="37"/>
-      <c r="CU11" s="32"/>
-      <c r="CV11" s="34" t="s">
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="53"/>
+      <c r="BA11" s="53"/>
+      <c r="BB11" s="53"/>
+      <c r="BC11" s="53"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="53"/>
+      <c r="BF11" s="53"/>
+      <c r="BG11" s="53"/>
+      <c r="BH11" s="53"/>
+      <c r="BI11" s="53"/>
+      <c r="BJ11" s="53"/>
+      <c r="BK11" s="53"/>
+      <c r="BL11" s="53"/>
+      <c r="BM11" s="53"/>
+      <c r="BN11" s="53"/>
+      <c r="BO11" s="53"/>
+      <c r="BP11" s="53"/>
+      <c r="BQ11" s="53"/>
+      <c r="BR11" s="53"/>
+      <c r="BS11" s="53"/>
+      <c r="BT11" s="53"/>
+      <c r="BU11" s="53"/>
+      <c r="BV11" s="53"/>
+      <c r="BW11" s="53"/>
+      <c r="BX11" s="53"/>
+      <c r="BY11" s="44"/>
+      <c r="BZ11" s="55"/>
+      <c r="CA11" s="55"/>
+      <c r="CB11" s="55"/>
+      <c r="CC11" s="55"/>
+      <c r="CD11" s="55"/>
+      <c r="CE11" s="55"/>
+      <c r="CF11" s="55"/>
+      <c r="CG11" s="55"/>
+      <c r="CH11" s="55"/>
+      <c r="CI11" s="55"/>
+      <c r="CJ11" s="55"/>
+      <c r="CK11" s="55"/>
+      <c r="CL11" s="55"/>
+      <c r="CM11" s="55"/>
+      <c r="CN11" s="55"/>
+      <c r="CO11" s="55"/>
+      <c r="CP11" s="55"/>
+      <c r="CQ11" s="55"/>
+      <c r="CR11" s="55"/>
+      <c r="CS11" s="55"/>
+      <c r="CT11" s="55"/>
+      <c r="CU11" s="45"/>
+      <c r="CV11" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="CW11" s="34"/>
-      <c r="CX11" s="34"/>
-      <c r="CY11" s="34"/>
-      <c r="CZ11" s="34"/>
-      <c r="DA11" s="34"/>
-      <c r="DB11" s="34"/>
-      <c r="DC11" s="34"/>
-      <c r="DD11" s="34"/>
-      <c r="DE11" s="34"/>
-      <c r="DF11" s="34"/>
-      <c r="DG11" s="34"/>
-      <c r="DH11" s="34"/>
-      <c r="DI11" s="34"/>
-      <c r="DJ11" s="34"/>
-      <c r="DK11" s="34"/>
-      <c r="DL11" s="34"/>
-      <c r="DM11" s="34"/>
-      <c r="DN11" s="34"/>
-      <c r="DO11" s="34"/>
-      <c r="DP11" s="34"/>
-      <c r="DQ11" s="34"/>
-      <c r="DR11" s="34"/>
-      <c r="DS11" s="34"/>
-      <c r="DT11" s="34"/>
-      <c r="DU11" s="34"/>
-      <c r="DV11" s="34"/>
-      <c r="DW11" s="34"/>
-      <c r="DX11" s="34"/>
-      <c r="DY11" s="34"/>
-      <c r="DZ11" s="34"/>
-      <c r="EA11" s="34"/>
-      <c r="EB11" s="34"/>
-      <c r="EC11" s="34"/>
-      <c r="ED11" s="34"/>
-      <c r="EE11" s="34"/>
-      <c r="EF11" s="34"/>
-      <c r="EG11" s="34"/>
-      <c r="EH11" s="34"/>
-      <c r="EI11" s="34"/>
-      <c r="EJ11" s="34"/>
-      <c r="EK11" s="34"/>
-      <c r="EL11" s="34"/>
-      <c r="EM11" s="34"/>
-      <c r="EN11" s="34" t="s">
+      <c r="CW11" s="53"/>
+      <c r="CX11" s="53"/>
+      <c r="CY11" s="53"/>
+      <c r="CZ11" s="53"/>
+      <c r="DA11" s="53"/>
+      <c r="DB11" s="53"/>
+      <c r="DC11" s="53"/>
+      <c r="DD11" s="53"/>
+      <c r="DE11" s="53"/>
+      <c r="DF11" s="53"/>
+      <c r="DG11" s="53"/>
+      <c r="DH11" s="53"/>
+      <c r="DI11" s="53"/>
+      <c r="DJ11" s="53"/>
+      <c r="DK11" s="53"/>
+      <c r="DL11" s="53"/>
+      <c r="DM11" s="53"/>
+      <c r="DN11" s="53"/>
+      <c r="DO11" s="53"/>
+      <c r="DP11" s="53"/>
+      <c r="DQ11" s="53"/>
+      <c r="DR11" s="53"/>
+      <c r="DS11" s="53"/>
+      <c r="DT11" s="53"/>
+      <c r="DU11" s="53"/>
+      <c r="DV11" s="53"/>
+      <c r="DW11" s="53"/>
+      <c r="DX11" s="53"/>
+      <c r="DY11" s="53"/>
+      <c r="DZ11" s="53"/>
+      <c r="EA11" s="53"/>
+      <c r="EB11" s="53"/>
+      <c r="EC11" s="53"/>
+      <c r="ED11" s="53"/>
+      <c r="EE11" s="53"/>
+      <c r="EF11" s="53"/>
+      <c r="EG11" s="53"/>
+      <c r="EH11" s="53"/>
+      <c r="EI11" s="53"/>
+      <c r="EJ11" s="53"/>
+      <c r="EK11" s="53"/>
+      <c r="EL11" s="53"/>
+      <c r="EM11" s="53"/>
+      <c r="EN11" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="EO11" s="34"/>
-      <c r="EP11" s="34"/>
-      <c r="EQ11" s="34"/>
-      <c r="ER11" s="34"/>
-      <c r="ES11" s="34"/>
-      <c r="ET11" s="34"/>
-      <c r="EU11" s="34"/>
-      <c r="EV11" s="34"/>
-      <c r="EW11" s="34"/>
-      <c r="EX11" s="34"/>
-      <c r="EY11" s="34"/>
-      <c r="EZ11" s="34"/>
-      <c r="FA11" s="34"/>
-      <c r="FB11" s="34"/>
-      <c r="FC11" s="34"/>
-      <c r="FD11" s="34"/>
-      <c r="FE11" s="34"/>
-      <c r="FF11" s="34"/>
-      <c r="FG11" s="34"/>
-      <c r="FH11" s="34"/>
-      <c r="FI11" s="34"/>
-      <c r="FJ11" s="34"/>
-      <c r="FK11" s="34"/>
-      <c r="FL11" s="34"/>
-      <c r="FM11" s="34"/>
-      <c r="FN11" s="34"/>
-      <c r="FO11" s="34"/>
-      <c r="FP11" s="34"/>
-      <c r="FQ11" s="34"/>
-      <c r="FR11" s="34"/>
-      <c r="FS11" s="34"/>
-      <c r="FT11" s="34"/>
-      <c r="FU11" s="34"/>
-      <c r="FV11" s="34"/>
-      <c r="FW11" s="34"/>
-      <c r="FX11" s="34"/>
-      <c r="FY11" s="34"/>
-      <c r="FZ11" s="34"/>
-      <c r="GA11" s="34"/>
-      <c r="GB11" s="34"/>
-      <c r="GC11" s="34"/>
-      <c r="GD11" s="34"/>
-      <c r="GE11" s="34"/>
-      <c r="GF11" s="34"/>
-      <c r="GG11" s="34"/>
-      <c r="GH11" s="34"/>
-      <c r="GI11" s="34"/>
-      <c r="GJ11" s="34"/>
-      <c r="GK11" s="34"/>
-      <c r="GL11" s="34"/>
-      <c r="GM11" s="34"/>
-      <c r="GN11" s="34"/>
-      <c r="GO11" s="34"/>
-      <c r="GP11" s="34"/>
-      <c r="GQ11" s="34"/>
-      <c r="GR11" s="34"/>
-      <c r="GS11" s="34"/>
-      <c r="GT11" s="34"/>
-      <c r="GU11" s="34"/>
-      <c r="GV11" s="34"/>
-      <c r="GW11" s="34"/>
-      <c r="GX11" s="34"/>
-      <c r="GY11" s="34"/>
-      <c r="GZ11" s="34"/>
-      <c r="HA11" s="34"/>
-      <c r="HB11" s="34"/>
-      <c r="HC11" s="34"/>
-      <c r="HD11" s="34"/>
-      <c r="HE11" s="34"/>
-      <c r="HF11" s="34"/>
-      <c r="HG11" s="34"/>
-      <c r="HH11" s="34"/>
-      <c r="HI11" s="34"/>
-      <c r="HJ11" s="34"/>
-      <c r="HK11" s="34"/>
-      <c r="HL11" s="34"/>
-      <c r="HM11" s="34"/>
-      <c r="HN11" s="34"/>
-      <c r="HO11" s="34"/>
-      <c r="HP11" s="34"/>
-      <c r="HQ11" s="34"/>
-      <c r="HR11" s="34"/>
-      <c r="HS11" s="34"/>
-      <c r="HT11" s="34"/>
-      <c r="HU11" s="34"/>
-      <c r="HV11" s="34"/>
-      <c r="HW11" s="34"/>
-      <c r="HX11" s="31" t="s">
+      <c r="EO11" s="53"/>
+      <c r="EP11" s="53"/>
+      <c r="EQ11" s="53"/>
+      <c r="ER11" s="53"/>
+      <c r="ES11" s="53"/>
+      <c r="ET11" s="53"/>
+      <c r="EU11" s="53"/>
+      <c r="EV11" s="53"/>
+      <c r="EW11" s="53"/>
+      <c r="EX11" s="53"/>
+      <c r="EY11" s="53"/>
+      <c r="EZ11" s="53"/>
+      <c r="FA11" s="53"/>
+      <c r="FB11" s="53"/>
+      <c r="FC11" s="53"/>
+      <c r="FD11" s="53"/>
+      <c r="FE11" s="53"/>
+      <c r="FF11" s="53"/>
+      <c r="FG11" s="53"/>
+      <c r="FH11" s="53"/>
+      <c r="FI11" s="53"/>
+      <c r="FJ11" s="53"/>
+      <c r="FK11" s="53"/>
+      <c r="FL11" s="53"/>
+      <c r="FM11" s="53"/>
+      <c r="FN11" s="53"/>
+      <c r="FO11" s="53"/>
+      <c r="FP11" s="53"/>
+      <c r="FQ11" s="53"/>
+      <c r="FR11" s="53"/>
+      <c r="FS11" s="53"/>
+      <c r="FT11" s="53"/>
+      <c r="FU11" s="53"/>
+      <c r="FV11" s="53"/>
+      <c r="FW11" s="53"/>
+      <c r="FX11" s="53"/>
+      <c r="FY11" s="53"/>
+      <c r="FZ11" s="53"/>
+      <c r="GA11" s="53"/>
+      <c r="GB11" s="53"/>
+      <c r="GC11" s="53"/>
+      <c r="GD11" s="53"/>
+      <c r="GE11" s="53"/>
+      <c r="GF11" s="53"/>
+      <c r="GG11" s="53"/>
+      <c r="GH11" s="53"/>
+      <c r="GI11" s="53"/>
+      <c r="GJ11" s="53"/>
+      <c r="GK11" s="53"/>
+      <c r="GL11" s="53"/>
+      <c r="GM11" s="53"/>
+      <c r="GN11" s="53"/>
+      <c r="GO11" s="53"/>
+      <c r="GP11" s="53"/>
+      <c r="GQ11" s="53"/>
+      <c r="GR11" s="53"/>
+      <c r="GS11" s="53"/>
+      <c r="GT11" s="53"/>
+      <c r="GU11" s="53"/>
+      <c r="GV11" s="53"/>
+      <c r="GW11" s="53"/>
+      <c r="GX11" s="53"/>
+      <c r="GY11" s="53"/>
+      <c r="GZ11" s="53"/>
+      <c r="HA11" s="53"/>
+      <c r="HB11" s="53"/>
+      <c r="HC11" s="53"/>
+      <c r="HD11" s="53"/>
+      <c r="HE11" s="53"/>
+      <c r="HF11" s="53"/>
+      <c r="HG11" s="53"/>
+      <c r="HH11" s="53"/>
+      <c r="HI11" s="53"/>
+      <c r="HJ11" s="53"/>
+      <c r="HK11" s="53"/>
+      <c r="HL11" s="53"/>
+      <c r="HM11" s="53"/>
+      <c r="HN11" s="53"/>
+      <c r="HO11" s="53"/>
+      <c r="HP11" s="53"/>
+      <c r="HQ11" s="53"/>
+      <c r="HR11" s="53"/>
+      <c r="HS11" s="53"/>
+      <c r="HT11" s="53"/>
+      <c r="HU11" s="53"/>
+      <c r="HV11" s="53"/>
+      <c r="HW11" s="53"/>
+      <c r="HX11" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="HY11" s="37"/>
-      <c r="HZ11" s="37"/>
-      <c r="IA11" s="37"/>
-      <c r="IB11" s="37"/>
-      <c r="IC11" s="37"/>
-      <c r="ID11" s="37"/>
-      <c r="IE11" s="37"/>
-      <c r="IF11" s="37"/>
-      <c r="IG11" s="37"/>
-      <c r="IH11" s="37"/>
-      <c r="II11" s="37"/>
-      <c r="IJ11" s="37"/>
-      <c r="IK11" s="37"/>
-      <c r="IL11" s="37"/>
-      <c r="IM11" s="37"/>
-      <c r="IN11" s="37"/>
-      <c r="IO11" s="32"/>
-      <c r="IP11" s="34" t="s">
+      <c r="HY11" s="55"/>
+      <c r="HZ11" s="55"/>
+      <c r="IA11" s="55"/>
+      <c r="IB11" s="55"/>
+      <c r="IC11" s="55"/>
+      <c r="ID11" s="55"/>
+      <c r="IE11" s="55"/>
+      <c r="IF11" s="55"/>
+      <c r="IG11" s="55"/>
+      <c r="IH11" s="55"/>
+      <c r="II11" s="55"/>
+      <c r="IJ11" s="55"/>
+      <c r="IK11" s="55"/>
+      <c r="IL11" s="55"/>
+      <c r="IM11" s="55"/>
+      <c r="IN11" s="55"/>
+      <c r="IO11" s="45"/>
+      <c r="IP11" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="IQ11" s="34"/>
-      <c r="IR11" s="34"/>
-      <c r="IS11" s="34"/>
-      <c r="IT11" s="34"/>
-      <c r="IU11" s="33"/>
-      <c r="IV11" s="33"/>
-      <c r="IW11" s="34" t="s">
+      <c r="IQ11" s="53"/>
+      <c r="IR11" s="53"/>
+      <c r="IS11" s="53"/>
+      <c r="IT11" s="53"/>
+      <c r="IU11" s="43"/>
+      <c r="IV11" s="43"/>
+      <c r="IW11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="IX11" s="34"/>
-      <c r="IY11" s="34"/>
-      <c r="IZ11" s="34"/>
-      <c r="JA11" s="34"/>
-      <c r="JB11" s="34"/>
-      <c r="JC11" s="34"/>
-      <c r="JD11" s="34"/>
-      <c r="JE11" s="34"/>
-      <c r="JF11" s="34"/>
-      <c r="JG11" s="34"/>
-      <c r="JH11" s="34"/>
-      <c r="JI11" s="34"/>
-      <c r="JJ11" s="34"/>
-      <c r="JK11" s="34"/>
-      <c r="JL11" s="34"/>
-      <c r="JM11" s="34"/>
-      <c r="JN11" s="34"/>
-      <c r="JO11" s="34"/>
-      <c r="JP11" s="34"/>
-      <c r="JQ11" s="34"/>
-      <c r="JR11" s="34"/>
-      <c r="JS11" s="34"/>
-      <c r="JT11" s="34"/>
-      <c r="JU11" s="34"/>
-      <c r="JV11" s="34"/>
-      <c r="JW11" s="34"/>
-      <c r="JX11" s="34"/>
-      <c r="JY11" s="34"/>
-      <c r="JZ11" s="34"/>
-      <c r="KA11" s="34"/>
-      <c r="KB11" s="34"/>
-      <c r="KC11" s="34"/>
-      <c r="KD11" s="34"/>
-      <c r="KE11" s="34"/>
-      <c r="KF11" s="34"/>
-      <c r="KG11" s="34"/>
-      <c r="KH11" s="34"/>
-      <c r="KI11" s="34"/>
-      <c r="KJ11" s="34"/>
-      <c r="KK11" s="34"/>
-      <c r="KL11" s="34"/>
-      <c r="KM11" s="34"/>
-      <c r="KN11" s="34"/>
-      <c r="KO11" s="34"/>
-      <c r="KP11" s="34"/>
-      <c r="KQ11" s="34"/>
-      <c r="KR11" s="34"/>
-      <c r="KS11" s="34"/>
-      <c r="KT11" s="34"/>
-      <c r="KU11" s="34"/>
-      <c r="KV11" s="34"/>
-      <c r="KW11" s="34"/>
-      <c r="KX11" s="34"/>
-      <c r="KY11" s="34"/>
-      <c r="KZ11" s="34"/>
-      <c r="LA11" s="34"/>
-      <c r="LB11" s="34"/>
-      <c r="LC11" s="34"/>
-      <c r="LD11" s="34"/>
-      <c r="LE11" s="34"/>
-      <c r="LF11" s="34"/>
-      <c r="LG11" s="34"/>
-      <c r="LH11" s="34"/>
-      <c r="LI11" s="33"/>
-      <c r="LJ11" s="33"/>
-      <c r="LK11" s="33"/>
-      <c r="LL11" s="33"/>
-      <c r="LM11" s="33"/>
-      <c r="LN11" s="33"/>
-      <c r="LO11" s="33"/>
-      <c r="LP11" s="33"/>
-      <c r="LQ11" s="33"/>
-      <c r="LR11" s="33"/>
-      <c r="LS11" s="33"/>
-      <c r="LT11" s="33"/>
-      <c r="LU11" s="33"/>
-      <c r="LV11" s="33"/>
-      <c r="LW11" s="33"/>
-      <c r="LX11" s="33"/>
-      <c r="LY11" s="33"/>
-      <c r="LZ11" s="33"/>
-      <c r="MA11" s="33"/>
-      <c r="MB11" s="33"/>
-      <c r="MC11" s="33"/>
-      <c r="MD11" s="33"/>
-      <c r="ME11" s="33"/>
-      <c r="MF11" s="33"/>
-      <c r="MG11" s="33"/>
-      <c r="MH11" s="33"/>
-      <c r="MI11" s="33"/>
-      <c r="MJ11" s="33"/>
-      <c r="MK11" s="33"/>
-      <c r="ML11" s="33"/>
-      <c r="MM11" s="33"/>
-      <c r="MN11" s="33"/>
-      <c r="MO11" s="33"/>
-      <c r="MP11" s="33"/>
-      <c r="MQ11" s="33"/>
-      <c r="MR11" s="33"/>
-      <c r="MS11" s="33"/>
-      <c r="MT11" s="33"/>
-      <c r="MU11" s="33"/>
-      <c r="MV11" s="33"/>
-      <c r="MW11" s="33"/>
-      <c r="MX11" s="33"/>
-      <c r="MY11" s="33"/>
-      <c r="MZ11" s="33"/>
-      <c r="NA11" s="33"/>
-      <c r="NB11" s="33"/>
-      <c r="NC11" s="33"/>
-      <c r="ND11" s="33"/>
-      <c r="NE11" s="33"/>
-      <c r="NF11" s="33"/>
-      <c r="NG11" s="33"/>
-      <c r="NH11" s="33"/>
-      <c r="NI11" s="33"/>
-      <c r="NJ11" s="33"/>
+      <c r="IX11" s="53"/>
+      <c r="IY11" s="53"/>
+      <c r="IZ11" s="53"/>
+      <c r="JA11" s="53"/>
+      <c r="JB11" s="53"/>
+      <c r="JC11" s="53"/>
+      <c r="JD11" s="53"/>
+      <c r="JE11" s="53"/>
+      <c r="JF11" s="53"/>
+      <c r="JG11" s="53"/>
+      <c r="JH11" s="53"/>
+      <c r="JI11" s="53"/>
+      <c r="JJ11" s="53"/>
+      <c r="JK11" s="53"/>
+      <c r="JL11" s="53"/>
+      <c r="JM11" s="53"/>
+      <c r="JN11" s="53"/>
+      <c r="JO11" s="53"/>
+      <c r="JP11" s="53"/>
+      <c r="JQ11" s="53"/>
+      <c r="JR11" s="53"/>
+      <c r="JS11" s="53"/>
+      <c r="JT11" s="53"/>
+      <c r="JU11" s="53"/>
+      <c r="JV11" s="53"/>
+      <c r="JW11" s="53"/>
+      <c r="JX11" s="53"/>
+      <c r="JY11" s="53"/>
+      <c r="JZ11" s="53"/>
+      <c r="KA11" s="53"/>
+      <c r="KB11" s="53"/>
+      <c r="KC11" s="53"/>
+      <c r="KD11" s="53"/>
+      <c r="KE11" s="53"/>
+      <c r="KF11" s="53"/>
+      <c r="KG11" s="53"/>
+      <c r="KH11" s="53"/>
+      <c r="KI11" s="53"/>
+      <c r="KJ11" s="53"/>
+      <c r="KK11" s="53"/>
+      <c r="KL11" s="53"/>
+      <c r="KM11" s="53"/>
+      <c r="KN11" s="53"/>
+      <c r="KO11" s="53"/>
+      <c r="KP11" s="53"/>
+      <c r="KQ11" s="53"/>
+      <c r="KR11" s="53"/>
+      <c r="KS11" s="53"/>
+      <c r="KT11" s="53"/>
+      <c r="KU11" s="53"/>
+      <c r="KV11" s="53"/>
+      <c r="KW11" s="53"/>
+      <c r="KX11" s="53"/>
+      <c r="KY11" s="53"/>
+      <c r="KZ11" s="53"/>
+      <c r="LA11" s="53"/>
+      <c r="LB11" s="53"/>
+      <c r="LC11" s="53"/>
+      <c r="LD11" s="53"/>
+      <c r="LE11" s="53"/>
+      <c r="LF11" s="53"/>
+      <c r="LG11" s="53"/>
+      <c r="LH11" s="53"/>
+      <c r="LI11" s="43"/>
+      <c r="LJ11" s="43"/>
+      <c r="LK11" s="43"/>
+      <c r="LL11" s="43"/>
+      <c r="LM11" s="43"/>
+      <c r="LN11" s="43"/>
+      <c r="LO11" s="43"/>
+      <c r="LP11" s="43"/>
+      <c r="LQ11" s="43"/>
+      <c r="LR11" s="43"/>
+      <c r="LS11" s="43"/>
+      <c r="LT11" s="43"/>
+      <c r="LU11" s="43"/>
+      <c r="LV11" s="43"/>
+      <c r="LW11" s="43"/>
+      <c r="LX11" s="43"/>
+      <c r="LY11" s="43"/>
+      <c r="LZ11" s="43"/>
+      <c r="MA11" s="43"/>
+      <c r="MB11" s="43"/>
+      <c r="MC11" s="43"/>
+      <c r="MD11" s="43"/>
+      <c r="ME11" s="43"/>
+      <c r="MF11" s="43"/>
+      <c r="MG11" s="43"/>
+      <c r="MH11" s="43"/>
+      <c r="MI11" s="43"/>
+      <c r="MJ11" s="43"/>
+      <c r="MK11" s="43"/>
+      <c r="ML11" s="43"/>
+      <c r="MM11" s="43"/>
+      <c r="MN11" s="43"/>
+      <c r="MO11" s="43"/>
+      <c r="MP11" s="43"/>
+      <c r="MQ11" s="43"/>
+      <c r="MR11" s="43"/>
+      <c r="MS11" s="43"/>
+      <c r="MT11" s="43"/>
+      <c r="MU11" s="43"/>
+      <c r="MV11" s="43"/>
+      <c r="MW11" s="43"/>
+      <c r="MX11" s="43"/>
+      <c r="MY11" s="43"/>
+      <c r="MZ11" s="43"/>
+      <c r="NA11" s="43"/>
+      <c r="NB11" s="43"/>
+      <c r="NC11" s="43"/>
+      <c r="ND11" s="43"/>
+      <c r="NE11" s="43"/>
+      <c r="NF11" s="43"/>
+      <c r="NG11" s="43"/>
+      <c r="NH11" s="43"/>
+      <c r="NI11" s="43"/>
+      <c r="NJ11" s="43"/>
       <c r="NK11" s="15"/>
       <c r="NL11" s="15"/>
       <c r="NM11" s="15"/>
@@ -3859,554 +3880,554 @@
       <c r="NX11" s="15"/>
     </row>
     <row r="12" spans="1:388" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
-      <c r="B12" s="61" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="35" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="33" t="s">
+      <c r="J12" s="54"/>
+      <c r="K12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="50" t="s">
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="50" t="s">
+      <c r="P12" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" s="50" t="s">
+      <c r="Q12" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="50" t="s">
+      <c r="R12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S12" s="64" t="s">
+      <c r="S12" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="T12" s="50" t="s">
+      <c r="T12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="50" t="s">
+      <c r="U12" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="50" t="s">
+      <c r="V12" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="W12" s="50" t="s">
+      <c r="W12" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="X12" s="50" t="s">
+      <c r="X12" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="50" t="s">
+      <c r="Y12" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="Z12" s="50" t="s">
+      <c r="Z12" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="AA12" s="50" t="s">
+      <c r="AA12" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AB12" s="50" t="s">
+      <c r="AB12" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="AC12" s="50" t="s">
+      <c r="AC12" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="AD12" s="33" t="s">
+      <c r="AD12" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33" t="s">
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33" t="s">
+      <c r="AH12" s="43"/>
+      <c r="AI12" s="43"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33" t="s">
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33" t="s">
+      <c r="AN12" s="43"/>
+      <c r="AO12" s="43"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33"/>
-      <c r="BA12" s="33"/>
-      <c r="BB12" s="33"/>
-      <c r="BC12" s="33"/>
-      <c r="BD12" s="33" t="s">
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="43"/>
+      <c r="AX12" s="43"/>
+      <c r="AY12" s="43"/>
+      <c r="AZ12" s="43"/>
+      <c r="BA12" s="43"/>
+      <c r="BB12" s="43"/>
+      <c r="BC12" s="43"/>
+      <c r="BD12" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="BE12" s="33"/>
-      <c r="BF12" s="33"/>
-      <c r="BG12" s="33"/>
-      <c r="BH12" s="33"/>
-      <c r="BI12" s="33"/>
-      <c r="BJ12" s="33"/>
-      <c r="BK12" s="33"/>
-      <c r="BL12" s="33"/>
-      <c r="BM12" s="33"/>
-      <c r="BN12" s="33" t="s">
+      <c r="BE12" s="43"/>
+      <c r="BF12" s="43"/>
+      <c r="BG12" s="43"/>
+      <c r="BH12" s="43"/>
+      <c r="BI12" s="43"/>
+      <c r="BJ12" s="43"/>
+      <c r="BK12" s="43"/>
+      <c r="BL12" s="43"/>
+      <c r="BM12" s="43"/>
+      <c r="BN12" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="BO12" s="33"/>
-      <c r="BP12" s="33"/>
-      <c r="BQ12" s="33" t="s">
+      <c r="BO12" s="43"/>
+      <c r="BP12" s="43"/>
+      <c r="BQ12" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="BR12" s="33"/>
-      <c r="BS12" s="33"/>
-      <c r="BT12" s="33"/>
-      <c r="BU12" s="33" t="s">
+      <c r="BR12" s="43"/>
+      <c r="BS12" s="43"/>
+      <c r="BT12" s="43"/>
+      <c r="BU12" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="BV12" s="33"/>
-      <c r="BW12" s="33"/>
-      <c r="BX12" s="33"/>
-      <c r="BY12" s="38" t="s">
+      <c r="BV12" s="43"/>
+      <c r="BW12" s="43"/>
+      <c r="BX12" s="43"/>
+      <c r="BY12" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="BZ12" s="40"/>
-      <c r="CA12" s="38" t="s">
+      <c r="BZ12" s="33"/>
+      <c r="CA12" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="CB12" s="40"/>
-      <c r="CC12" s="38" t="s">
+      <c r="CB12" s="33"/>
+      <c r="CC12" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="CD12" s="40"/>
-      <c r="CE12" s="38" t="s">
+      <c r="CD12" s="33"/>
+      <c r="CE12" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="CF12" s="40"/>
-      <c r="CG12" s="33" t="s">
+      <c r="CF12" s="33"/>
+      <c r="CG12" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="CH12" s="33"/>
-      <c r="CI12" s="33"/>
-      <c r="CJ12" s="33"/>
-      <c r="CK12" s="33"/>
-      <c r="CL12" s="38" t="s">
+      <c r="CH12" s="43"/>
+      <c r="CI12" s="43"/>
+      <c r="CJ12" s="43"/>
+      <c r="CK12" s="43"/>
+      <c r="CL12" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="CM12" s="40"/>
-      <c r="CN12" s="38" t="s">
+      <c r="CM12" s="33"/>
+      <c r="CN12" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="CO12" s="40"/>
-      <c r="CP12" s="38" t="s">
+      <c r="CO12" s="33"/>
+      <c r="CP12" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="CQ12" s="40"/>
-      <c r="CR12" s="38" t="s">
+      <c r="CQ12" s="33"/>
+      <c r="CR12" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="CS12" s="40"/>
-      <c r="CT12" s="38" t="s">
+      <c r="CS12" s="33"/>
+      <c r="CT12" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="CU12" s="40"/>
-      <c r="CV12" s="38" t="s">
+      <c r="CU12" s="33"/>
+      <c r="CV12" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="CW12" s="40"/>
-      <c r="CX12" s="33" t="s">
+      <c r="CW12" s="33"/>
+      <c r="CX12" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="CY12" s="33"/>
-      <c r="CZ12" s="33"/>
-      <c r="DA12" s="33"/>
-      <c r="DB12" s="44" t="s">
+      <c r="CY12" s="43"/>
+      <c r="CZ12" s="43"/>
+      <c r="DA12" s="43"/>
+      <c r="DB12" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="DC12" s="45"/>
-      <c r="DD12" s="46"/>
-      <c r="DE12" s="38" t="s">
+      <c r="DC12" s="57"/>
+      <c r="DD12" s="58"/>
+      <c r="DE12" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="DF12" s="39"/>
-      <c r="DG12" s="39"/>
-      <c r="DH12" s="39"/>
-      <c r="DI12" s="39"/>
-      <c r="DJ12" s="39"/>
-      <c r="DK12" s="39"/>
-      <c r="DL12" s="40"/>
-      <c r="DM12" s="38" t="s">
+      <c r="DF12" s="32"/>
+      <c r="DG12" s="32"/>
+      <c r="DH12" s="32"/>
+      <c r="DI12" s="32"/>
+      <c r="DJ12" s="32"/>
+      <c r="DK12" s="32"/>
+      <c r="DL12" s="33"/>
+      <c r="DM12" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="DN12" s="40"/>
-      <c r="DO12" s="33" t="s">
+      <c r="DN12" s="33"/>
+      <c r="DO12" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="DP12" s="33"/>
-      <c r="DQ12" s="33"/>
-      <c r="DR12" s="38" t="s">
+      <c r="DP12" s="43"/>
+      <c r="DQ12" s="43"/>
+      <c r="DR12" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="DS12" s="39"/>
-      <c r="DT12" s="39"/>
-      <c r="DU12" s="39"/>
-      <c r="DV12" s="39"/>
-      <c r="DW12" s="39"/>
-      <c r="DX12" s="39"/>
-      <c r="DY12" s="40"/>
-      <c r="DZ12" s="38" t="s">
+      <c r="DS12" s="32"/>
+      <c r="DT12" s="32"/>
+      <c r="DU12" s="32"/>
+      <c r="DV12" s="32"/>
+      <c r="DW12" s="32"/>
+      <c r="DX12" s="32"/>
+      <c r="DY12" s="33"/>
+      <c r="DZ12" s="31" t="s">
         <v>518</v>
       </c>
-      <c r="EA12" s="39"/>
-      <c r="EB12" s="39"/>
-      <c r="EC12" s="39"/>
-      <c r="ED12" s="39"/>
-      <c r="EE12" s="39"/>
-      <c r="EF12" s="39"/>
-      <c r="EG12" s="39"/>
-      <c r="EH12" s="39"/>
-      <c r="EI12" s="39"/>
-      <c r="EJ12" s="39"/>
-      <c r="EK12" s="39"/>
-      <c r="EL12" s="39"/>
-      <c r="EM12" s="40"/>
-      <c r="EN12" s="38" t="s">
+      <c r="EA12" s="32"/>
+      <c r="EB12" s="32"/>
+      <c r="EC12" s="32"/>
+      <c r="ED12" s="32"/>
+      <c r="EE12" s="32"/>
+      <c r="EF12" s="32"/>
+      <c r="EG12" s="32"/>
+      <c r="EH12" s="32"/>
+      <c r="EI12" s="32"/>
+      <c r="EJ12" s="32"/>
+      <c r="EK12" s="32"/>
+      <c r="EL12" s="32"/>
+      <c r="EM12" s="33"/>
+      <c r="EN12" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="EO12" s="39"/>
-      <c r="EP12" s="40"/>
-      <c r="EQ12" s="38" t="s">
+      <c r="EO12" s="32"/>
+      <c r="EP12" s="33"/>
+      <c r="EQ12" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="ER12" s="39"/>
-      <c r="ES12" s="40"/>
-      <c r="ET12" s="38" t="s">
+      <c r="ER12" s="32"/>
+      <c r="ES12" s="33"/>
+      <c r="ET12" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="EU12" s="39"/>
-      <c r="EV12" s="40"/>
-      <c r="EW12" s="38" t="s">
+      <c r="EU12" s="32"/>
+      <c r="EV12" s="33"/>
+      <c r="EW12" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="EX12" s="39"/>
-      <c r="EY12" s="40"/>
-      <c r="EZ12" s="38" t="s">
+      <c r="EX12" s="32"/>
+      <c r="EY12" s="33"/>
+      <c r="EZ12" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="FA12" s="39"/>
-      <c r="FB12" s="40"/>
-      <c r="FC12" s="38" t="s">
+      <c r="FA12" s="32"/>
+      <c r="FB12" s="33"/>
+      <c r="FC12" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="FD12" s="39"/>
-      <c r="FE12" s="40"/>
-      <c r="FF12" s="38" t="s">
+      <c r="FD12" s="32"/>
+      <c r="FE12" s="33"/>
+      <c r="FF12" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="FG12" s="39"/>
-      <c r="FH12" s="40"/>
-      <c r="FI12" s="38" t="s">
+      <c r="FG12" s="32"/>
+      <c r="FH12" s="33"/>
+      <c r="FI12" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="FJ12" s="39"/>
-      <c r="FK12" s="40"/>
-      <c r="FL12" s="38" t="s">
+      <c r="FJ12" s="32"/>
+      <c r="FK12" s="33"/>
+      <c r="FL12" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="FM12" s="39"/>
-      <c r="FN12" s="40"/>
-      <c r="FO12" s="38" t="s">
+      <c r="FM12" s="32"/>
+      <c r="FN12" s="33"/>
+      <c r="FO12" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="FP12" s="39"/>
-      <c r="FQ12" s="40"/>
-      <c r="FR12" s="38" t="s">
+      <c r="FP12" s="32"/>
+      <c r="FQ12" s="33"/>
+      <c r="FR12" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="FS12" s="39"/>
-      <c r="FT12" s="40"/>
-      <c r="FU12" s="38" t="s">
+      <c r="FS12" s="32"/>
+      <c r="FT12" s="33"/>
+      <c r="FU12" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="FV12" s="39"/>
-      <c r="FW12" s="40"/>
-      <c r="FX12" s="38" t="s">
+      <c r="FV12" s="32"/>
+      <c r="FW12" s="33"/>
+      <c r="FX12" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="FY12" s="39"/>
-      <c r="FZ12" s="40"/>
-      <c r="GA12" s="38" t="s">
+      <c r="FY12" s="32"/>
+      <c r="FZ12" s="33"/>
+      <c r="GA12" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="GB12" s="39"/>
-      <c r="GC12" s="40"/>
-      <c r="GD12" s="38" t="s">
+      <c r="GB12" s="32"/>
+      <c r="GC12" s="33"/>
+      <c r="GD12" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="GE12" s="39"/>
-      <c r="GF12" s="40"/>
-      <c r="GG12" s="38" t="s">
+      <c r="GE12" s="32"/>
+      <c r="GF12" s="33"/>
+      <c r="GG12" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="GH12" s="39"/>
-      <c r="GI12" s="40"/>
-      <c r="GJ12" s="38" t="s">
+      <c r="GH12" s="32"/>
+      <c r="GI12" s="33"/>
+      <c r="GJ12" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="GK12" s="39"/>
-      <c r="GL12" s="40"/>
-      <c r="GM12" s="38" t="s">
+      <c r="GK12" s="32"/>
+      <c r="GL12" s="33"/>
+      <c r="GM12" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="GN12" s="39"/>
-      <c r="GO12" s="40"/>
-      <c r="GP12" s="38" t="s">
+      <c r="GN12" s="32"/>
+      <c r="GO12" s="33"/>
+      <c r="GP12" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="GQ12" s="39"/>
-      <c r="GR12" s="39"/>
-      <c r="GS12" s="40"/>
-      <c r="GT12" s="38" t="s">
+      <c r="GQ12" s="32"/>
+      <c r="GR12" s="32"/>
+      <c r="GS12" s="33"/>
+      <c r="GT12" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="GU12" s="39"/>
-      <c r="GV12" s="39"/>
-      <c r="GW12" s="40"/>
-      <c r="GX12" s="38" t="s">
+      <c r="GU12" s="32"/>
+      <c r="GV12" s="32"/>
+      <c r="GW12" s="33"/>
+      <c r="GX12" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="GY12" s="39"/>
-      <c r="GZ12" s="39"/>
-      <c r="HA12" s="40"/>
-      <c r="HB12" s="38" t="s">
+      <c r="GY12" s="32"/>
+      <c r="GZ12" s="32"/>
+      <c r="HA12" s="33"/>
+      <c r="HB12" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="HC12" s="39"/>
-      <c r="HD12" s="39"/>
-      <c r="HE12" s="40"/>
-      <c r="HF12" s="38" t="s">
+      <c r="HC12" s="32"/>
+      <c r="HD12" s="32"/>
+      <c r="HE12" s="33"/>
+      <c r="HF12" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="HG12" s="39"/>
-      <c r="HH12" s="39"/>
-      <c r="HI12" s="40"/>
-      <c r="HJ12" s="38" t="s">
+      <c r="HG12" s="32"/>
+      <c r="HH12" s="32"/>
+      <c r="HI12" s="33"/>
+      <c r="HJ12" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="HK12" s="39"/>
-      <c r="HL12" s="39"/>
-      <c r="HM12" s="40"/>
-      <c r="HN12" s="38" t="s">
+      <c r="HK12" s="32"/>
+      <c r="HL12" s="32"/>
+      <c r="HM12" s="33"/>
+      <c r="HN12" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="HO12" s="39"/>
-      <c r="HP12" s="39"/>
-      <c r="HQ12" s="40"/>
-      <c r="HR12" s="38" t="s">
+      <c r="HO12" s="32"/>
+      <c r="HP12" s="32"/>
+      <c r="HQ12" s="33"/>
+      <c r="HR12" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="HS12" s="39"/>
-      <c r="HT12" s="39"/>
-      <c r="HU12" s="40"/>
-      <c r="HV12" s="50" t="s">
+      <c r="HS12" s="32"/>
+      <c r="HT12" s="32"/>
+      <c r="HU12" s="33"/>
+      <c r="HV12" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="HW12" s="50" t="s">
+      <c r="HW12" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="HX12" s="31" t="s">
+      <c r="HX12" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="HY12" s="37"/>
-      <c r="HZ12" s="37"/>
-      <c r="IA12" s="37"/>
-      <c r="IB12" s="37"/>
-      <c r="IC12" s="37"/>
-      <c r="ID12" s="37"/>
-      <c r="IE12" s="37"/>
-      <c r="IF12" s="37"/>
-      <c r="IG12" s="37"/>
-      <c r="IH12" s="37"/>
-      <c r="II12" s="37"/>
-      <c r="IJ12" s="37"/>
-      <c r="IK12" s="37"/>
-      <c r="IL12" s="37"/>
-      <c r="IM12" s="37"/>
-      <c r="IN12" s="37"/>
-      <c r="IO12" s="32"/>
-      <c r="IP12" s="34" t="s">
+      <c r="HY12" s="55"/>
+      <c r="HZ12" s="55"/>
+      <c r="IA12" s="55"/>
+      <c r="IB12" s="55"/>
+      <c r="IC12" s="55"/>
+      <c r="ID12" s="55"/>
+      <c r="IE12" s="55"/>
+      <c r="IF12" s="55"/>
+      <c r="IG12" s="55"/>
+      <c r="IH12" s="55"/>
+      <c r="II12" s="55"/>
+      <c r="IJ12" s="55"/>
+      <c r="IK12" s="55"/>
+      <c r="IL12" s="55"/>
+      <c r="IM12" s="55"/>
+      <c r="IN12" s="55"/>
+      <c r="IO12" s="45"/>
+      <c r="IP12" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="IQ12" s="34"/>
-      <c r="IR12" s="34"/>
-      <c r="IS12" s="34"/>
-      <c r="IT12" s="34"/>
-      <c r="IU12" s="33" t="s">
+      <c r="IQ12" s="53"/>
+      <c r="IR12" s="53"/>
+      <c r="IS12" s="53"/>
+      <c r="IT12" s="53"/>
+      <c r="IU12" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="IV12" s="33"/>
-      <c r="IW12" s="34" t="s">
+      <c r="IV12" s="43"/>
+      <c r="IW12" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="IX12" s="34"/>
-      <c r="IY12" s="34"/>
-      <c r="IZ12" s="34"/>
-      <c r="JA12" s="34"/>
-      <c r="JB12" s="34"/>
-      <c r="JC12" s="34"/>
-      <c r="JD12" s="34"/>
-      <c r="JE12" s="34"/>
-      <c r="JF12" s="34"/>
-      <c r="JG12" s="34"/>
-      <c r="JH12" s="33" t="s">
+      <c r="IX12" s="53"/>
+      <c r="IY12" s="53"/>
+      <c r="IZ12" s="53"/>
+      <c r="JA12" s="53"/>
+      <c r="JB12" s="53"/>
+      <c r="JC12" s="53"/>
+      <c r="JD12" s="53"/>
+      <c r="JE12" s="53"/>
+      <c r="JF12" s="53"/>
+      <c r="JG12" s="53"/>
+      <c r="JH12" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="JI12" s="33"/>
-      <c r="JJ12" s="33"/>
-      <c r="JK12" s="33"/>
-      <c r="JL12" s="33" t="s">
+      <c r="JI12" s="43"/>
+      <c r="JJ12" s="43"/>
+      <c r="JK12" s="43"/>
+      <c r="JL12" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="JM12" s="33"/>
-      <c r="JN12" s="33"/>
-      <c r="JO12" s="33"/>
-      <c r="JP12" s="33"/>
-      <c r="JQ12" s="33"/>
-      <c r="JR12" s="33"/>
-      <c r="JS12" s="33"/>
-      <c r="JT12" s="33"/>
-      <c r="JU12" s="33"/>
-      <c r="JV12" s="33"/>
-      <c r="JW12" s="33"/>
-      <c r="JX12" s="33"/>
-      <c r="JY12" s="33"/>
-      <c r="JZ12" s="33"/>
-      <c r="KA12" s="33"/>
-      <c r="KB12" s="33" t="s">
+      <c r="JM12" s="43"/>
+      <c r="JN12" s="43"/>
+      <c r="JO12" s="43"/>
+      <c r="JP12" s="43"/>
+      <c r="JQ12" s="43"/>
+      <c r="JR12" s="43"/>
+      <c r="JS12" s="43"/>
+      <c r="JT12" s="43"/>
+      <c r="JU12" s="43"/>
+      <c r="JV12" s="43"/>
+      <c r="JW12" s="43"/>
+      <c r="JX12" s="43"/>
+      <c r="JY12" s="43"/>
+      <c r="JZ12" s="43"/>
+      <c r="KA12" s="43"/>
+      <c r="KB12" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="KC12" s="33"/>
-      <c r="KD12" s="33"/>
-      <c r="KE12" s="33"/>
-      <c r="KF12" s="33"/>
-      <c r="KG12" s="33"/>
-      <c r="KH12" s="33"/>
-      <c r="KI12" s="33"/>
-      <c r="KJ12" s="33"/>
-      <c r="KK12" s="33"/>
-      <c r="KL12" s="33"/>
-      <c r="KM12" s="33"/>
-      <c r="KN12" s="33"/>
-      <c r="KO12" s="33"/>
-      <c r="KP12" s="33"/>
-      <c r="KQ12" s="33"/>
-      <c r="KR12" s="33" t="s">
+      <c r="KC12" s="43"/>
+      <c r="KD12" s="43"/>
+      <c r="KE12" s="43"/>
+      <c r="KF12" s="43"/>
+      <c r="KG12" s="43"/>
+      <c r="KH12" s="43"/>
+      <c r="KI12" s="43"/>
+      <c r="KJ12" s="43"/>
+      <c r="KK12" s="43"/>
+      <c r="KL12" s="43"/>
+      <c r="KM12" s="43"/>
+      <c r="KN12" s="43"/>
+      <c r="KO12" s="43"/>
+      <c r="KP12" s="43"/>
+      <c r="KQ12" s="43"/>
+      <c r="KR12" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="KS12" s="33"/>
-      <c r="KT12" s="33"/>
-      <c r="KU12" s="33"/>
-      <c r="KV12" s="33"/>
-      <c r="KW12" s="33"/>
-      <c r="KX12" s="33"/>
-      <c r="KY12" s="33"/>
-      <c r="KZ12" s="33"/>
-      <c r="LA12" s="33"/>
-      <c r="LB12" s="33"/>
-      <c r="LC12" s="33"/>
-      <c r="LD12" s="33"/>
-      <c r="LE12" s="33"/>
-      <c r="LF12" s="33"/>
-      <c r="LG12" s="33"/>
-      <c r="LH12" s="33"/>
-      <c r="LI12" s="33" t="s">
+      <c r="KS12" s="43"/>
+      <c r="KT12" s="43"/>
+      <c r="KU12" s="43"/>
+      <c r="KV12" s="43"/>
+      <c r="KW12" s="43"/>
+      <c r="KX12" s="43"/>
+      <c r="KY12" s="43"/>
+      <c r="KZ12" s="43"/>
+      <c r="LA12" s="43"/>
+      <c r="LB12" s="43"/>
+      <c r="LC12" s="43"/>
+      <c r="LD12" s="43"/>
+      <c r="LE12" s="43"/>
+      <c r="LF12" s="43"/>
+      <c r="LG12" s="43"/>
+      <c r="LH12" s="43"/>
+      <c r="LI12" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="LJ12" s="33"/>
-      <c r="LK12" s="33"/>
-      <c r="LL12" s="33"/>
-      <c r="LM12" s="33"/>
-      <c r="LN12" s="33"/>
-      <c r="LO12" s="33"/>
-      <c r="LP12" s="33"/>
-      <c r="LQ12" s="33"/>
-      <c r="LR12" s="33"/>
-      <c r="LS12" s="33" t="s">
+      <c r="LJ12" s="43"/>
+      <c r="LK12" s="43"/>
+      <c r="LL12" s="43"/>
+      <c r="LM12" s="43"/>
+      <c r="LN12" s="43"/>
+      <c r="LO12" s="43"/>
+      <c r="LP12" s="43"/>
+      <c r="LQ12" s="43"/>
+      <c r="LR12" s="43"/>
+      <c r="LS12" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="LT12" s="33"/>
-      <c r="LU12" s="33"/>
-      <c r="LV12" s="33"/>
-      <c r="LW12" s="33"/>
-      <c r="LX12" s="33" t="s">
+      <c r="LT12" s="43"/>
+      <c r="LU12" s="43"/>
+      <c r="LV12" s="43"/>
+      <c r="LW12" s="43"/>
+      <c r="LX12" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="LY12" s="33"/>
-      <c r="LZ12" s="33"/>
-      <c r="MA12" s="33"/>
-      <c r="MB12" s="33"/>
-      <c r="MC12" s="33"/>
-      <c r="MD12" s="33"/>
-      <c r="ME12" s="33" t="s">
+      <c r="LY12" s="43"/>
+      <c r="LZ12" s="43"/>
+      <c r="MA12" s="43"/>
+      <c r="MB12" s="43"/>
+      <c r="MC12" s="43"/>
+      <c r="MD12" s="43"/>
+      <c r="ME12" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="MF12" s="33"/>
-      <c r="MG12" s="33"/>
-      <c r="MH12" s="33"/>
-      <c r="MI12" s="33"/>
-      <c r="MJ12" s="33"/>
-      <c r="MK12" s="33"/>
-      <c r="ML12" s="33"/>
-      <c r="MM12" s="33" t="s">
+      <c r="MF12" s="43"/>
+      <c r="MG12" s="43"/>
+      <c r="MH12" s="43"/>
+      <c r="MI12" s="43"/>
+      <c r="MJ12" s="43"/>
+      <c r="MK12" s="43"/>
+      <c r="ML12" s="43"/>
+      <c r="MM12" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="MN12" s="33"/>
-      <c r="MO12" s="33"/>
-      <c r="MP12" s="33"/>
-      <c r="MQ12" s="33"/>
-      <c r="MR12" s="33"/>
-      <c r="MS12" s="33"/>
-      <c r="MT12" s="33"/>
-      <c r="MU12" s="33"/>
-      <c r="MV12" s="33"/>
-      <c r="MW12" s="33"/>
-      <c r="MX12" s="33"/>
-      <c r="MY12" s="33"/>
-      <c r="MZ12" s="33"/>
-      <c r="NA12" s="33"/>
-      <c r="NB12" s="33"/>
-      <c r="NC12" s="33"/>
-      <c r="ND12" s="33"/>
-      <c r="NE12" s="33"/>
-      <c r="NF12" s="33"/>
-      <c r="NG12" s="33"/>
-      <c r="NH12" s="33"/>
-      <c r="NI12" s="33"/>
-      <c r="NJ12" s="33"/>
+      <c r="MN12" s="43"/>
+      <c r="MO12" s="43"/>
+      <c r="MP12" s="43"/>
+      <c r="MQ12" s="43"/>
+      <c r="MR12" s="43"/>
+      <c r="MS12" s="43"/>
+      <c r="MT12" s="43"/>
+      <c r="MU12" s="43"/>
+      <c r="MV12" s="43"/>
+      <c r="MW12" s="43"/>
+      <c r="MX12" s="43"/>
+      <c r="MY12" s="43"/>
+      <c r="MZ12" s="43"/>
+      <c r="NA12" s="43"/>
+      <c r="NB12" s="43"/>
+      <c r="NC12" s="43"/>
+      <c r="ND12" s="43"/>
+      <c r="NE12" s="43"/>
+      <c r="NF12" s="43"/>
+      <c r="NG12" s="43"/>
+      <c r="NH12" s="43"/>
+      <c r="NI12" s="43"/>
+      <c r="NJ12" s="43"/>
       <c r="NK12" s="5"/>
       <c r="NL12" s="5"/>
       <c r="NM12" s="5"/>
@@ -4423,638 +4444,638 @@
       <c r="NX12" s="5"/>
     </row>
     <row r="13" spans="1:388" s="6" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="50" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="K13" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="L13" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="M13" s="50" t="s">
+      <c r="M13" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="N13" s="50" t="s">
+      <c r="N13" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="50" t="s">
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="AE13" s="50" t="s">
+      <c r="AE13" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="AF13" s="50" t="s">
+      <c r="AF13" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="AG13" s="50" t="s">
+      <c r="AG13" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="AH13" s="50" t="s">
+      <c r="AH13" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AI13" s="50" t="s">
+      <c r="AI13" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="AJ13" s="50" t="s">
+      <c r="AJ13" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="AK13" s="50" t="s">
+      <c r="AK13" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="AL13" s="50" t="s">
+      <c r="AL13" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="AM13" s="50" t="s">
+      <c r="AM13" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="AN13" s="50" t="s">
+      <c r="AN13" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="AO13" s="50" t="s">
+      <c r="AO13" s="37" t="s">
         <v>425</v>
       </c>
-      <c r="AP13" s="50" t="s">
+      <c r="AP13" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="AQ13" s="50" t="s">
+      <c r="AQ13" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="AR13" s="50" t="s">
+      <c r="AR13" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="AS13" s="50" t="s">
+      <c r="AS13" s="37" t="s">
         <v>390</v>
       </c>
-      <c r="AT13" s="50" t="s">
+      <c r="AT13" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="AU13" s="50" t="s">
+      <c r="AU13" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="AV13" s="50" t="s">
+      <c r="AV13" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="AW13" s="50" t="s">
+      <c r="AW13" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="AX13" s="50" t="s">
+      <c r="AX13" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="AY13" s="50" t="s">
+      <c r="AY13" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="AZ13" s="50" t="s">
+      <c r="AZ13" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="BA13" s="50" t="s">
+      <c r="BA13" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="BB13" s="50" t="s">
+      <c r="BB13" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="BC13" s="50" t="s">
+      <c r="BC13" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="BD13" s="50" t="s">
+      <c r="BD13" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="BE13" s="50" t="s">
+      <c r="BE13" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="BF13" s="50" t="s">
+      <c r="BF13" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="BG13" s="50" t="s">
+      <c r="BG13" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="BH13" s="50" t="s">
+      <c r="BH13" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="BI13" s="50" t="s">
+      <c r="BI13" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="BJ13" s="50" t="s">
+      <c r="BJ13" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="BK13" s="50" t="s">
+      <c r="BK13" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="BL13" s="50" t="s">
+      <c r="BL13" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="BM13" s="50" t="s">
+      <c r="BM13" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="BN13" s="50" t="s">
+      <c r="BN13" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="BO13" s="50" t="s">
+      <c r="BO13" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="BP13" s="50" t="s">
+      <c r="BP13" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="BQ13" s="50" t="s">
+      <c r="BQ13" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="BR13" s="50" t="s">
+      <c r="BR13" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="BS13" s="50" t="s">
+      <c r="BS13" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="BT13" s="50" t="s">
+      <c r="BT13" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="BU13" s="53" t="s">
+      <c r="BU13" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="BV13" s="53"/>
-      <c r="BW13" s="53" t="s">
+      <c r="BV13" s="62"/>
+      <c r="BW13" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="BX13" s="53"/>
-      <c r="BY13" s="41"/>
-      <c r="BZ13" s="43"/>
-      <c r="CA13" s="41"/>
-      <c r="CB13" s="43"/>
-      <c r="CC13" s="41"/>
-      <c r="CD13" s="43"/>
-      <c r="CE13" s="41"/>
-      <c r="CF13" s="43"/>
-      <c r="CG13" s="54" t="s">
+      <c r="BX13" s="62"/>
+      <c r="BY13" s="34"/>
+      <c r="BZ13" s="36"/>
+      <c r="CA13" s="34"/>
+      <c r="CB13" s="36"/>
+      <c r="CC13" s="34"/>
+      <c r="CD13" s="36"/>
+      <c r="CE13" s="34"/>
+      <c r="CF13" s="36"/>
+      <c r="CG13" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="CH13" s="55"/>
-      <c r="CI13" s="55"/>
-      <c r="CJ13" s="56"/>
-      <c r="CK13" s="50" t="s">
+      <c r="CH13" s="63"/>
+      <c r="CI13" s="63"/>
+      <c r="CJ13" s="52"/>
+      <c r="CK13" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="CL13" s="41"/>
-      <c r="CM13" s="43"/>
-      <c r="CN13" s="41"/>
-      <c r="CO13" s="43"/>
-      <c r="CP13" s="41"/>
-      <c r="CQ13" s="43"/>
-      <c r="CR13" s="41"/>
-      <c r="CS13" s="43"/>
-      <c r="CT13" s="41"/>
-      <c r="CU13" s="43"/>
-      <c r="CV13" s="41"/>
-      <c r="CW13" s="43"/>
-      <c r="CX13" s="53" t="s">
+      <c r="CL13" s="34"/>
+      <c r="CM13" s="36"/>
+      <c r="CN13" s="34"/>
+      <c r="CO13" s="36"/>
+      <c r="CP13" s="34"/>
+      <c r="CQ13" s="36"/>
+      <c r="CR13" s="34"/>
+      <c r="CS13" s="36"/>
+      <c r="CT13" s="34"/>
+      <c r="CU13" s="36"/>
+      <c r="CV13" s="34"/>
+      <c r="CW13" s="36"/>
+      <c r="CX13" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="CY13" s="53"/>
-      <c r="CZ13" s="53" t="s">
+      <c r="CY13" s="62"/>
+      <c r="CZ13" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="DA13" s="53"/>
-      <c r="DB13" s="47"/>
-      <c r="DC13" s="48"/>
-      <c r="DD13" s="49"/>
-      <c r="DE13" s="41"/>
-      <c r="DF13" s="42"/>
-      <c r="DG13" s="42"/>
-      <c r="DH13" s="42"/>
-      <c r="DI13" s="42"/>
-      <c r="DJ13" s="42"/>
-      <c r="DK13" s="42"/>
-      <c r="DL13" s="43"/>
-      <c r="DM13" s="41"/>
-      <c r="DN13" s="43"/>
+      <c r="DA13" s="62"/>
+      <c r="DB13" s="59"/>
+      <c r="DC13" s="60"/>
+      <c r="DD13" s="61"/>
+      <c r="DE13" s="34"/>
+      <c r="DF13" s="35"/>
+      <c r="DG13" s="35"/>
+      <c r="DH13" s="35"/>
+      <c r="DI13" s="35"/>
+      <c r="DJ13" s="35"/>
+      <c r="DK13" s="35"/>
+      <c r="DL13" s="36"/>
+      <c r="DM13" s="34"/>
+      <c r="DN13" s="36"/>
       <c r="DO13" s="7" t="s">
         <v>179</v>
       </c>
       <c r="DP13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="DQ13" s="50" t="s">
+      <c r="DQ13" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="DR13" s="41"/>
-      <c r="DS13" s="42"/>
-      <c r="DT13" s="42"/>
-      <c r="DU13" s="42"/>
-      <c r="DV13" s="42"/>
-      <c r="DW13" s="42"/>
-      <c r="DX13" s="42"/>
-      <c r="DY13" s="43"/>
-      <c r="DZ13" s="41"/>
-      <c r="EA13" s="42"/>
-      <c r="EB13" s="42"/>
-      <c r="EC13" s="42"/>
-      <c r="ED13" s="42"/>
-      <c r="EE13" s="42"/>
-      <c r="EF13" s="42"/>
-      <c r="EG13" s="42"/>
-      <c r="EH13" s="42"/>
-      <c r="EI13" s="42"/>
-      <c r="EJ13" s="42"/>
-      <c r="EK13" s="42"/>
-      <c r="EL13" s="42"/>
-      <c r="EM13" s="43"/>
-      <c r="EN13" s="41"/>
-      <c r="EO13" s="42"/>
-      <c r="EP13" s="43"/>
-      <c r="EQ13" s="41"/>
-      <c r="ER13" s="42"/>
-      <c r="ES13" s="43"/>
-      <c r="ET13" s="41"/>
-      <c r="EU13" s="42"/>
-      <c r="EV13" s="43"/>
-      <c r="EW13" s="41"/>
-      <c r="EX13" s="42"/>
-      <c r="EY13" s="43"/>
-      <c r="EZ13" s="41"/>
-      <c r="FA13" s="42"/>
-      <c r="FB13" s="43"/>
-      <c r="FC13" s="41"/>
-      <c r="FD13" s="42"/>
-      <c r="FE13" s="43"/>
-      <c r="FF13" s="41"/>
-      <c r="FG13" s="42"/>
-      <c r="FH13" s="43"/>
-      <c r="FI13" s="41"/>
-      <c r="FJ13" s="42"/>
-      <c r="FK13" s="43"/>
-      <c r="FL13" s="41"/>
-      <c r="FM13" s="42"/>
-      <c r="FN13" s="43"/>
-      <c r="FO13" s="41"/>
-      <c r="FP13" s="42"/>
-      <c r="FQ13" s="43"/>
-      <c r="FR13" s="41"/>
-      <c r="FS13" s="42"/>
-      <c r="FT13" s="43"/>
-      <c r="FU13" s="41"/>
-      <c r="FV13" s="42"/>
-      <c r="FW13" s="43"/>
-      <c r="FX13" s="41"/>
-      <c r="FY13" s="42"/>
-      <c r="FZ13" s="43"/>
-      <c r="GA13" s="41"/>
-      <c r="GB13" s="42"/>
-      <c r="GC13" s="43"/>
-      <c r="GD13" s="41"/>
-      <c r="GE13" s="42"/>
-      <c r="GF13" s="43"/>
-      <c r="GG13" s="41"/>
-      <c r="GH13" s="42"/>
-      <c r="GI13" s="43"/>
-      <c r="GJ13" s="41"/>
-      <c r="GK13" s="42"/>
-      <c r="GL13" s="43"/>
-      <c r="GM13" s="41"/>
-      <c r="GN13" s="42"/>
-      <c r="GO13" s="43"/>
-      <c r="GP13" s="41"/>
-      <c r="GQ13" s="42"/>
-      <c r="GR13" s="42"/>
-      <c r="GS13" s="43"/>
-      <c r="GT13" s="41"/>
-      <c r="GU13" s="42"/>
-      <c r="GV13" s="42"/>
-      <c r="GW13" s="43"/>
-      <c r="GX13" s="41"/>
-      <c r="GY13" s="42"/>
-      <c r="GZ13" s="42"/>
-      <c r="HA13" s="43"/>
-      <c r="HB13" s="41"/>
-      <c r="HC13" s="42"/>
-      <c r="HD13" s="42"/>
-      <c r="HE13" s="43"/>
-      <c r="HF13" s="41"/>
-      <c r="HG13" s="42"/>
-      <c r="HH13" s="42"/>
-      <c r="HI13" s="43"/>
-      <c r="HJ13" s="41"/>
-      <c r="HK13" s="42"/>
-      <c r="HL13" s="42"/>
-      <c r="HM13" s="43"/>
-      <c r="HN13" s="41"/>
-      <c r="HO13" s="42"/>
-      <c r="HP13" s="42"/>
-      <c r="HQ13" s="43"/>
-      <c r="HR13" s="41"/>
-      <c r="HS13" s="42"/>
-      <c r="HT13" s="42"/>
-      <c r="HU13" s="43"/>
-      <c r="HV13" s="52"/>
-      <c r="HW13" s="52"/>
-      <c r="HX13" s="33" t="s">
+      <c r="DR13" s="34"/>
+      <c r="DS13" s="35"/>
+      <c r="DT13" s="35"/>
+      <c r="DU13" s="35"/>
+      <c r="DV13" s="35"/>
+      <c r="DW13" s="35"/>
+      <c r="DX13" s="35"/>
+      <c r="DY13" s="36"/>
+      <c r="DZ13" s="34"/>
+      <c r="EA13" s="35"/>
+      <c r="EB13" s="35"/>
+      <c r="EC13" s="35"/>
+      <c r="ED13" s="35"/>
+      <c r="EE13" s="35"/>
+      <c r="EF13" s="35"/>
+      <c r="EG13" s="35"/>
+      <c r="EH13" s="35"/>
+      <c r="EI13" s="35"/>
+      <c r="EJ13" s="35"/>
+      <c r="EK13" s="35"/>
+      <c r="EL13" s="35"/>
+      <c r="EM13" s="36"/>
+      <c r="EN13" s="34"/>
+      <c r="EO13" s="35"/>
+      <c r="EP13" s="36"/>
+      <c r="EQ13" s="34"/>
+      <c r="ER13" s="35"/>
+      <c r="ES13" s="36"/>
+      <c r="ET13" s="34"/>
+      <c r="EU13" s="35"/>
+      <c r="EV13" s="36"/>
+      <c r="EW13" s="34"/>
+      <c r="EX13" s="35"/>
+      <c r="EY13" s="36"/>
+      <c r="EZ13" s="34"/>
+      <c r="FA13" s="35"/>
+      <c r="FB13" s="36"/>
+      <c r="FC13" s="34"/>
+      <c r="FD13" s="35"/>
+      <c r="FE13" s="36"/>
+      <c r="FF13" s="34"/>
+      <c r="FG13" s="35"/>
+      <c r="FH13" s="36"/>
+      <c r="FI13" s="34"/>
+      <c r="FJ13" s="35"/>
+      <c r="FK13" s="36"/>
+      <c r="FL13" s="34"/>
+      <c r="FM13" s="35"/>
+      <c r="FN13" s="36"/>
+      <c r="FO13" s="34"/>
+      <c r="FP13" s="35"/>
+      <c r="FQ13" s="36"/>
+      <c r="FR13" s="34"/>
+      <c r="FS13" s="35"/>
+      <c r="FT13" s="36"/>
+      <c r="FU13" s="34"/>
+      <c r="FV13" s="35"/>
+      <c r="FW13" s="36"/>
+      <c r="FX13" s="34"/>
+      <c r="FY13" s="35"/>
+      <c r="FZ13" s="36"/>
+      <c r="GA13" s="34"/>
+      <c r="GB13" s="35"/>
+      <c r="GC13" s="36"/>
+      <c r="GD13" s="34"/>
+      <c r="GE13" s="35"/>
+      <c r="GF13" s="36"/>
+      <c r="GG13" s="34"/>
+      <c r="GH13" s="35"/>
+      <c r="GI13" s="36"/>
+      <c r="GJ13" s="34"/>
+      <c r="GK13" s="35"/>
+      <c r="GL13" s="36"/>
+      <c r="GM13" s="34"/>
+      <c r="GN13" s="35"/>
+      <c r="GO13" s="36"/>
+      <c r="GP13" s="34"/>
+      <c r="GQ13" s="35"/>
+      <c r="GR13" s="35"/>
+      <c r="GS13" s="36"/>
+      <c r="GT13" s="34"/>
+      <c r="GU13" s="35"/>
+      <c r="GV13" s="35"/>
+      <c r="GW13" s="36"/>
+      <c r="GX13" s="34"/>
+      <c r="GY13" s="35"/>
+      <c r="GZ13" s="35"/>
+      <c r="HA13" s="36"/>
+      <c r="HB13" s="34"/>
+      <c r="HC13" s="35"/>
+      <c r="HD13" s="35"/>
+      <c r="HE13" s="36"/>
+      <c r="HF13" s="34"/>
+      <c r="HG13" s="35"/>
+      <c r="HH13" s="35"/>
+      <c r="HI13" s="36"/>
+      <c r="HJ13" s="34"/>
+      <c r="HK13" s="35"/>
+      <c r="HL13" s="35"/>
+      <c r="HM13" s="36"/>
+      <c r="HN13" s="34"/>
+      <c r="HO13" s="35"/>
+      <c r="HP13" s="35"/>
+      <c r="HQ13" s="36"/>
+      <c r="HR13" s="34"/>
+      <c r="HS13" s="35"/>
+      <c r="HT13" s="35"/>
+      <c r="HU13" s="36"/>
+      <c r="HV13" s="39"/>
+      <c r="HW13" s="39"/>
+      <c r="HX13" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="HY13" s="33"/>
-      <c r="HZ13" s="33"/>
-      <c r="IA13" s="33"/>
-      <c r="IB13" s="33"/>
-      <c r="IC13" s="33"/>
-      <c r="ID13" s="33" t="s">
+      <c r="HY13" s="43"/>
+      <c r="HZ13" s="43"/>
+      <c r="IA13" s="43"/>
+      <c r="IB13" s="43"/>
+      <c r="IC13" s="43"/>
+      <c r="ID13" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="IE13" s="33"/>
-      <c r="IF13" s="33"/>
-      <c r="IG13" s="33"/>
-      <c r="IH13" s="33" t="s">
+      <c r="IE13" s="43"/>
+      <c r="IF13" s="43"/>
+      <c r="IG13" s="43"/>
+      <c r="IH13" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="II13" s="33"/>
-      <c r="IJ13" s="33" t="s">
+      <c r="II13" s="43"/>
+      <c r="IJ13" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="IK13" s="33"/>
-      <c r="IL13" s="33"/>
-      <c r="IM13" s="33"/>
-      <c r="IN13" s="33"/>
-      <c r="IO13" s="33"/>
-      <c r="IP13" s="36" t="s">
+      <c r="IK13" s="43"/>
+      <c r="IL13" s="43"/>
+      <c r="IM13" s="43"/>
+      <c r="IN13" s="43"/>
+      <c r="IO13" s="43"/>
+      <c r="IP13" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="IQ13" s="36"/>
-      <c r="IR13" s="36"/>
-      <c r="IS13" s="36"/>
-      <c r="IT13" s="36"/>
-      <c r="IU13" s="50" t="s">
+      <c r="IQ13" s="54"/>
+      <c r="IR13" s="54"/>
+      <c r="IS13" s="54"/>
+      <c r="IT13" s="54"/>
+      <c r="IU13" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="IV13" s="50" t="s">
+      <c r="IV13" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="IW13" s="33" t="s">
+      <c r="IW13" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="IX13" s="33"/>
-      <c r="IY13" s="33"/>
-      <c r="IZ13" s="33"/>
-      <c r="JA13" s="33" t="s">
+      <c r="IX13" s="43"/>
+      <c r="IY13" s="43"/>
+      <c r="IZ13" s="43"/>
+      <c r="JA13" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="JB13" s="33"/>
-      <c r="JC13" s="33"/>
-      <c r="JD13" s="33"/>
-      <c r="JE13" s="33" t="s">
+      <c r="JB13" s="43"/>
+      <c r="JC13" s="43"/>
+      <c r="JD13" s="43"/>
+      <c r="JE13" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="JF13" s="33"/>
-      <c r="JG13" s="33"/>
-      <c r="JH13" s="31" t="s">
+      <c r="JF13" s="43"/>
+      <c r="JG13" s="43"/>
+      <c r="JH13" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="JI13" s="32"/>
-      <c r="JJ13" s="33" t="s">
+      <c r="JI13" s="45"/>
+      <c r="JJ13" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="JK13" s="33"/>
-      <c r="JL13" s="33" t="s">
+      <c r="JK13" s="43"/>
+      <c r="JL13" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="JM13" s="33"/>
-      <c r="JN13" s="33"/>
-      <c r="JO13" s="33" t="s">
+      <c r="JM13" s="43"/>
+      <c r="JN13" s="43"/>
+      <c r="JO13" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="JP13" s="33"/>
-      <c r="JQ13" s="33"/>
-      <c r="JR13" s="33"/>
-      <c r="JS13" s="33"/>
-      <c r="JT13" s="33"/>
-      <c r="JU13" s="33"/>
-      <c r="JV13" s="33"/>
-      <c r="JW13" s="33" t="s">
+      <c r="JP13" s="43"/>
+      <c r="JQ13" s="43"/>
+      <c r="JR13" s="43"/>
+      <c r="JS13" s="43"/>
+      <c r="JT13" s="43"/>
+      <c r="JU13" s="43"/>
+      <c r="JV13" s="43"/>
+      <c r="JW13" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="JX13" s="33"/>
-      <c r="JY13" s="33"/>
-      <c r="JZ13" s="33" t="s">
+      <c r="JX13" s="43"/>
+      <c r="JY13" s="43"/>
+      <c r="JZ13" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="KA13" s="33"/>
-      <c r="KB13" s="33" t="s">
+      <c r="KA13" s="43"/>
+      <c r="KB13" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="KC13" s="33"/>
+      <c r="KC13" s="43"/>
       <c r="KD13" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="KE13" s="33" t="s">
+      <c r="KE13" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="KF13" s="33"/>
-      <c r="KG13" s="33"/>
-      <c r="KH13" s="33"/>
-      <c r="KI13" s="33"/>
-      <c r="KJ13" s="33"/>
-      <c r="KK13" s="33"/>
-      <c r="KL13" s="33" t="s">
+      <c r="KF13" s="43"/>
+      <c r="KG13" s="43"/>
+      <c r="KH13" s="43"/>
+      <c r="KI13" s="43"/>
+      <c r="KJ13" s="43"/>
+      <c r="KK13" s="43"/>
+      <c r="KL13" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="KM13" s="33"/>
-      <c r="KN13" s="33" t="s">
+      <c r="KM13" s="43"/>
+      <c r="KN13" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="KO13" s="33"/>
-      <c r="KP13" s="33"/>
-      <c r="KQ13" s="33"/>
-      <c r="KR13" s="33" t="s">
+      <c r="KO13" s="43"/>
+      <c r="KP13" s="43"/>
+      <c r="KQ13" s="43"/>
+      <c r="KR13" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="KS13" s="33"/>
-      <c r="KT13" s="33" t="s">
+      <c r="KS13" s="43"/>
+      <c r="KT13" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="KU13" s="33"/>
-      <c r="KV13" s="33"/>
-      <c r="KW13" s="33"/>
-      <c r="KX13" s="33"/>
-      <c r="KY13" s="33"/>
-      <c r="KZ13" s="33"/>
-      <c r="LA13" s="33"/>
-      <c r="LB13" s="33" t="s">
+      <c r="KU13" s="43"/>
+      <c r="KV13" s="43"/>
+      <c r="KW13" s="43"/>
+      <c r="KX13" s="43"/>
+      <c r="KY13" s="43"/>
+      <c r="KZ13" s="43"/>
+      <c r="LA13" s="43"/>
+      <c r="LB13" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="LC13" s="33"/>
-      <c r="LD13" s="33"/>
-      <c r="LE13" s="33"/>
+      <c r="LC13" s="43"/>
+      <c r="LD13" s="43"/>
+      <c r="LE13" s="43"/>
       <c r="LF13" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="LG13" s="31" t="s">
+      <c r="LG13" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="LH13" s="32"/>
-      <c r="LI13" s="33" t="s">
+      <c r="LH13" s="45"/>
+      <c r="LI13" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="LJ13" s="33"/>
-      <c r="LK13" s="33" t="s">
+      <c r="LJ13" s="43"/>
+      <c r="LK13" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="LL13" s="33"/>
-      <c r="LM13" s="33"/>
-      <c r="LN13" s="33"/>
-      <c r="LO13" s="33" t="s">
+      <c r="LL13" s="43"/>
+      <c r="LM13" s="43"/>
+      <c r="LN13" s="43"/>
+      <c r="LO13" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="LP13" s="33"/>
-      <c r="LQ13" s="33"/>
-      <c r="LR13" s="33"/>
-      <c r="LS13" s="33" t="s">
+      <c r="LP13" s="43"/>
+      <c r="LQ13" s="43"/>
+      <c r="LR13" s="43"/>
+      <c r="LS13" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="LT13" s="33"/>
+      <c r="LT13" s="43"/>
       <c r="LU13" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="LV13" s="31" t="s">
+      <c r="LV13" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="LW13" s="32"/>
-      <c r="LX13" s="33" t="s">
+      <c r="LW13" s="45"/>
+      <c r="LX13" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="LY13" s="33"/>
+      <c r="LY13" s="43"/>
       <c r="LZ13" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="MA13" s="33" t="s">
+      <c r="MA13" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="MB13" s="33"/>
-      <c r="MC13" s="33"/>
-      <c r="MD13" s="33"/>
-      <c r="ME13" s="54" t="s">
+      <c r="MB13" s="43"/>
+      <c r="MC13" s="43"/>
+      <c r="MD13" s="43"/>
+      <c r="ME13" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="MF13" s="56"/>
+      <c r="MF13" s="52"/>
       <c r="MG13" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="MH13" s="33" t="s">
+      <c r="MH13" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="MI13" s="33"/>
-      <c r="MJ13" s="33"/>
-      <c r="MK13" s="33"/>
-      <c r="ML13" s="33"/>
-      <c r="MM13" s="50" t="s">
+      <c r="MI13" s="43"/>
+      <c r="MJ13" s="43"/>
+      <c r="MK13" s="43"/>
+      <c r="ML13" s="43"/>
+      <c r="MM13" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="MN13" s="57" t="s">
+      <c r="MN13" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="MO13" s="57" t="s">
+      <c r="MO13" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="MP13" s="57" t="s">
+      <c r="MP13" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="MQ13" s="57" t="s">
+      <c r="MQ13" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="MR13" s="57" t="s">
+      <c r="MR13" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="MS13" s="57" t="s">
+      <c r="MS13" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="MT13" s="57" t="s">
+      <c r="MT13" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="MU13" s="57" t="s">
+      <c r="MU13" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="MV13" s="57" t="s">
+      <c r="MV13" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="MW13" s="57" t="s">
+      <c r="MW13" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="MX13" s="57" t="s">
+      <c r="MX13" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="MY13" s="57" t="s">
+      <c r="MY13" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="MZ13" s="57" t="s">
+      <c r="MZ13" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="NA13" s="57" t="s">
+      <c r="NA13" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="NB13" s="57" t="s">
+      <c r="NB13" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="NC13" s="57" t="s">
+      <c r="NC13" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="ND13" s="57" t="s">
+      <c r="ND13" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="NE13" s="57" t="s">
+      <c r="NE13" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="NF13" s="57" t="s">
+      <c r="NF13" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="NG13" s="33" t="s">
+      <c r="NG13" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="NH13" s="33"/>
-      <c r="NI13" s="33" t="s">
+      <c r="NH13" s="43"/>
+      <c r="NI13" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="NJ13" s="33"/>
-      <c r="NK13" s="28" t="s">
+      <c r="NJ13" s="43"/>
+      <c r="NK13" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="NL13" s="33" t="s">
+      <c r="NL13" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="NM13" s="33"/>
-      <c r="NN13" s="33" t="s">
+      <c r="NM13" s="43"/>
+      <c r="NN13" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="NO13" s="33"/>
-      <c r="NP13" s="33"/>
-      <c r="NQ13" s="33"/>
-      <c r="NR13" s="33" t="s">
+      <c r="NO13" s="43"/>
+      <c r="NP13" s="43"/>
+      <c r="NQ13" s="43"/>
+      <c r="NR13" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="NS13" s="33"/>
-      <c r="NT13" s="33"/>
-      <c r="NU13" s="31" t="s">
+      <c r="NS13" s="43"/>
+      <c r="NT13" s="43"/>
+      <c r="NU13" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="NV13" s="32"/>
+      <c r="NV13" s="45"/>
       <c r="NW13" s="7" t="s">
         <v>264</v>
       </c>
@@ -5063,78 +5084,78 @@
       </c>
     </row>
     <row r="14" spans="1:388" s="6" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="51"/>
-      <c r="BC14" s="51"/>
-      <c r="BD14" s="51"/>
-      <c r="BE14" s="51"/>
-      <c r="BF14" s="51"/>
-      <c r="BG14" s="51"/>
-      <c r="BH14" s="51"/>
-      <c r="BI14" s="51"/>
-      <c r="BJ14" s="51"/>
-      <c r="BK14" s="51"/>
-      <c r="BL14" s="51"/>
-      <c r="BM14" s="51"/>
-      <c r="BN14" s="51"/>
-      <c r="BO14" s="51"/>
-      <c r="BP14" s="51"/>
-      <c r="BQ14" s="51"/>
-      <c r="BR14" s="51"/>
-      <c r="BS14" s="51"/>
-      <c r="BT14" s="51"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="38"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="38"/>
+      <c r="AJ14" s="38"/>
+      <c r="AK14" s="38"/>
+      <c r="AL14" s="38"/>
+      <c r="AM14" s="38"/>
+      <c r="AN14" s="38"/>
+      <c r="AO14" s="38"/>
+      <c r="AP14" s="38"/>
+      <c r="AQ14" s="38"/>
+      <c r="AR14" s="38"/>
+      <c r="AS14" s="38"/>
+      <c r="AT14" s="38"/>
+      <c r="AU14" s="38"/>
+      <c r="AV14" s="38"/>
+      <c r="AW14" s="38"/>
+      <c r="AX14" s="38"/>
+      <c r="AY14" s="38"/>
+      <c r="AZ14" s="38"/>
+      <c r="BA14" s="38"/>
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="38"/>
+      <c r="BD14" s="38"/>
+      <c r="BE14" s="38"/>
+      <c r="BF14" s="38"/>
+      <c r="BG14" s="38"/>
+      <c r="BH14" s="38"/>
+      <c r="BI14" s="38"/>
+      <c r="BJ14" s="38"/>
+      <c r="BK14" s="38"/>
+      <c r="BL14" s="38"/>
+      <c r="BM14" s="38"/>
+      <c r="BN14" s="38"/>
+      <c r="BO14" s="38"/>
+      <c r="BP14" s="38"/>
+      <c r="BQ14" s="38"/>
+      <c r="BR14" s="38"/>
+      <c r="BS14" s="38"/>
+      <c r="BT14" s="38"/>
       <c r="BU14" s="7" t="s">
         <v>127</v>
       </c>
@@ -5183,7 +5204,7 @@
       <c r="CJ14" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="CK14" s="51"/>
+      <c r="CK14" s="38"/>
       <c r="CL14" s="7" t="s">
         <v>161</v>
       </c>
@@ -5277,7 +5298,7 @@
       <c r="DP14" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="DQ14" s="51"/>
+      <c r="DQ14" s="38"/>
       <c r="DR14" s="7" t="s">
         <v>181</v>
       </c>
@@ -5497,7 +5518,7 @@
       <c r="GL14" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="GM14" s="25" t="s">
+      <c r="GM14" s="24" t="s">
         <v>179</v>
       </c>
       <c r="GN14" s="7" t="s">
@@ -5602,8 +5623,8 @@
       <c r="HU14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="HV14" s="51"/>
-      <c r="HW14" s="51"/>
+      <c r="HV14" s="38"/>
+      <c r="HW14" s="38"/>
       <c r="HX14" s="7" t="s">
         <v>274</v>
       </c>
@@ -5673,8 +5694,8 @@
       <c r="IT14" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="IU14" s="51"/>
-      <c r="IV14" s="51"/>
+      <c r="IU14" s="38"/>
+      <c r="IV14" s="38"/>
       <c r="IW14" s="8" t="s">
         <v>294</v>
       </c>
@@ -5949,26 +5970,26 @@
       <c r="ML14" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="MM14" s="51"/>
-      <c r="MN14" s="58"/>
-      <c r="MO14" s="58"/>
-      <c r="MP14" s="58"/>
-      <c r="MQ14" s="58"/>
-      <c r="MR14" s="58"/>
-      <c r="MS14" s="58"/>
-      <c r="MT14" s="58"/>
-      <c r="MU14" s="58"/>
-      <c r="MV14" s="58"/>
-      <c r="MW14" s="58"/>
-      <c r="MX14" s="58"/>
-      <c r="MY14" s="58"/>
-      <c r="MZ14" s="58"/>
-      <c r="NA14" s="58"/>
-      <c r="NB14" s="58"/>
-      <c r="NC14" s="58"/>
-      <c r="ND14" s="58"/>
-      <c r="NE14" s="58"/>
-      <c r="NF14" s="58"/>
+      <c r="MM14" s="38"/>
+      <c r="MN14" s="30"/>
+      <c r="MO14" s="30"/>
+      <c r="MP14" s="30"/>
+      <c r="MQ14" s="30"/>
+      <c r="MR14" s="30"/>
+      <c r="MS14" s="30"/>
+      <c r="MT14" s="30"/>
+      <c r="MU14" s="30"/>
+      <c r="MV14" s="30"/>
+      <c r="MW14" s="30"/>
+      <c r="MX14" s="30"/>
+      <c r="MY14" s="30"/>
+      <c r="MZ14" s="30"/>
+      <c r="NA14" s="30"/>
+      <c r="NB14" s="30"/>
+      <c r="NC14" s="30"/>
+      <c r="ND14" s="30"/>
+      <c r="NE14" s="30"/>
+      <c r="NF14" s="30"/>
       <c r="NG14" s="11" t="s">
         <v>161</v>
       </c>
@@ -5981,7 +6002,7 @@
       <c r="NJ14" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="NK14" s="29"/>
+      <c r="NK14" s="65"/>
       <c r="NL14" s="11" t="s">
         <v>336</v>
       </c>
@@ -6018,1166 +6039,1389 @@
       <c r="NW14" s="5"/>
       <c r="NX14" s="5"/>
     </row>
-    <row r="15" spans="1:388" s="20" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:388" s="19" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="Q15" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="S15" s="22" t="s">
+      <c r="S15" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="T15" s="22" t="s">
+      <c r="T15" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="U15" s="22" t="s">
+      <c r="U15" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="V15" s="22" t="s">
+      <c r="V15" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="W15" s="22" t="s">
+      <c r="W15" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="X15" s="22" t="s">
+      <c r="X15" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="Y15" s="22" t="s">
+      <c r="Y15" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="Z15" s="22" t="s">
+      <c r="Z15" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="AA15" s="22" t="s">
+      <c r="AA15" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AB15" s="22" t="s">
+      <c r="AB15" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="AC15" s="24" t="s">
+      <c r="AC15" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="AD15" s="23" t="s">
+      <c r="AD15" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="AE15" s="23" t="s">
+      <c r="AE15" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="AF15" s="23" t="s">
+      <c r="AF15" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="AG15" s="23" t="s">
+      <c r="AG15" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="AH15" s="23" t="s">
+      <c r="AH15" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="AI15" s="23" t="s">
+      <c r="AI15" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="AJ15" s="23" t="s">
+      <c r="AJ15" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="AK15" s="26" t="s">
+      <c r="AK15" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="AL15" s="26" t="s">
+      <c r="AL15" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="AM15" s="26" t="s">
+      <c r="AM15" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="AN15" s="26" t="s">
+      <c r="AN15" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AO15" s="26" t="s">
+      <c r="AO15" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="AP15" s="26" t="s">
+      <c r="AP15" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="AQ15" s="26" t="s">
+      <c r="AQ15" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="AR15" s="26" t="s">
+      <c r="AR15" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="AS15" s="26" t="s">
+      <c r="AS15" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="AT15" s="26" t="s">
+      <c r="AT15" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="AU15" s="26" t="s">
+      <c r="AU15" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="AV15" s="26" t="s">
+      <c r="AV15" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AW15" s="26" t="s">
+      <c r="AW15" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="AX15" s="26" t="s">
+      <c r="AX15" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="AY15" s="26" t="s">
+      <c r="AY15" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="AZ15" s="26" t="s">
+      <c r="AZ15" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="BA15" s="26" t="s">
+      <c r="BA15" s="25" t="s">
         <v>442</v>
       </c>
-      <c r="BB15" s="26" t="s">
+      <c r="BB15" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="BC15" s="26" t="s">
+      <c r="BC15" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="BD15" s="26" t="s">
+      <c r="BD15" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="BE15" s="26" t="s">
+      <c r="BE15" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="BF15" s="26" t="s">
+      <c r="BF15" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="BG15" s="26" t="s">
+      <c r="BG15" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="BH15" s="26" t="s">
+      <c r="BH15" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="BI15" s="26" t="s">
+      <c r="BI15" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="BJ15" s="26" t="s">
+      <c r="BJ15" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="BK15" s="26" t="s">
+      <c r="BK15" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="BL15" s="26" t="s">
+      <c r="BL15" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="BM15" s="26" t="s">
+      <c r="BM15" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="BN15" s="26" t="s">
+      <c r="BN15" s="25" t="s">
         <v>455</v>
       </c>
-      <c r="BO15" s="26" t="s">
+      <c r="BO15" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="BP15" s="26" t="s">
+      <c r="BP15" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="BQ15" s="26" t="s">
+      <c r="BQ15" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="BR15" s="26" t="s">
+      <c r="BR15" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="BS15" s="26" t="s">
+      <c r="BS15" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="BT15" s="26" t="s">
+      <c r="BT15" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="BU15" s="19"/>
-      <c r="BV15" s="19"/>
-      <c r="BW15" s="19"/>
-      <c r="BX15" s="19"/>
-      <c r="BY15" s="26" t="s">
+      <c r="BU15" s="67" t="s">
+        <v>781</v>
+      </c>
+      <c r="BV15" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="BW15" s="67" t="s">
+        <v>783</v>
+      </c>
+      <c r="BX15" s="67" t="s">
+        <v>784</v>
+      </c>
+      <c r="BY15" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="BZ15" s="26" t="s">
+      <c r="BZ15" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="CA15" s="26" t="s">
+      <c r="CA15" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="CB15" s="26" t="s">
+      <c r="CB15" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="CC15" s="26" t="s">
+      <c r="CC15" s="25" t="s">
         <v>466</v>
       </c>
-      <c r="CD15" s="26" t="s">
+      <c r="CD15" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="CE15" s="26" t="s">
+      <c r="CE15" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="CF15" s="26" t="s">
+      <c r="CF15" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="CG15" s="26" t="s">
+      <c r="CG15" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="CH15" s="26" t="s">
+      <c r="CH15" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="CI15" s="26" t="s">
+      <c r="CI15" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="CJ15" s="26" t="s">
+      <c r="CJ15" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="CK15" s="26" t="s">
+      <c r="CK15" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="CL15" s="26" t="s">
+      <c r="CL15" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="CM15" s="26" t="s">
+      <c r="CM15" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="CN15" s="26" t="s">
+      <c r="CN15" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="CO15" s="26" t="s">
+      <c r="CO15" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="CP15" s="26" t="s">
+      <c r="CP15" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="CQ15" s="26" t="s">
+      <c r="CQ15" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="CR15" s="26" t="s">
+      <c r="CR15" s="25" t="s">
         <v>481</v>
       </c>
-      <c r="CS15" s="26" t="s">
+      <c r="CS15" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="CT15" s="26" t="s">
+      <c r="CT15" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="CU15" s="26" t="s">
+      <c r="CU15" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="CV15" s="26" t="s">
+      <c r="CV15" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="CW15" s="26" t="s">
+      <c r="CW15" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="CX15" s="26" t="s">
+      <c r="CX15" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="CY15" s="26" t="s">
+      <c r="CY15" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="CZ15" s="26" t="s">
+      <c r="CZ15" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="DA15" s="26" t="s">
+      <c r="DA15" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="DB15" s="26" t="s">
+      <c r="DB15" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="DC15" s="26" t="s">
+      <c r="DC15" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="DD15" s="26" t="s">
+      <c r="DD15" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="DE15" s="26" t="s">
+      <c r="DE15" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="DF15" s="26" t="s">
+      <c r="DF15" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="DG15" s="26" t="s">
+      <c r="DG15" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="DH15" s="26" t="s">
+      <c r="DH15" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="DI15" s="26" t="s">
+      <c r="DI15" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="DJ15" s="26" t="s">
+      <c r="DJ15" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="DK15" s="26" t="s">
+      <c r="DK15" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="DL15" s="26" t="s">
+      <c r="DL15" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="DM15" s="26" t="s">
+      <c r="DM15" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="DN15" s="26" t="s">
+      <c r="DN15" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="DO15" s="26" t="s">
+      <c r="DO15" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="DP15" s="26" t="s">
+      <c r="DP15" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="DQ15" s="26" t="s">
+      <c r="DQ15" s="25" t="s">
         <v>507</v>
       </c>
-      <c r="DR15" s="27" t="s">
+      <c r="DR15" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="DS15" s="27" t="s">
+      <c r="DS15" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="DT15" s="27" t="s">
+      <c r="DT15" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="DU15" s="27" t="s">
+      <c r="DU15" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="DV15" s="27" t="s">
+      <c r="DV15" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="DW15" s="27" t="s">
+      <c r="DW15" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="DX15" s="27" t="s">
+      <c r="DX15" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="DY15" s="27" t="s">
+      <c r="DY15" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="DZ15" s="27" t="s">
+      <c r="DZ15" s="26" t="s">
         <v>520</v>
       </c>
-      <c r="EA15" s="27" t="s">
+      <c r="EA15" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="EB15" s="27" t="s">
+      <c r="EB15" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="EC15" s="27" t="s">
+      <c r="EC15" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="ED15" s="27" t="s">
+      <c r="ED15" s="26" t="s">
         <v>524</v>
       </c>
-      <c r="EE15" s="27" t="s">
+      <c r="EE15" s="26" t="s">
         <v>525</v>
       </c>
-      <c r="EF15" s="27" t="s">
+      <c r="EF15" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="EG15" s="27" t="s">
+      <c r="EG15" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="EH15" s="27" t="s">
+      <c r="EH15" s="26" t="s">
         <v>528</v>
       </c>
-      <c r="EI15" s="27" t="s">
+      <c r="EI15" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="EJ15" s="27" t="s">
+      <c r="EJ15" s="26" t="s">
         <v>530</v>
       </c>
-      <c r="EK15" s="27" t="s">
+      <c r="EK15" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="EL15" s="27" t="s">
+      <c r="EL15" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="EM15" s="27" t="s">
+      <c r="EM15" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="EN15" s="27" t="s">
+      <c r="EN15" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="EO15" s="27" t="s">
+      <c r="EO15" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="EP15" s="27" t="s">
+      <c r="EP15" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="EQ15" s="27" t="s">
+      <c r="EQ15" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="ER15" s="27" t="s">
+      <c r="ER15" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="ES15" s="27" t="s">
+      <c r="ES15" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="ET15" s="27" t="s">
+      <c r="ET15" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="EU15" s="27" t="s">
+      <c r="EU15" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="EV15" s="27" t="s">
+      <c r="EV15" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="EW15" s="27" t="s">
+      <c r="EW15" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="EX15" s="27" t="s">
+      <c r="EX15" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="EY15" s="27" t="s">
+      <c r="EY15" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="EZ15" s="27" t="s">
+      <c r="EZ15" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="FA15" s="27" t="s">
+      <c r="FA15" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="FB15" s="27" t="s">
+      <c r="FB15" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="FC15" s="27" t="s">
+      <c r="FC15" s="26" t="s">
         <v>549</v>
       </c>
-      <c r="FD15" s="27" t="s">
+      <c r="FD15" s="26" t="s">
         <v>550</v>
       </c>
-      <c r="FE15" s="27" t="s">
+      <c r="FE15" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="FF15" s="27" t="s">
+      <c r="FF15" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="FG15" s="27" t="s">
+      <c r="FG15" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="FH15" s="27" t="s">
+      <c r="FH15" s="26" t="s">
         <v>554</v>
       </c>
-      <c r="FI15" s="27" t="s">
+      <c r="FI15" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="FJ15" s="27" t="s">
+      <c r="FJ15" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="FK15" s="27" t="s">
+      <c r="FK15" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="FL15" s="27" t="s">
+      <c r="FL15" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="FM15" s="27" t="s">
+      <c r="FM15" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="FN15" s="27" t="s">
+      <c r="FN15" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="FO15" s="27" t="s">
+      <c r="FO15" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="FP15" s="27" t="s">
+      <c r="FP15" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="FQ15" s="27" t="s">
+      <c r="FQ15" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="FR15" s="27" t="s">
+      <c r="FR15" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="FS15" s="27" t="s">
+      <c r="FS15" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="FT15" s="27" t="s">
+      <c r="FT15" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="FU15" s="27" t="s">
+      <c r="FU15" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="FV15" s="27" t="s">
+      <c r="FV15" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="FW15" s="27" t="s">
+      <c r="FW15" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="FX15" s="27" t="s">
+      <c r="FX15" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="FY15" s="27" t="s">
+      <c r="FY15" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="FZ15" s="27" t="s">
+      <c r="FZ15" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="GA15" s="27" t="s">
+      <c r="GA15" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="GB15" s="27" t="s">
+      <c r="GB15" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="GC15" s="27" t="s">
+      <c r="GC15" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="GD15" s="27" t="s">
+      <c r="GD15" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="GE15" s="27" t="s">
+      <c r="GE15" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="GF15" s="27" t="s">
+      <c r="GF15" s="26" t="s">
         <v>578</v>
       </c>
-      <c r="GG15" s="27" t="s">
+      <c r="GG15" s="26" t="s">
         <v>579</v>
       </c>
-      <c r="GH15" s="27" t="s">
+      <c r="GH15" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="GI15" s="27" t="s">
+      <c r="GI15" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="GJ15" s="27" t="s">
+      <c r="GJ15" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="GK15" s="27" t="s">
+      <c r="GK15" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="GL15" s="27" t="s">
+      <c r="GL15" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="GM15" s="27" t="s">
+      <c r="GM15" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="GN15" s="27" t="s">
+      <c r="GN15" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="GO15" s="27" t="s">
+      <c r="GO15" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="GP15" s="27" t="s">
+      <c r="GP15" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="GQ15" s="27" t="s">
+      <c r="GQ15" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="GR15" s="27" t="s">
+      <c r="GR15" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="GS15" s="27" t="s">
+      <c r="GS15" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="GT15" s="27" t="s">
+      <c r="GT15" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="GU15" s="27" t="s">
+      <c r="GU15" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="GV15" s="27" t="s">
+      <c r="GV15" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="GW15" s="27" t="s">
+      <c r="GW15" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="GX15" s="27" t="s">
+      <c r="GX15" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="GY15" s="27" t="s">
+      <c r="GY15" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="GZ15" s="27" t="s">
+      <c r="GZ15" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="HA15" s="27" t="s">
+      <c r="HA15" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="HB15" s="27" t="s">
+      <c r="HB15" s="26" t="s">
         <v>601</v>
       </c>
-      <c r="HC15" s="27" t="s">
+      <c r="HC15" s="26" t="s">
         <v>604</v>
       </c>
-      <c r="HD15" s="27" t="s">
+      <c r="HD15" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="HE15" s="27" t="s">
+      <c r="HE15" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="HF15" s="27" t="s">
+      <c r="HF15" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="HG15" s="27" t="s">
+      <c r="HG15" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="HH15" s="27" t="s">
+      <c r="HH15" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="HI15" s="27" t="s">
+      <c r="HI15" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="HJ15" s="27" t="s">
+      <c r="HJ15" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="HK15" s="27" t="s">
+      <c r="HK15" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="HL15" s="27" t="s">
+      <c r="HL15" s="26" t="s">
         <v>611</v>
       </c>
-      <c r="HM15" s="27" t="s">
+      <c r="HM15" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="HN15" s="27" t="s">
+      <c r="HN15" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="HO15" s="27" t="s">
+      <c r="HO15" s="26" t="s">
         <v>614</v>
       </c>
-      <c r="HP15" s="27" t="s">
+      <c r="HP15" s="26" t="s">
         <v>615</v>
       </c>
-      <c r="HQ15" s="27" t="s">
+      <c r="HQ15" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="HR15" s="27" t="s">
+      <c r="HR15" s="26" t="s">
         <v>617</v>
       </c>
-      <c r="HS15" s="27" t="s">
+      <c r="HS15" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="HT15" s="27" t="s">
+      <c r="HT15" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="HU15" s="27" t="s">
+      <c r="HU15" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="HV15" s="27" t="s">
+      <c r="HV15" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="HW15" s="27" t="s">
+      <c r="HW15" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="HX15" s="27" t="s">
+      <c r="HX15" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="HY15" s="27" t="s">
+      <c r="HY15" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="HZ15" s="27" t="s">
+      <c r="HZ15" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="IA15" s="27" t="s">
+      <c r="IA15" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="IB15" s="27" t="s">
+      <c r="IB15" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="IC15" s="27" t="s">
+      <c r="IC15" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="ID15" s="27" t="s">
+      <c r="ID15" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="IE15" s="27" t="s">
+      <c r="IE15" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="IF15" s="27" t="s">
+      <c r="IF15" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="IG15" s="27" t="s">
+      <c r="IG15" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="IH15" s="27" t="s">
+      <c r="IH15" s="26" t="s">
         <v>633</v>
       </c>
-      <c r="II15" s="27" t="s">
+      <c r="II15" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="IJ15" s="27" t="s">
+      <c r="IJ15" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="IK15" s="27" t="s">
+      <c r="IK15" s="26" t="s">
         <v>636</v>
       </c>
-      <c r="IL15" s="27" t="s">
+      <c r="IL15" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="IM15" s="27" t="s">
+      <c r="IM15" s="26" t="s">
         <v>638</v>
       </c>
-      <c r="IN15" s="27" t="s">
+      <c r="IN15" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="IO15" s="27" t="s">
+      <c r="IO15" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="IP15" s="27" t="s">
+      <c r="IP15" s="26" t="s">
         <v>641</v>
       </c>
-      <c r="IQ15" s="27" t="s">
+      <c r="IQ15" s="26" t="s">
         <v>642</v>
       </c>
-      <c r="IR15" s="27" t="s">
+      <c r="IR15" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="IS15" s="27" t="s">
+      <c r="IS15" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="IT15" s="27" t="s">
+      <c r="IT15" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="IU15" s="27" t="s">
+      <c r="IU15" s="26" t="s">
         <v>646</v>
       </c>
-      <c r="IV15" s="27" t="s">
+      <c r="IV15" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="IW15" s="27" t="s">
+      <c r="IW15" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="IX15" s="27" t="s">
+      <c r="IX15" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="IY15" s="27" t="s">
+      <c r="IY15" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="IZ15" s="27" t="s">
+      <c r="IZ15" s="26" t="s">
         <v>651</v>
       </c>
-      <c r="JA15" s="27" t="s">
+      <c r="JA15" s="26" t="s">
         <v>652</v>
       </c>
-      <c r="JB15" s="27" t="s">
+      <c r="JB15" s="26" t="s">
         <v>653</v>
       </c>
-      <c r="JC15" s="27" t="s">
+      <c r="JC15" s="26" t="s">
         <v>654</v>
       </c>
-      <c r="JD15" s="27" t="s">
+      <c r="JD15" s="26" t="s">
         <v>655</v>
       </c>
-      <c r="JE15" s="27" t="s">
+      <c r="JE15" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="JF15" s="27" t="s">
+      <c r="JF15" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="JG15" s="27" t="s">
+      <c r="JG15" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="JH15" s="27" t="s">
+      <c r="JH15" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="JI15" s="27" t="s">
+      <c r="JI15" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="JJ15" s="27" t="s">
+      <c r="JJ15" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="JK15" s="27" t="s">
+      <c r="JK15" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="JL15" s="27" t="s">
+      <c r="JL15" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="JM15" s="27" t="s">
+      <c r="JM15" s="26" t="s">
         <v>664</v>
       </c>
-      <c r="JN15" s="27" t="s">
+      <c r="JN15" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="JO15" s="27" t="s">
+      <c r="JO15" s="26" t="s">
         <v>666</v>
       </c>
-      <c r="JP15" s="27" t="s">
+      <c r="JP15" s="26" t="s">
         <v>667</v>
       </c>
-      <c r="JQ15" s="27" t="s">
+      <c r="JQ15" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="JR15" s="27" t="s">
+      <c r="JR15" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="JS15" s="27" t="s">
+      <c r="JS15" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="JT15" s="27" t="s">
+      <c r="JT15" s="26" t="s">
         <v>671</v>
       </c>
-      <c r="JU15" s="27" t="s">
+      <c r="JU15" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="JV15" s="27" t="s">
+      <c r="JV15" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="JW15" s="27" t="s">
+      <c r="JW15" s="26" t="s">
         <v>674</v>
       </c>
-      <c r="JX15" s="27" t="s">
+      <c r="JX15" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="JY15" s="27" t="s">
+      <c r="JY15" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="JZ15" s="27" t="s">
+      <c r="JZ15" s="26" t="s">
         <v>677</v>
       </c>
-      <c r="KA15" s="27" t="s">
+      <c r="KA15" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="KB15" s="27" t="s">
+      <c r="KB15" s="26" t="s">
         <v>679</v>
       </c>
-      <c r="KC15" s="27" t="s">
+      <c r="KC15" s="26" t="s">
         <v>680</v>
       </c>
-      <c r="KD15" s="27" t="s">
+      <c r="KD15" s="26" t="s">
         <v>681</v>
       </c>
-      <c r="KE15" s="27" t="s">
+      <c r="KE15" s="26" t="s">
         <v>682</v>
       </c>
-      <c r="KF15" s="27" t="s">
+      <c r="KF15" s="26" t="s">
         <v>685</v>
       </c>
-      <c r="KG15" s="27" t="s">
+      <c r="KG15" s="26" t="s">
         <v>683</v>
       </c>
-      <c r="KH15" s="27" t="s">
+      <c r="KH15" s="26" t="s">
         <v>684</v>
       </c>
-      <c r="KI15" s="27" t="s">
+      <c r="KI15" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="KJ15" s="27" t="s">
+      <c r="KJ15" s="26" t="s">
         <v>687</v>
       </c>
-      <c r="KK15" s="27" t="s">
+      <c r="KK15" s="26" t="s">
         <v>688</v>
       </c>
-      <c r="KL15" s="27" t="s">
+      <c r="KL15" s="26" t="s">
         <v>689</v>
       </c>
-      <c r="KM15" s="27" t="s">
+      <c r="KM15" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="KN15" s="27" t="s">
+      <c r="KN15" s="26" t="s">
         <v>691</v>
       </c>
-      <c r="KO15" s="27" t="s">
+      <c r="KO15" s="26" t="s">
         <v>692</v>
       </c>
-      <c r="KP15" s="27" t="s">
+      <c r="KP15" s="26" t="s">
         <v>693</v>
       </c>
-      <c r="KQ15" s="27" t="s">
+      <c r="KQ15" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="KR15" s="27" t="s">
+      <c r="KR15" s="26" t="s">
         <v>695</v>
       </c>
-      <c r="KS15" s="27" t="s">
+      <c r="KS15" s="26" t="s">
         <v>696</v>
       </c>
-      <c r="KT15" s="27" t="s">
+      <c r="KT15" s="26" t="s">
         <v>697</v>
       </c>
-      <c r="KU15" s="27" t="s">
+      <c r="KU15" s="26" t="s">
         <v>698</v>
       </c>
-      <c r="KV15" s="27" t="s">
+      <c r="KV15" s="26" t="s">
         <v>699</v>
       </c>
-      <c r="KW15" s="27" t="s">
+      <c r="KW15" s="26" t="s">
         <v>700</v>
       </c>
-      <c r="KX15" s="27" t="s">
+      <c r="KX15" s="26" t="s">
         <v>701</v>
       </c>
-      <c r="KY15" s="27" t="s">
+      <c r="KY15" s="26" t="s">
         <v>702</v>
       </c>
-      <c r="KZ15" s="27" t="s">
+      <c r="KZ15" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="LA15" s="27" t="s">
+      <c r="LA15" s="26" t="s">
         <v>704</v>
       </c>
-      <c r="LB15" s="27" t="s">
+      <c r="LB15" s="26" t="s">
         <v>705</v>
       </c>
-      <c r="LC15" s="27" t="s">
+      <c r="LC15" s="26" t="s">
         <v>706</v>
       </c>
-      <c r="LD15" s="27" t="s">
+      <c r="LD15" s="26" t="s">
         <v>707</v>
       </c>
-      <c r="LE15" s="27" t="s">
+      <c r="LE15" s="26" t="s">
         <v>708</v>
       </c>
-      <c r="LF15" s="27" t="s">
+      <c r="LF15" s="26" t="s">
         <v>709</v>
       </c>
-      <c r="LG15" s="27" t="s">
+      <c r="LG15" s="26" t="s">
         <v>710</v>
       </c>
-      <c r="LH15" s="27" t="s">
+      <c r="LH15" s="26" t="s">
         <v>713</v>
       </c>
-      <c r="LI15" s="27" t="s">
+      <c r="LI15" s="26" t="s">
         <v>711</v>
       </c>
-      <c r="LJ15" s="27" t="s">
+      <c r="LJ15" s="26" t="s">
         <v>712</v>
       </c>
-      <c r="LK15" s="27" t="s">
+      <c r="LK15" s="26" t="s">
         <v>714</v>
       </c>
-      <c r="LL15" s="27" t="s">
+      <c r="LL15" s="26" t="s">
         <v>715</v>
       </c>
-      <c r="LM15" s="27" t="s">
+      <c r="LM15" s="26" t="s">
         <v>716</v>
       </c>
-      <c r="LN15" s="27" t="s">
+      <c r="LN15" s="26" t="s">
         <v>717</v>
       </c>
-      <c r="LO15" s="27" t="s">
+      <c r="LO15" s="26" t="s">
         <v>718</v>
       </c>
-      <c r="LP15" s="27" t="s">
+      <c r="LP15" s="26" t="s">
         <v>719</v>
       </c>
-      <c r="LQ15" s="27" t="s">
+      <c r="LQ15" s="26" t="s">
         <v>720</v>
       </c>
-      <c r="LR15" s="27" t="s">
+      <c r="LR15" s="26" t="s">
         <v>721</v>
       </c>
-      <c r="LS15" s="27" t="s">
+      <c r="LS15" s="26" t="s">
         <v>722</v>
       </c>
-      <c r="LT15" s="27" t="s">
+      <c r="LT15" s="26" t="s">
         <v>723</v>
       </c>
-      <c r="LU15" s="27" t="s">
+      <c r="LU15" s="26" t="s">
         <v>724</v>
       </c>
-      <c r="LV15" s="27" t="s">
+      <c r="LV15" s="26" t="s">
         <v>725</v>
       </c>
-      <c r="LW15" s="27" t="s">
+      <c r="LW15" s="26" t="s">
         <v>726</v>
       </c>
-      <c r="LX15" s="27" t="s">
+      <c r="LX15" s="26" t="s">
         <v>727</v>
       </c>
-      <c r="LY15" s="27" t="s">
+      <c r="LY15" s="26" t="s">
         <v>728</v>
       </c>
-      <c r="LZ15" s="27" t="s">
+      <c r="LZ15" s="26" t="s">
         <v>729</v>
       </c>
-      <c r="MA15" s="27" t="s">
+      <c r="MA15" s="26" t="s">
         <v>730</v>
       </c>
-      <c r="MB15" s="27" t="s">
+      <c r="MB15" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="MC15" s="27" t="s">
+      <c r="MC15" s="26" t="s">
         <v>732</v>
       </c>
-      <c r="MD15" s="27" t="s">
+      <c r="MD15" s="26" t="s">
         <v>733</v>
       </c>
-      <c r="ME15" s="27" t="s">
+      <c r="ME15" s="26" t="s">
         <v>734</v>
       </c>
-      <c r="MF15" s="27" t="s">
+      <c r="MF15" s="26" t="s">
         <v>735</v>
       </c>
-      <c r="MG15" s="27" t="s">
+      <c r="MG15" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="MH15" s="27" t="s">
+      <c r="MH15" s="26" t="s">
         <v>737</v>
       </c>
-      <c r="MI15" s="27" t="s">
+      <c r="MI15" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="MJ15" s="27" t="s">
+      <c r="MJ15" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="MK15" s="27" t="s">
+      <c r="MK15" s="26" t="s">
         <v>740</v>
       </c>
-      <c r="ML15" s="27" t="s">
+      <c r="ML15" s="26" t="s">
         <v>741</v>
       </c>
-      <c r="MM15" s="27" t="s">
+      <c r="MM15" s="26" t="s">
         <v>742</v>
       </c>
-      <c r="MN15" s="27" t="s">
+      <c r="MN15" s="26" t="s">
         <v>743</v>
       </c>
-      <c r="MO15" s="27" t="s">
+      <c r="MO15" s="26" t="s">
         <v>744</v>
       </c>
-      <c r="MP15" s="27" t="s">
+      <c r="MP15" s="26" t="s">
         <v>745</v>
       </c>
-      <c r="MQ15" s="27" t="s">
+      <c r="MQ15" s="26" t="s">
         <v>746</v>
       </c>
-      <c r="MR15" s="27" t="s">
+      <c r="MR15" s="26" t="s">
         <v>747</v>
       </c>
-      <c r="MS15" s="27" t="s">
+      <c r="MS15" s="26" t="s">
         <v>748</v>
       </c>
-      <c r="MT15" s="27" t="s">
+      <c r="MT15" s="26" t="s">
         <v>749</v>
       </c>
-      <c r="MU15" s="27" t="s">
+      <c r="MU15" s="26" t="s">
         <v>750</v>
       </c>
-      <c r="MV15" s="27" t="s">
+      <c r="MV15" s="26" t="s">
         <v>751</v>
       </c>
-      <c r="MW15" s="27" t="s">
+      <c r="MW15" s="26" t="s">
         <v>752</v>
       </c>
-      <c r="MX15" s="27" t="s">
+      <c r="MX15" s="26" t="s">
         <v>753</v>
       </c>
-      <c r="MY15" s="27" t="s">
+      <c r="MY15" s="26" t="s">
         <v>754</v>
       </c>
-      <c r="MZ15" s="27" t="s">
+      <c r="MZ15" s="26" t="s">
         <v>755</v>
       </c>
-      <c r="NA15" s="27" t="s">
+      <c r="NA15" s="26" t="s">
         <v>756</v>
       </c>
-      <c r="NB15" s="27" t="s">
+      <c r="NB15" s="26" t="s">
         <v>757</v>
       </c>
-      <c r="NC15" s="27" t="s">
+      <c r="NC15" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="ND15" s="27" t="s">
+      <c r="ND15" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="NE15" s="27" t="s">
+      <c r="NE15" s="26" t="s">
         <v>760</v>
       </c>
-      <c r="NF15" s="27" t="s">
+      <c r="NF15" s="26" t="s">
         <v>761</v>
       </c>
-      <c r="NG15" s="27" t="s">
+      <c r="NG15" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="NH15" s="27" t="s">
+      <c r="NH15" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="NI15" s="27" t="s">
+      <c r="NI15" s="26" t="s">
         <v>764</v>
       </c>
-      <c r="NJ15" s="27" t="s">
+      <c r="NJ15" s="26" t="s">
         <v>765</v>
       </c>
-      <c r="NK15" s="27" t="s">
+      <c r="NK15" s="26" t="s">
         <v>766</v>
       </c>
-      <c r="NL15" s="27" t="s">
+      <c r="NL15" s="26" t="s">
         <v>767</v>
       </c>
-      <c r="NM15" s="27" t="s">
+      <c r="NM15" s="26" t="s">
         <v>768</v>
       </c>
-      <c r="NN15" s="27" t="s">
+      <c r="NN15" s="26" t="s">
         <v>769</v>
       </c>
-      <c r="NO15" s="27" t="s">
+      <c r="NO15" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="NP15" s="27" t="s">
+      <c r="NP15" s="26" t="s">
         <v>771</v>
       </c>
-      <c r="NQ15" s="27" t="s">
+      <c r="NQ15" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="NR15" s="27" t="s">
+      <c r="NR15" s="26" t="s">
         <v>773</v>
       </c>
-      <c r="NS15" s="27" t="s">
+      <c r="NS15" s="26" t="s">
         <v>774</v>
       </c>
-      <c r="NT15" s="27" t="s">
+      <c r="NT15" s="26" t="s">
         <v>775</v>
       </c>
-      <c r="NU15" s="27" t="s">
+      <c r="NU15" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="NV15" s="27" t="s">
+      <c r="NV15" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="NW15" s="27" t="s">
+      <c r="NW15" s="26" t="s">
         <v>777</v>
       </c>
-      <c r="NX15" s="27" t="s">
+      <c r="NX15" s="26" t="s">
         <v>778</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="NK13:NK14"/>
+    <mergeCell ref="A10:AF10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="S11:AB11"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="IP11:IT11"/>
+    <mergeCell ref="IU11:IV11"/>
+    <mergeCell ref="IW11:LH11"/>
+    <mergeCell ref="LI11:NJ11"/>
+    <mergeCell ref="IW10:JG10"/>
+    <mergeCell ref="LI10:LR10"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="AG11:BX11"/>
+    <mergeCell ref="BY11:CU11"/>
+    <mergeCell ref="CV11:EM11"/>
+    <mergeCell ref="EN11:HW11"/>
+    <mergeCell ref="HX11:IO11"/>
+    <mergeCell ref="CX12:DA12"/>
+    <mergeCell ref="CG12:CK12"/>
+    <mergeCell ref="BD12:BM12"/>
+    <mergeCell ref="BN12:BP12"/>
+    <mergeCell ref="BQ12:BT12"/>
+    <mergeCell ref="BU12:BX12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:BC12"/>
+    <mergeCell ref="EN12:EP13"/>
+    <mergeCell ref="EQ12:ES13"/>
+    <mergeCell ref="ET12:EV13"/>
+    <mergeCell ref="BU13:BV13"/>
+    <mergeCell ref="BW13:BX13"/>
+    <mergeCell ref="CG13:CJ13"/>
+    <mergeCell ref="CX13:CY13"/>
+    <mergeCell ref="CZ13:DA13"/>
+    <mergeCell ref="CC12:CD13"/>
+    <mergeCell ref="CE12:CF13"/>
+    <mergeCell ref="CK13:CK14"/>
+    <mergeCell ref="CL12:CM13"/>
+    <mergeCell ref="CN12:CO13"/>
+    <mergeCell ref="CP12:CQ13"/>
+    <mergeCell ref="CR12:CS13"/>
+    <mergeCell ref="CT12:CU13"/>
+    <mergeCell ref="CV12:CW13"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="EW12:EY13"/>
+    <mergeCell ref="DO12:DQ12"/>
+    <mergeCell ref="DB12:DD13"/>
+    <mergeCell ref="DE12:DL13"/>
+    <mergeCell ref="DM12:DN13"/>
+    <mergeCell ref="DQ13:DQ14"/>
+    <mergeCell ref="GM12:GO13"/>
+    <mergeCell ref="GP12:GS13"/>
+    <mergeCell ref="FO12:FQ13"/>
+    <mergeCell ref="FR12:FT13"/>
+    <mergeCell ref="FU12:FW13"/>
+    <mergeCell ref="FX12:FZ13"/>
+    <mergeCell ref="GA12:GC13"/>
+    <mergeCell ref="EZ12:FB13"/>
+    <mergeCell ref="FC12:FE13"/>
+    <mergeCell ref="FF12:FH13"/>
+    <mergeCell ref="FI12:FK13"/>
+    <mergeCell ref="FL12:FN13"/>
+    <mergeCell ref="GD12:GF13"/>
+    <mergeCell ref="GG12:GI13"/>
+    <mergeCell ref="GJ12:GL13"/>
+    <mergeCell ref="IU12:IV12"/>
+    <mergeCell ref="HN12:HQ13"/>
+    <mergeCell ref="HR12:HU13"/>
+    <mergeCell ref="HV12:HV14"/>
+    <mergeCell ref="HW12:HW14"/>
+    <mergeCell ref="IU13:IU14"/>
+    <mergeCell ref="IV13:IV14"/>
+    <mergeCell ref="GT12:GW13"/>
+    <mergeCell ref="GX12:HA13"/>
+    <mergeCell ref="HB12:HE13"/>
+    <mergeCell ref="HF12:HI13"/>
+    <mergeCell ref="HJ12:HM13"/>
+    <mergeCell ref="HX13:IC13"/>
+    <mergeCell ref="ID13:IG13"/>
+    <mergeCell ref="IH13:II13"/>
+    <mergeCell ref="IJ13:IO13"/>
+    <mergeCell ref="IP13:IT13"/>
+    <mergeCell ref="HX12:IO12"/>
+    <mergeCell ref="IP12:IT12"/>
+    <mergeCell ref="LI12:LR12"/>
+    <mergeCell ref="LS12:LW12"/>
+    <mergeCell ref="LX12:MD12"/>
+    <mergeCell ref="ME12:ML12"/>
+    <mergeCell ref="MM12:NJ12"/>
+    <mergeCell ref="IW12:JG12"/>
+    <mergeCell ref="JH12:JK12"/>
+    <mergeCell ref="JL12:KA12"/>
+    <mergeCell ref="KB12:KQ12"/>
+    <mergeCell ref="KR12:LH12"/>
+    <mergeCell ref="JL13:JN13"/>
+    <mergeCell ref="JO13:JV13"/>
+    <mergeCell ref="JW13:JY13"/>
+    <mergeCell ref="JZ13:KA13"/>
+    <mergeCell ref="KB13:KC13"/>
+    <mergeCell ref="IW13:IZ13"/>
+    <mergeCell ref="JA13:JD13"/>
+    <mergeCell ref="JE13:JG13"/>
+    <mergeCell ref="JH13:JI13"/>
+    <mergeCell ref="JJ13:JK13"/>
+    <mergeCell ref="MO13:MO14"/>
+    <mergeCell ref="MP13:MP14"/>
+    <mergeCell ref="MQ13:MQ14"/>
+    <mergeCell ref="MR13:MR14"/>
+    <mergeCell ref="MS13:MS14"/>
+    <mergeCell ref="MT13:MT14"/>
+    <mergeCell ref="MU13:MU14"/>
+    <mergeCell ref="MV13:MV14"/>
+    <mergeCell ref="MW13:MW14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="BY10:CF10"/>
+    <mergeCell ref="HX10:II10"/>
+    <mergeCell ref="MH13:ML13"/>
+    <mergeCell ref="LS13:LT13"/>
+    <mergeCell ref="LV13:LW13"/>
+    <mergeCell ref="LX13:LY13"/>
+    <mergeCell ref="MA13:MD13"/>
+    <mergeCell ref="ME13:MF13"/>
+    <mergeCell ref="LB13:LE13"/>
+    <mergeCell ref="LG13:LH13"/>
+    <mergeCell ref="LI13:LJ13"/>
+    <mergeCell ref="LK13:LN13"/>
+    <mergeCell ref="LO13:LR13"/>
+    <mergeCell ref="KE13:KK13"/>
+    <mergeCell ref="KL13:KM13"/>
+    <mergeCell ref="KN13:KQ13"/>
+    <mergeCell ref="KR13:KS13"/>
+    <mergeCell ref="KT13:LA13"/>
+    <mergeCell ref="NK10:NX10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="NR13:NT13"/>
+    <mergeCell ref="NU13:NV13"/>
+    <mergeCell ref="NG13:NH13"/>
+    <mergeCell ref="NI13:NJ13"/>
+    <mergeCell ref="NL13:NM13"/>
+    <mergeCell ref="NN13:NQ13"/>
+    <mergeCell ref="MM13:MM14"/>
+    <mergeCell ref="MN13:MN14"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="Y12:Y14"/>
+    <mergeCell ref="Z12:Z14"/>
+    <mergeCell ref="AA12:AA14"/>
+    <mergeCell ref="AB12:AB14"/>
+    <mergeCell ref="AC12:AC14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AP13:AP14"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AX13:AX14"/>
+    <mergeCell ref="AY13:AY14"/>
+    <mergeCell ref="AZ13:AZ14"/>
+    <mergeCell ref="BA13:BA14"/>
+    <mergeCell ref="BB13:BB14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="AT13:AT14"/>
+    <mergeCell ref="AU13:AU14"/>
+    <mergeCell ref="AV13:AV14"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="BP13:BP14"/>
+    <mergeCell ref="BQ13:BQ14"/>
+    <mergeCell ref="BH13:BH14"/>
+    <mergeCell ref="BI13:BI14"/>
+    <mergeCell ref="BJ13:BJ14"/>
+    <mergeCell ref="BK13:BK14"/>
+    <mergeCell ref="BL13:BL14"/>
+    <mergeCell ref="BC13:BC14"/>
+    <mergeCell ref="BD13:BD14"/>
+    <mergeCell ref="BE13:BE14"/>
+    <mergeCell ref="BF13:BF14"/>
+    <mergeCell ref="BG13:BG14"/>
     <mergeCell ref="KB10:KL10"/>
     <mergeCell ref="MM10:MZ10"/>
     <mergeCell ref="B1:P1"/>
@@ -7202,221 +7446,6 @@
     <mergeCell ref="BM13:BM14"/>
     <mergeCell ref="BN13:BN14"/>
     <mergeCell ref="BO13:BO14"/>
-    <mergeCell ref="BP13:BP14"/>
-    <mergeCell ref="BQ13:BQ14"/>
-    <mergeCell ref="BH13:BH14"/>
-    <mergeCell ref="BI13:BI14"/>
-    <mergeCell ref="BJ13:BJ14"/>
-    <mergeCell ref="BK13:BK14"/>
-    <mergeCell ref="BL13:BL14"/>
-    <mergeCell ref="BC13:BC14"/>
-    <mergeCell ref="BD13:BD14"/>
-    <mergeCell ref="BE13:BE14"/>
-    <mergeCell ref="BF13:BF14"/>
-    <mergeCell ref="BG13:BG14"/>
-    <mergeCell ref="AX13:AX14"/>
-    <mergeCell ref="AY13:AY14"/>
-    <mergeCell ref="AZ13:AZ14"/>
-    <mergeCell ref="BA13:BA14"/>
-    <mergeCell ref="BB13:BB14"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="AT13:AT14"/>
-    <mergeCell ref="AU13:AU14"/>
-    <mergeCell ref="AV13:AV14"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="AN13:AN14"/>
-    <mergeCell ref="AO13:AO14"/>
-    <mergeCell ref="AP13:AP14"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AR13:AR14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="Y12:Y14"/>
-    <mergeCell ref="Z12:Z14"/>
-    <mergeCell ref="AA12:AA14"/>
-    <mergeCell ref="AB12:AB14"/>
-    <mergeCell ref="AC12:AC14"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="NK10:NX10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="NR13:NT13"/>
-    <mergeCell ref="NU13:NV13"/>
-    <mergeCell ref="NG13:NH13"/>
-    <mergeCell ref="NI13:NJ13"/>
-    <mergeCell ref="NL13:NM13"/>
-    <mergeCell ref="NN13:NQ13"/>
-    <mergeCell ref="MM13:MM14"/>
-    <mergeCell ref="MN13:MN14"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="BY10:CF10"/>
-    <mergeCell ref="HX10:II10"/>
-    <mergeCell ref="MH13:ML13"/>
-    <mergeCell ref="LS13:LT13"/>
-    <mergeCell ref="LV13:LW13"/>
-    <mergeCell ref="LX13:LY13"/>
-    <mergeCell ref="MA13:MD13"/>
-    <mergeCell ref="ME13:MF13"/>
-    <mergeCell ref="LB13:LE13"/>
-    <mergeCell ref="LG13:LH13"/>
-    <mergeCell ref="LI13:LJ13"/>
-    <mergeCell ref="LK13:LN13"/>
-    <mergeCell ref="LO13:LR13"/>
-    <mergeCell ref="KE13:KK13"/>
-    <mergeCell ref="KL13:KM13"/>
-    <mergeCell ref="KN13:KQ13"/>
-    <mergeCell ref="KR13:KS13"/>
-    <mergeCell ref="KT13:LA13"/>
-    <mergeCell ref="MO13:MO14"/>
-    <mergeCell ref="MP13:MP14"/>
-    <mergeCell ref="MQ13:MQ14"/>
-    <mergeCell ref="MR13:MR14"/>
-    <mergeCell ref="MS13:MS14"/>
-    <mergeCell ref="MT13:MT14"/>
-    <mergeCell ref="MU13:MU14"/>
-    <mergeCell ref="MV13:MV14"/>
-    <mergeCell ref="MW13:MW14"/>
-    <mergeCell ref="JL13:JN13"/>
-    <mergeCell ref="JO13:JV13"/>
-    <mergeCell ref="JW13:JY13"/>
-    <mergeCell ref="JZ13:KA13"/>
-    <mergeCell ref="KB13:KC13"/>
-    <mergeCell ref="IW13:IZ13"/>
-    <mergeCell ref="JA13:JD13"/>
-    <mergeCell ref="JE13:JG13"/>
-    <mergeCell ref="JH13:JI13"/>
-    <mergeCell ref="JJ13:JK13"/>
-    <mergeCell ref="LI12:LR12"/>
-    <mergeCell ref="LS12:LW12"/>
-    <mergeCell ref="LX12:MD12"/>
-    <mergeCell ref="ME12:ML12"/>
-    <mergeCell ref="MM12:NJ12"/>
-    <mergeCell ref="IW12:JG12"/>
-    <mergeCell ref="JH12:JK12"/>
-    <mergeCell ref="JL12:KA12"/>
-    <mergeCell ref="KB12:KQ12"/>
-    <mergeCell ref="KR12:LH12"/>
-    <mergeCell ref="IU12:IV12"/>
-    <mergeCell ref="HN12:HQ13"/>
-    <mergeCell ref="HR12:HU13"/>
-    <mergeCell ref="HV12:HV14"/>
-    <mergeCell ref="HW12:HW14"/>
-    <mergeCell ref="IU13:IU14"/>
-    <mergeCell ref="IV13:IV14"/>
-    <mergeCell ref="GT12:GW13"/>
-    <mergeCell ref="GX12:HA13"/>
-    <mergeCell ref="HB12:HE13"/>
-    <mergeCell ref="HF12:HI13"/>
-    <mergeCell ref="HJ12:HM13"/>
-    <mergeCell ref="HX13:IC13"/>
-    <mergeCell ref="ID13:IG13"/>
-    <mergeCell ref="IH13:II13"/>
-    <mergeCell ref="IJ13:IO13"/>
-    <mergeCell ref="IP13:IT13"/>
-    <mergeCell ref="HX12:IO12"/>
-    <mergeCell ref="IP12:IT12"/>
-    <mergeCell ref="EW12:EY13"/>
-    <mergeCell ref="DO12:DQ12"/>
-    <mergeCell ref="DB12:DD13"/>
-    <mergeCell ref="DE12:DL13"/>
-    <mergeCell ref="DM12:DN13"/>
-    <mergeCell ref="DQ13:DQ14"/>
-    <mergeCell ref="GM12:GO13"/>
-    <mergeCell ref="GP12:GS13"/>
-    <mergeCell ref="FO12:FQ13"/>
-    <mergeCell ref="FR12:FT13"/>
-    <mergeCell ref="FU12:FW13"/>
-    <mergeCell ref="FX12:FZ13"/>
-    <mergeCell ref="GA12:GC13"/>
-    <mergeCell ref="EZ12:FB13"/>
-    <mergeCell ref="FC12:FE13"/>
-    <mergeCell ref="FF12:FH13"/>
-    <mergeCell ref="FI12:FK13"/>
-    <mergeCell ref="FL12:FN13"/>
-    <mergeCell ref="GD12:GF13"/>
-    <mergeCell ref="GG12:GI13"/>
-    <mergeCell ref="GJ12:GL13"/>
-    <mergeCell ref="BU12:BX12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:BC12"/>
-    <mergeCell ref="EN12:EP13"/>
-    <mergeCell ref="EQ12:ES13"/>
-    <mergeCell ref="ET12:EV13"/>
-    <mergeCell ref="BU13:BV13"/>
-    <mergeCell ref="BW13:BX13"/>
-    <mergeCell ref="CG13:CJ13"/>
-    <mergeCell ref="CX13:CY13"/>
-    <mergeCell ref="CZ13:DA13"/>
-    <mergeCell ref="CC12:CD13"/>
-    <mergeCell ref="CE12:CF13"/>
-    <mergeCell ref="CK13:CK14"/>
-    <mergeCell ref="CL12:CM13"/>
-    <mergeCell ref="CN12:CO13"/>
-    <mergeCell ref="CP12:CQ13"/>
-    <mergeCell ref="CR12:CS13"/>
-    <mergeCell ref="CT12:CU13"/>
-    <mergeCell ref="CV12:CW13"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="NK13:NK14"/>
-    <mergeCell ref="A10:AF10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="S11:AB11"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="IP11:IT11"/>
-    <mergeCell ref="IU11:IV11"/>
-    <mergeCell ref="IW11:LH11"/>
-    <mergeCell ref="LI11:NJ11"/>
-    <mergeCell ref="IW10:JG10"/>
-    <mergeCell ref="LI10:LR10"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="AG11:BX11"/>
-    <mergeCell ref="BY11:CU11"/>
-    <mergeCell ref="CV11:EM11"/>
-    <mergeCell ref="EN11:HW11"/>
-    <mergeCell ref="HX11:IO11"/>
-    <mergeCell ref="CX12:DA12"/>
-    <mergeCell ref="CG12:CK12"/>
-    <mergeCell ref="BD12:BM12"/>
-    <mergeCell ref="BN12:BP12"/>
-    <mergeCell ref="BQ12:BT12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/eform/public/files/template/data_all.xlsx
+++ b/eform/public/files/template/data_all.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\infokes\jakarta\eform\public\files\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\eform\eform\public\files\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2382,15 +2382,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2671,74 +2678,77 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2746,91 +2756,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2851,20 +2804,77 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2964,6 +2974,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2999,6 +3026,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3177,8 +3221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NX15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CL12" sqref="CL12:CM13"/>
+    <sheetView tabSelected="1" topLeftCell="HC12" workbookViewId="0">
+      <selection activeCell="ID15" sqref="ID15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3207,71 +3251,71 @@
   <sheetData>
     <row r="1" spans="1:388" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="2" spans="1:388" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
     </row>
     <row r="3" spans="1:388" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
     </row>
     <row r="4" spans="1:388" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="1"/>
       <c r="G4" s="1"/>
     </row>
@@ -3280,10 +3324,10 @@
       <c r="B5" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -3292,10 +3336,10 @@
       <c r="B6" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="59" t="s">
         <v>383</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -3304,10 +3348,10 @@
       <c r="B7" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="59" t="s">
         <v>384</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -3315,555 +3359,555 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:388" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:388" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="30"/>
+      <c r="AG10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="BY10" s="27" t="s">
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+      <c r="AJ10" s="30"/>
+      <c r="BY10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="BZ10" s="27"/>
-      <c r="CA10" s="27"/>
-      <c r="CB10" s="27"/>
-      <c r="CC10" s="27"/>
-      <c r="CD10" s="27"/>
-      <c r="CE10" s="27"/>
-      <c r="CF10" s="27"/>
-      <c r="HX10" s="27" t="s">
+      <c r="BZ10" s="30"/>
+      <c r="CA10" s="30"/>
+      <c r="CB10" s="30"/>
+      <c r="CC10" s="30"/>
+      <c r="CD10" s="30"/>
+      <c r="CE10" s="30"/>
+      <c r="CF10" s="30"/>
+      <c r="HX10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="HY10" s="27"/>
-      <c r="HZ10" s="27"/>
-      <c r="IA10" s="27"/>
-      <c r="IB10" s="27"/>
-      <c r="IC10" s="27"/>
-      <c r="ID10" s="27"/>
-      <c r="IE10" s="27"/>
-      <c r="IF10" s="27"/>
-      <c r="IG10" s="27"/>
-      <c r="IH10" s="27"/>
-      <c r="II10" s="27"/>
-      <c r="IW10" s="27" t="s">
+      <c r="HY10" s="30"/>
+      <c r="HZ10" s="30"/>
+      <c r="IA10" s="30"/>
+      <c r="IB10" s="30"/>
+      <c r="IC10" s="30"/>
+      <c r="ID10" s="30"/>
+      <c r="IE10" s="30"/>
+      <c r="IF10" s="30"/>
+      <c r="IG10" s="30"/>
+      <c r="IH10" s="30"/>
+      <c r="II10" s="30"/>
+      <c r="IW10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="IX10" s="27"/>
-      <c r="IY10" s="27"/>
-      <c r="IZ10" s="27"/>
-      <c r="JA10" s="27"/>
-      <c r="JB10" s="27"/>
-      <c r="JC10" s="27"/>
-      <c r="JD10" s="27"/>
-      <c r="JE10" s="27"/>
-      <c r="JF10" s="27"/>
-      <c r="JG10" s="27"/>
-      <c r="KB10" s="27" t="s">
+      <c r="IX10" s="30"/>
+      <c r="IY10" s="30"/>
+      <c r="IZ10" s="30"/>
+      <c r="JA10" s="30"/>
+      <c r="JB10" s="30"/>
+      <c r="JC10" s="30"/>
+      <c r="JD10" s="30"/>
+      <c r="JE10" s="30"/>
+      <c r="JF10" s="30"/>
+      <c r="JG10" s="30"/>
+      <c r="KB10" s="30" t="s">
         <v>779</v>
       </c>
-      <c r="KC10" s="27"/>
-      <c r="KD10" s="27"/>
-      <c r="KE10" s="27"/>
-      <c r="KF10" s="27"/>
-      <c r="KG10" s="27"/>
-      <c r="KH10" s="27"/>
-      <c r="KI10" s="27"/>
-      <c r="KJ10" s="27"/>
-      <c r="KK10" s="27"/>
-      <c r="KL10" s="27"/>
-      <c r="LI10" s="27" t="s">
+      <c r="KC10" s="30"/>
+      <c r="KD10" s="30"/>
+      <c r="KE10" s="30"/>
+      <c r="KF10" s="30"/>
+      <c r="KG10" s="30"/>
+      <c r="KH10" s="30"/>
+      <c r="KI10" s="30"/>
+      <c r="KJ10" s="30"/>
+      <c r="KK10" s="30"/>
+      <c r="KL10" s="30"/>
+      <c r="LI10" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="LJ10" s="27"/>
-      <c r="LK10" s="27"/>
-      <c r="LL10" s="27"/>
-      <c r="LM10" s="27"/>
-      <c r="LN10" s="27"/>
-      <c r="LO10" s="27"/>
-      <c r="LP10" s="27"/>
-      <c r="LQ10" s="27"/>
-      <c r="LR10" s="27"/>
-      <c r="MM10" s="27" t="s">
+      <c r="LJ10" s="30"/>
+      <c r="LK10" s="30"/>
+      <c r="LL10" s="30"/>
+      <c r="LM10" s="30"/>
+      <c r="LN10" s="30"/>
+      <c r="LO10" s="30"/>
+      <c r="LP10" s="30"/>
+      <c r="LQ10" s="30"/>
+      <c r="LR10" s="30"/>
+      <c r="MM10" s="30" t="s">
         <v>780</v>
       </c>
-      <c r="MN10" s="27"/>
-      <c r="MO10" s="27"/>
-      <c r="MP10" s="27"/>
-      <c r="MQ10" s="27"/>
-      <c r="MR10" s="27"/>
-      <c r="MS10" s="27"/>
-      <c r="MT10" s="27"/>
-      <c r="MU10" s="27"/>
-      <c r="MV10" s="27"/>
-      <c r="MW10" s="27"/>
-      <c r="MX10" s="27"/>
-      <c r="MY10" s="27"/>
-      <c r="MZ10" s="27"/>
-      <c r="NK10" s="27" t="s">
+      <c r="MN10" s="30"/>
+      <c r="MO10" s="30"/>
+      <c r="MP10" s="30"/>
+      <c r="MQ10" s="30"/>
+      <c r="MR10" s="30"/>
+      <c r="MS10" s="30"/>
+      <c r="MT10" s="30"/>
+      <c r="MU10" s="30"/>
+      <c r="MV10" s="30"/>
+      <c r="MW10" s="30"/>
+      <c r="MX10" s="30"/>
+      <c r="MY10" s="30"/>
+      <c r="MZ10" s="30"/>
+      <c r="NK10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="NL10" s="27"/>
-      <c r="NM10" s="27"/>
-      <c r="NN10" s="27"/>
-      <c r="NO10" s="27"/>
-      <c r="NP10" s="27"/>
-      <c r="NQ10" s="27"/>
-      <c r="NR10" s="27"/>
-      <c r="NS10" s="27"/>
-      <c r="NT10" s="27"/>
-      <c r="NU10" s="27"/>
-      <c r="NV10" s="27"/>
-      <c r="NW10" s="27"/>
-      <c r="NX10" s="27"/>
+      <c r="NL10" s="30"/>
+      <c r="NM10" s="30"/>
+      <c r="NN10" s="30"/>
+      <c r="NO10" s="30"/>
+      <c r="NP10" s="30"/>
+      <c r="NQ10" s="30"/>
+      <c r="NR10" s="30"/>
+      <c r="NS10" s="30"/>
+      <c r="NT10" s="30"/>
+      <c r="NU10" s="30"/>
+      <c r="NV10" s="30"/>
+      <c r="NW10" s="30"/>
+      <c r="NX10" s="30"/>
     </row>
     <row r="11" spans="1:388" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="40" t="s">
+      <c r="C11" s="32"/>
+      <c r="D11" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43" t="s">
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="53" t="s">
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53" t="s">
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="53"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="53"/>
-      <c r="AZ11" s="53"/>
-      <c r="BA11" s="53"/>
-      <c r="BB11" s="53"/>
-      <c r="BC11" s="53"/>
-      <c r="BD11" s="53"/>
-      <c r="BE11" s="53"/>
-      <c r="BF11" s="53"/>
-      <c r="BG11" s="53"/>
-      <c r="BH11" s="53"/>
-      <c r="BI11" s="53"/>
-      <c r="BJ11" s="53"/>
-      <c r="BK11" s="53"/>
-      <c r="BL11" s="53"/>
-      <c r="BM11" s="53"/>
-      <c r="BN11" s="53"/>
-      <c r="BO11" s="53"/>
-      <c r="BP11" s="53"/>
-      <c r="BQ11" s="53"/>
-      <c r="BR11" s="53"/>
-      <c r="BS11" s="53"/>
-      <c r="BT11" s="53"/>
-      <c r="BU11" s="53"/>
-      <c r="BV11" s="53"/>
-      <c r="BW11" s="53"/>
-      <c r="BX11" s="53"/>
-      <c r="BY11" s="44"/>
-      <c r="BZ11" s="55"/>
-      <c r="CA11" s="55"/>
-      <c r="CB11" s="55"/>
-      <c r="CC11" s="55"/>
-      <c r="CD11" s="55"/>
-      <c r="CE11" s="55"/>
-      <c r="CF11" s="55"/>
-      <c r="CG11" s="55"/>
-      <c r="CH11" s="55"/>
-      <c r="CI11" s="55"/>
-      <c r="CJ11" s="55"/>
-      <c r="CK11" s="55"/>
-      <c r="CL11" s="55"/>
-      <c r="CM11" s="55"/>
-      <c r="CN11" s="55"/>
-      <c r="CO11" s="55"/>
-      <c r="CP11" s="55"/>
-      <c r="CQ11" s="55"/>
-      <c r="CR11" s="55"/>
-      <c r="CS11" s="55"/>
-      <c r="CT11" s="55"/>
-      <c r="CU11" s="45"/>
-      <c r="CV11" s="53" t="s">
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="34"/>
+      <c r="BK11" s="34"/>
+      <c r="BL11" s="34"/>
+      <c r="BM11" s="34"/>
+      <c r="BN11" s="34"/>
+      <c r="BO11" s="34"/>
+      <c r="BP11" s="34"/>
+      <c r="BQ11" s="34"/>
+      <c r="BR11" s="34"/>
+      <c r="BS11" s="34"/>
+      <c r="BT11" s="34"/>
+      <c r="BU11" s="34"/>
+      <c r="BV11" s="34"/>
+      <c r="BW11" s="34"/>
+      <c r="BX11" s="34"/>
+      <c r="BY11" s="31"/>
+      <c r="BZ11" s="37"/>
+      <c r="CA11" s="37"/>
+      <c r="CB11" s="37"/>
+      <c r="CC11" s="37"/>
+      <c r="CD11" s="37"/>
+      <c r="CE11" s="37"/>
+      <c r="CF11" s="37"/>
+      <c r="CG11" s="37"/>
+      <c r="CH11" s="37"/>
+      <c r="CI11" s="37"/>
+      <c r="CJ11" s="37"/>
+      <c r="CK11" s="37"/>
+      <c r="CL11" s="37"/>
+      <c r="CM11" s="37"/>
+      <c r="CN11" s="37"/>
+      <c r="CO11" s="37"/>
+      <c r="CP11" s="37"/>
+      <c r="CQ11" s="37"/>
+      <c r="CR11" s="37"/>
+      <c r="CS11" s="37"/>
+      <c r="CT11" s="37"/>
+      <c r="CU11" s="32"/>
+      <c r="CV11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="CW11" s="53"/>
-      <c r="CX11" s="53"/>
-      <c r="CY11" s="53"/>
-      <c r="CZ11" s="53"/>
-      <c r="DA11" s="53"/>
-      <c r="DB11" s="53"/>
-      <c r="DC11" s="53"/>
-      <c r="DD11" s="53"/>
-      <c r="DE11" s="53"/>
-      <c r="DF11" s="53"/>
-      <c r="DG11" s="53"/>
-      <c r="DH11" s="53"/>
-      <c r="DI11" s="53"/>
-      <c r="DJ11" s="53"/>
-      <c r="DK11" s="53"/>
-      <c r="DL11" s="53"/>
-      <c r="DM11" s="53"/>
-      <c r="DN11" s="53"/>
-      <c r="DO11" s="53"/>
-      <c r="DP11" s="53"/>
-      <c r="DQ11" s="53"/>
-      <c r="DR11" s="53"/>
-      <c r="DS11" s="53"/>
-      <c r="DT11" s="53"/>
-      <c r="DU11" s="53"/>
-      <c r="DV11" s="53"/>
-      <c r="DW11" s="53"/>
-      <c r="DX11" s="53"/>
-      <c r="DY11" s="53"/>
-      <c r="DZ11" s="53"/>
-      <c r="EA11" s="53"/>
-      <c r="EB11" s="53"/>
-      <c r="EC11" s="53"/>
-      <c r="ED11" s="53"/>
-      <c r="EE11" s="53"/>
-      <c r="EF11" s="53"/>
-      <c r="EG11" s="53"/>
-      <c r="EH11" s="53"/>
-      <c r="EI11" s="53"/>
-      <c r="EJ11" s="53"/>
-      <c r="EK11" s="53"/>
-      <c r="EL11" s="53"/>
-      <c r="EM11" s="53"/>
-      <c r="EN11" s="53" t="s">
+      <c r="CW11" s="34"/>
+      <c r="CX11" s="34"/>
+      <c r="CY11" s="34"/>
+      <c r="CZ11" s="34"/>
+      <c r="DA11" s="34"/>
+      <c r="DB11" s="34"/>
+      <c r="DC11" s="34"/>
+      <c r="DD11" s="34"/>
+      <c r="DE11" s="34"/>
+      <c r="DF11" s="34"/>
+      <c r="DG11" s="34"/>
+      <c r="DH11" s="34"/>
+      <c r="DI11" s="34"/>
+      <c r="DJ11" s="34"/>
+      <c r="DK11" s="34"/>
+      <c r="DL11" s="34"/>
+      <c r="DM11" s="34"/>
+      <c r="DN11" s="34"/>
+      <c r="DO11" s="34"/>
+      <c r="DP11" s="34"/>
+      <c r="DQ11" s="34"/>
+      <c r="DR11" s="34"/>
+      <c r="DS11" s="34"/>
+      <c r="DT11" s="34"/>
+      <c r="DU11" s="34"/>
+      <c r="DV11" s="34"/>
+      <c r="DW11" s="34"/>
+      <c r="DX11" s="34"/>
+      <c r="DY11" s="34"/>
+      <c r="DZ11" s="34"/>
+      <c r="EA11" s="34"/>
+      <c r="EB11" s="34"/>
+      <c r="EC11" s="34"/>
+      <c r="ED11" s="34"/>
+      <c r="EE11" s="34"/>
+      <c r="EF11" s="34"/>
+      <c r="EG11" s="34"/>
+      <c r="EH11" s="34"/>
+      <c r="EI11" s="34"/>
+      <c r="EJ11" s="34"/>
+      <c r="EK11" s="34"/>
+      <c r="EL11" s="34"/>
+      <c r="EM11" s="34"/>
+      <c r="EN11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="EO11" s="53"/>
-      <c r="EP11" s="53"/>
-      <c r="EQ11" s="53"/>
-      <c r="ER11" s="53"/>
-      <c r="ES11" s="53"/>
-      <c r="ET11" s="53"/>
-      <c r="EU11" s="53"/>
-      <c r="EV11" s="53"/>
-      <c r="EW11" s="53"/>
-      <c r="EX11" s="53"/>
-      <c r="EY11" s="53"/>
-      <c r="EZ11" s="53"/>
-      <c r="FA11" s="53"/>
-      <c r="FB11" s="53"/>
-      <c r="FC11" s="53"/>
-      <c r="FD11" s="53"/>
-      <c r="FE11" s="53"/>
-      <c r="FF11" s="53"/>
-      <c r="FG11" s="53"/>
-      <c r="FH11" s="53"/>
-      <c r="FI11" s="53"/>
-      <c r="FJ11" s="53"/>
-      <c r="FK11" s="53"/>
-      <c r="FL11" s="53"/>
-      <c r="FM11" s="53"/>
-      <c r="FN11" s="53"/>
-      <c r="FO11" s="53"/>
-      <c r="FP11" s="53"/>
-      <c r="FQ11" s="53"/>
-      <c r="FR11" s="53"/>
-      <c r="FS11" s="53"/>
-      <c r="FT11" s="53"/>
-      <c r="FU11" s="53"/>
-      <c r="FV11" s="53"/>
-      <c r="FW11" s="53"/>
-      <c r="FX11" s="53"/>
-      <c r="FY11" s="53"/>
-      <c r="FZ11" s="53"/>
-      <c r="GA11" s="53"/>
-      <c r="GB11" s="53"/>
-      <c r="GC11" s="53"/>
-      <c r="GD11" s="53"/>
-      <c r="GE11" s="53"/>
-      <c r="GF11" s="53"/>
-      <c r="GG11" s="53"/>
-      <c r="GH11" s="53"/>
-      <c r="GI11" s="53"/>
-      <c r="GJ11" s="53"/>
-      <c r="GK11" s="53"/>
-      <c r="GL11" s="53"/>
-      <c r="GM11" s="53"/>
-      <c r="GN11" s="53"/>
-      <c r="GO11" s="53"/>
-      <c r="GP11" s="53"/>
-      <c r="GQ11" s="53"/>
-      <c r="GR11" s="53"/>
-      <c r="GS11" s="53"/>
-      <c r="GT11" s="53"/>
-      <c r="GU11" s="53"/>
-      <c r="GV11" s="53"/>
-      <c r="GW11" s="53"/>
-      <c r="GX11" s="53"/>
-      <c r="GY11" s="53"/>
-      <c r="GZ11" s="53"/>
-      <c r="HA11" s="53"/>
-      <c r="HB11" s="53"/>
-      <c r="HC11" s="53"/>
-      <c r="HD11" s="53"/>
-      <c r="HE11" s="53"/>
-      <c r="HF11" s="53"/>
-      <c r="HG11" s="53"/>
-      <c r="HH11" s="53"/>
-      <c r="HI11" s="53"/>
-      <c r="HJ11" s="53"/>
-      <c r="HK11" s="53"/>
-      <c r="HL11" s="53"/>
-      <c r="HM11" s="53"/>
-      <c r="HN11" s="53"/>
-      <c r="HO11" s="53"/>
-      <c r="HP11" s="53"/>
-      <c r="HQ11" s="53"/>
-      <c r="HR11" s="53"/>
-      <c r="HS11" s="53"/>
-      <c r="HT11" s="53"/>
-      <c r="HU11" s="53"/>
-      <c r="HV11" s="53"/>
-      <c r="HW11" s="53"/>
-      <c r="HX11" s="44" t="s">
+      <c r="EO11" s="34"/>
+      <c r="EP11" s="34"/>
+      <c r="EQ11" s="34"/>
+      <c r="ER11" s="34"/>
+      <c r="ES11" s="34"/>
+      <c r="ET11" s="34"/>
+      <c r="EU11" s="34"/>
+      <c r="EV11" s="34"/>
+      <c r="EW11" s="34"/>
+      <c r="EX11" s="34"/>
+      <c r="EY11" s="34"/>
+      <c r="EZ11" s="34"/>
+      <c r="FA11" s="34"/>
+      <c r="FB11" s="34"/>
+      <c r="FC11" s="34"/>
+      <c r="FD11" s="34"/>
+      <c r="FE11" s="34"/>
+      <c r="FF11" s="34"/>
+      <c r="FG11" s="34"/>
+      <c r="FH11" s="34"/>
+      <c r="FI11" s="34"/>
+      <c r="FJ11" s="34"/>
+      <c r="FK11" s="34"/>
+      <c r="FL11" s="34"/>
+      <c r="FM11" s="34"/>
+      <c r="FN11" s="34"/>
+      <c r="FO11" s="34"/>
+      <c r="FP11" s="34"/>
+      <c r="FQ11" s="34"/>
+      <c r="FR11" s="34"/>
+      <c r="FS11" s="34"/>
+      <c r="FT11" s="34"/>
+      <c r="FU11" s="34"/>
+      <c r="FV11" s="34"/>
+      <c r="FW11" s="34"/>
+      <c r="FX11" s="34"/>
+      <c r="FY11" s="34"/>
+      <c r="FZ11" s="34"/>
+      <c r="GA11" s="34"/>
+      <c r="GB11" s="34"/>
+      <c r="GC11" s="34"/>
+      <c r="GD11" s="34"/>
+      <c r="GE11" s="34"/>
+      <c r="GF11" s="34"/>
+      <c r="GG11" s="34"/>
+      <c r="GH11" s="34"/>
+      <c r="GI11" s="34"/>
+      <c r="GJ11" s="34"/>
+      <c r="GK11" s="34"/>
+      <c r="GL11" s="34"/>
+      <c r="GM11" s="34"/>
+      <c r="GN11" s="34"/>
+      <c r="GO11" s="34"/>
+      <c r="GP11" s="34"/>
+      <c r="GQ11" s="34"/>
+      <c r="GR11" s="34"/>
+      <c r="GS11" s="34"/>
+      <c r="GT11" s="34"/>
+      <c r="GU11" s="34"/>
+      <c r="GV11" s="34"/>
+      <c r="GW11" s="34"/>
+      <c r="GX11" s="34"/>
+      <c r="GY11" s="34"/>
+      <c r="GZ11" s="34"/>
+      <c r="HA11" s="34"/>
+      <c r="HB11" s="34"/>
+      <c r="HC11" s="34"/>
+      <c r="HD11" s="34"/>
+      <c r="HE11" s="34"/>
+      <c r="HF11" s="34"/>
+      <c r="HG11" s="34"/>
+      <c r="HH11" s="34"/>
+      <c r="HI11" s="34"/>
+      <c r="HJ11" s="34"/>
+      <c r="HK11" s="34"/>
+      <c r="HL11" s="34"/>
+      <c r="HM11" s="34"/>
+      <c r="HN11" s="34"/>
+      <c r="HO11" s="34"/>
+      <c r="HP11" s="34"/>
+      <c r="HQ11" s="34"/>
+      <c r="HR11" s="34"/>
+      <c r="HS11" s="34"/>
+      <c r="HT11" s="34"/>
+      <c r="HU11" s="34"/>
+      <c r="HV11" s="34"/>
+      <c r="HW11" s="34"/>
+      <c r="HX11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="HY11" s="55"/>
-      <c r="HZ11" s="55"/>
-      <c r="IA11" s="55"/>
-      <c r="IB11" s="55"/>
-      <c r="IC11" s="55"/>
-      <c r="ID11" s="55"/>
-      <c r="IE11" s="55"/>
-      <c r="IF11" s="55"/>
-      <c r="IG11" s="55"/>
-      <c r="IH11" s="55"/>
-      <c r="II11" s="55"/>
-      <c r="IJ11" s="55"/>
-      <c r="IK11" s="55"/>
-      <c r="IL11" s="55"/>
-      <c r="IM11" s="55"/>
-      <c r="IN11" s="55"/>
-      <c r="IO11" s="45"/>
-      <c r="IP11" s="53" t="s">
+      <c r="HY11" s="37"/>
+      <c r="HZ11" s="37"/>
+      <c r="IA11" s="37"/>
+      <c r="IB11" s="37"/>
+      <c r="IC11" s="37"/>
+      <c r="ID11" s="37"/>
+      <c r="IE11" s="37"/>
+      <c r="IF11" s="37"/>
+      <c r="IG11" s="37"/>
+      <c r="IH11" s="37"/>
+      <c r="II11" s="37"/>
+      <c r="IJ11" s="37"/>
+      <c r="IK11" s="37"/>
+      <c r="IL11" s="37"/>
+      <c r="IM11" s="37"/>
+      <c r="IN11" s="37"/>
+      <c r="IO11" s="32"/>
+      <c r="IP11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="IQ11" s="53"/>
-      <c r="IR11" s="53"/>
-      <c r="IS11" s="53"/>
-      <c r="IT11" s="53"/>
-      <c r="IU11" s="43"/>
-      <c r="IV11" s="43"/>
-      <c r="IW11" s="53" t="s">
+      <c r="IQ11" s="34"/>
+      <c r="IR11" s="34"/>
+      <c r="IS11" s="34"/>
+      <c r="IT11" s="34"/>
+      <c r="IU11" s="33"/>
+      <c r="IV11" s="33"/>
+      <c r="IW11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="IX11" s="53"/>
-      <c r="IY11" s="53"/>
-      <c r="IZ11" s="53"/>
-      <c r="JA11" s="53"/>
-      <c r="JB11" s="53"/>
-      <c r="JC11" s="53"/>
-      <c r="JD11" s="53"/>
-      <c r="JE11" s="53"/>
-      <c r="JF11" s="53"/>
-      <c r="JG11" s="53"/>
-      <c r="JH11" s="53"/>
-      <c r="JI11" s="53"/>
-      <c r="JJ11" s="53"/>
-      <c r="JK11" s="53"/>
-      <c r="JL11" s="53"/>
-      <c r="JM11" s="53"/>
-      <c r="JN11" s="53"/>
-      <c r="JO11" s="53"/>
-      <c r="JP11" s="53"/>
-      <c r="JQ11" s="53"/>
-      <c r="JR11" s="53"/>
-      <c r="JS11" s="53"/>
-      <c r="JT11" s="53"/>
-      <c r="JU11" s="53"/>
-      <c r="JV11" s="53"/>
-      <c r="JW11" s="53"/>
-      <c r="JX11" s="53"/>
-      <c r="JY11" s="53"/>
-      <c r="JZ11" s="53"/>
-      <c r="KA11" s="53"/>
-      <c r="KB11" s="53"/>
-      <c r="KC11" s="53"/>
-      <c r="KD11" s="53"/>
-      <c r="KE11" s="53"/>
-      <c r="KF11" s="53"/>
-      <c r="KG11" s="53"/>
-      <c r="KH11" s="53"/>
-      <c r="KI11" s="53"/>
-      <c r="KJ11" s="53"/>
-      <c r="KK11" s="53"/>
-      <c r="KL11" s="53"/>
-      <c r="KM11" s="53"/>
-      <c r="KN11" s="53"/>
-      <c r="KO11" s="53"/>
-      <c r="KP11" s="53"/>
-      <c r="KQ11" s="53"/>
-      <c r="KR11" s="53"/>
-      <c r="KS11" s="53"/>
-      <c r="KT11" s="53"/>
-      <c r="KU11" s="53"/>
-      <c r="KV11" s="53"/>
-      <c r="KW11" s="53"/>
-      <c r="KX11" s="53"/>
-      <c r="KY11" s="53"/>
-      <c r="KZ11" s="53"/>
-      <c r="LA11" s="53"/>
-      <c r="LB11" s="53"/>
-      <c r="LC11" s="53"/>
-      <c r="LD11" s="53"/>
-      <c r="LE11" s="53"/>
-      <c r="LF11" s="53"/>
-      <c r="LG11" s="53"/>
-      <c r="LH11" s="53"/>
-      <c r="LI11" s="43"/>
-      <c r="LJ11" s="43"/>
-      <c r="LK11" s="43"/>
-      <c r="LL11" s="43"/>
-      <c r="LM11" s="43"/>
-      <c r="LN11" s="43"/>
-      <c r="LO11" s="43"/>
-      <c r="LP11" s="43"/>
-      <c r="LQ11" s="43"/>
-      <c r="LR11" s="43"/>
-      <c r="LS11" s="43"/>
-      <c r="LT11" s="43"/>
-      <c r="LU11" s="43"/>
-      <c r="LV11" s="43"/>
-      <c r="LW11" s="43"/>
-      <c r="LX11" s="43"/>
-      <c r="LY11" s="43"/>
-      <c r="LZ11" s="43"/>
-      <c r="MA11" s="43"/>
-      <c r="MB11" s="43"/>
-      <c r="MC11" s="43"/>
-      <c r="MD11" s="43"/>
-      <c r="ME11" s="43"/>
-      <c r="MF11" s="43"/>
-      <c r="MG11" s="43"/>
-      <c r="MH11" s="43"/>
-      <c r="MI11" s="43"/>
-      <c r="MJ11" s="43"/>
-      <c r="MK11" s="43"/>
-      <c r="ML11" s="43"/>
-      <c r="MM11" s="43"/>
-      <c r="MN11" s="43"/>
-      <c r="MO11" s="43"/>
-      <c r="MP11" s="43"/>
-      <c r="MQ11" s="43"/>
-      <c r="MR11" s="43"/>
-      <c r="MS11" s="43"/>
-      <c r="MT11" s="43"/>
-      <c r="MU11" s="43"/>
-      <c r="MV11" s="43"/>
-      <c r="MW11" s="43"/>
-      <c r="MX11" s="43"/>
-      <c r="MY11" s="43"/>
-      <c r="MZ11" s="43"/>
-      <c r="NA11" s="43"/>
-      <c r="NB11" s="43"/>
-      <c r="NC11" s="43"/>
-      <c r="ND11" s="43"/>
-      <c r="NE11" s="43"/>
-      <c r="NF11" s="43"/>
-      <c r="NG11" s="43"/>
-      <c r="NH11" s="43"/>
-      <c r="NI11" s="43"/>
-      <c r="NJ11" s="43"/>
+      <c r="IX11" s="34"/>
+      <c r="IY11" s="34"/>
+      <c r="IZ11" s="34"/>
+      <c r="JA11" s="34"/>
+      <c r="JB11" s="34"/>
+      <c r="JC11" s="34"/>
+      <c r="JD11" s="34"/>
+      <c r="JE11" s="34"/>
+      <c r="JF11" s="34"/>
+      <c r="JG11" s="34"/>
+      <c r="JH11" s="34"/>
+      <c r="JI11" s="34"/>
+      <c r="JJ11" s="34"/>
+      <c r="JK11" s="34"/>
+      <c r="JL11" s="34"/>
+      <c r="JM11" s="34"/>
+      <c r="JN11" s="34"/>
+      <c r="JO11" s="34"/>
+      <c r="JP11" s="34"/>
+      <c r="JQ11" s="34"/>
+      <c r="JR11" s="34"/>
+      <c r="JS11" s="34"/>
+      <c r="JT11" s="34"/>
+      <c r="JU11" s="34"/>
+      <c r="JV11" s="34"/>
+      <c r="JW11" s="34"/>
+      <c r="JX11" s="34"/>
+      <c r="JY11" s="34"/>
+      <c r="JZ11" s="34"/>
+      <c r="KA11" s="34"/>
+      <c r="KB11" s="34"/>
+      <c r="KC11" s="34"/>
+      <c r="KD11" s="34"/>
+      <c r="KE11" s="34"/>
+      <c r="KF11" s="34"/>
+      <c r="KG11" s="34"/>
+      <c r="KH11" s="34"/>
+      <c r="KI11" s="34"/>
+      <c r="KJ11" s="34"/>
+      <c r="KK11" s="34"/>
+      <c r="KL11" s="34"/>
+      <c r="KM11" s="34"/>
+      <c r="KN11" s="34"/>
+      <c r="KO11" s="34"/>
+      <c r="KP11" s="34"/>
+      <c r="KQ11" s="34"/>
+      <c r="KR11" s="34"/>
+      <c r="KS11" s="34"/>
+      <c r="KT11" s="34"/>
+      <c r="KU11" s="34"/>
+      <c r="KV11" s="34"/>
+      <c r="KW11" s="34"/>
+      <c r="KX11" s="34"/>
+      <c r="KY11" s="34"/>
+      <c r="KZ11" s="34"/>
+      <c r="LA11" s="34"/>
+      <c r="LB11" s="34"/>
+      <c r="LC11" s="34"/>
+      <c r="LD11" s="34"/>
+      <c r="LE11" s="34"/>
+      <c r="LF11" s="34"/>
+      <c r="LG11" s="34"/>
+      <c r="LH11" s="34"/>
+      <c r="LI11" s="33"/>
+      <c r="LJ11" s="33"/>
+      <c r="LK11" s="33"/>
+      <c r="LL11" s="33"/>
+      <c r="LM11" s="33"/>
+      <c r="LN11" s="33"/>
+      <c r="LO11" s="33"/>
+      <c r="LP11" s="33"/>
+      <c r="LQ11" s="33"/>
+      <c r="LR11" s="33"/>
+      <c r="LS11" s="33"/>
+      <c r="LT11" s="33"/>
+      <c r="LU11" s="33"/>
+      <c r="LV11" s="33"/>
+      <c r="LW11" s="33"/>
+      <c r="LX11" s="33"/>
+      <c r="LY11" s="33"/>
+      <c r="LZ11" s="33"/>
+      <c r="MA11" s="33"/>
+      <c r="MB11" s="33"/>
+      <c r="MC11" s="33"/>
+      <c r="MD11" s="33"/>
+      <c r="ME11" s="33"/>
+      <c r="MF11" s="33"/>
+      <c r="MG11" s="33"/>
+      <c r="MH11" s="33"/>
+      <c r="MI11" s="33"/>
+      <c r="MJ11" s="33"/>
+      <c r="MK11" s="33"/>
+      <c r="ML11" s="33"/>
+      <c r="MM11" s="33"/>
+      <c r="MN11" s="33"/>
+      <c r="MO11" s="33"/>
+      <c r="MP11" s="33"/>
+      <c r="MQ11" s="33"/>
+      <c r="MR11" s="33"/>
+      <c r="MS11" s="33"/>
+      <c r="MT11" s="33"/>
+      <c r="MU11" s="33"/>
+      <c r="MV11" s="33"/>
+      <c r="MW11" s="33"/>
+      <c r="MX11" s="33"/>
+      <c r="MY11" s="33"/>
+      <c r="MZ11" s="33"/>
+      <c r="NA11" s="33"/>
+      <c r="NB11" s="33"/>
+      <c r="NC11" s="33"/>
+      <c r="ND11" s="33"/>
+      <c r="NE11" s="33"/>
+      <c r="NF11" s="33"/>
+      <c r="NG11" s="33"/>
+      <c r="NH11" s="33"/>
+      <c r="NI11" s="33"/>
+      <c r="NJ11" s="33"/>
       <c r="NK11" s="15"/>
       <c r="NL11" s="15"/>
       <c r="NM11" s="15"/>
@@ -3880,554 +3924,554 @@
       <c r="NX11" s="15"/>
     </row>
     <row r="12" spans="1:388" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="66" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="43" t="s">
+      <c r="J12" s="36"/>
+      <c r="K12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="37" t="s">
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="37" t="s">
+      <c r="P12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" s="37" t="s">
+      <c r="Q12" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="37" t="s">
+      <c r="R12" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="S12" s="46" t="s">
+      <c r="S12" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="T12" s="37" t="s">
+      <c r="T12" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="U12" s="37" t="s">
+      <c r="U12" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="V12" s="37" t="s">
+      <c r="V12" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="W12" s="37" t="s">
+      <c r="W12" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="X12" s="37" t="s">
+      <c r="X12" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="37" t="s">
+      <c r="Y12" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="Z12" s="37" t="s">
+      <c r="Z12" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="AA12" s="37" t="s">
+      <c r="AA12" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="AB12" s="37" t="s">
+      <c r="AB12" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="AC12" s="37" t="s">
+      <c r="AC12" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="AD12" s="43" t="s">
+      <c r="AD12" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43" t="s">
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43" t="s">
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="43" t="s">
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="43"/>
-      <c r="AP12" s="43"/>
-      <c r="AQ12" s="43"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="43"/>
-      <c r="AT12" s="43" t="s">
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="33"/>
+      <c r="AR12" s="33"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="AU12" s="43"/>
-      <c r="AV12" s="43"/>
-      <c r="AW12" s="43"/>
-      <c r="AX12" s="43"/>
-      <c r="AY12" s="43"/>
-      <c r="AZ12" s="43"/>
-      <c r="BA12" s="43"/>
-      <c r="BB12" s="43"/>
-      <c r="BC12" s="43"/>
-      <c r="BD12" s="43" t="s">
+      <c r="AU12" s="33"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="33"/>
+      <c r="BB12" s="33"/>
+      <c r="BC12" s="33"/>
+      <c r="BD12" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="BE12" s="43"/>
-      <c r="BF12" s="43"/>
-      <c r="BG12" s="43"/>
-      <c r="BH12" s="43"/>
-      <c r="BI12" s="43"/>
-      <c r="BJ12" s="43"/>
-      <c r="BK12" s="43"/>
-      <c r="BL12" s="43"/>
-      <c r="BM12" s="43"/>
-      <c r="BN12" s="43" t="s">
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="33"/>
+      <c r="BG12" s="33"/>
+      <c r="BH12" s="33"/>
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="33"/>
+      <c r="BK12" s="33"/>
+      <c r="BL12" s="33"/>
+      <c r="BM12" s="33"/>
+      <c r="BN12" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="BO12" s="43"/>
-      <c r="BP12" s="43"/>
-      <c r="BQ12" s="43" t="s">
+      <c r="BO12" s="33"/>
+      <c r="BP12" s="33"/>
+      <c r="BQ12" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="BR12" s="43"/>
-      <c r="BS12" s="43"/>
-      <c r="BT12" s="43"/>
-      <c r="BU12" s="43" t="s">
+      <c r="BR12" s="33"/>
+      <c r="BS12" s="33"/>
+      <c r="BT12" s="33"/>
+      <c r="BU12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="BV12" s="43"/>
-      <c r="BW12" s="43"/>
-      <c r="BX12" s="43"/>
-      <c r="BY12" s="31" t="s">
+      <c r="BV12" s="33"/>
+      <c r="BW12" s="33"/>
+      <c r="BX12" s="33"/>
+      <c r="BY12" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="BZ12" s="33"/>
-      <c r="CA12" s="31" t="s">
+      <c r="BZ12" s="40"/>
+      <c r="CA12" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="CB12" s="33"/>
-      <c r="CC12" s="31" t="s">
+      <c r="CB12" s="40"/>
+      <c r="CC12" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="CD12" s="33"/>
-      <c r="CE12" s="31" t="s">
+      <c r="CD12" s="40"/>
+      <c r="CE12" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="CF12" s="33"/>
-      <c r="CG12" s="43" t="s">
+      <c r="CF12" s="40"/>
+      <c r="CG12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="CH12" s="43"/>
-      <c r="CI12" s="43"/>
-      <c r="CJ12" s="43"/>
-      <c r="CK12" s="43"/>
-      <c r="CL12" s="31" t="s">
+      <c r="CH12" s="33"/>
+      <c r="CI12" s="33"/>
+      <c r="CJ12" s="33"/>
+      <c r="CK12" s="33"/>
+      <c r="CL12" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="CM12" s="33"/>
-      <c r="CN12" s="31" t="s">
+      <c r="CM12" s="40"/>
+      <c r="CN12" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="CO12" s="33"/>
-      <c r="CP12" s="31" t="s">
+      <c r="CO12" s="40"/>
+      <c r="CP12" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="CQ12" s="33"/>
-      <c r="CR12" s="31" t="s">
+      <c r="CQ12" s="40"/>
+      <c r="CR12" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="CS12" s="33"/>
-      <c r="CT12" s="31" t="s">
+      <c r="CS12" s="40"/>
+      <c r="CT12" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="CU12" s="33"/>
-      <c r="CV12" s="31" t="s">
+      <c r="CU12" s="40"/>
+      <c r="CV12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="CW12" s="33"/>
-      <c r="CX12" s="43" t="s">
+      <c r="CW12" s="40"/>
+      <c r="CX12" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="CY12" s="43"/>
-      <c r="CZ12" s="43"/>
-      <c r="DA12" s="43"/>
-      <c r="DB12" s="56" t="s">
+      <c r="CY12" s="33"/>
+      <c r="CZ12" s="33"/>
+      <c r="DA12" s="33"/>
+      <c r="DB12" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="DC12" s="57"/>
-      <c r="DD12" s="58"/>
-      <c r="DE12" s="31" t="s">
+      <c r="DC12" s="51"/>
+      <c r="DD12" s="52"/>
+      <c r="DE12" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="DF12" s="32"/>
-      <c r="DG12" s="32"/>
-      <c r="DH12" s="32"/>
-      <c r="DI12" s="32"/>
-      <c r="DJ12" s="32"/>
-      <c r="DK12" s="32"/>
-      <c r="DL12" s="33"/>
-      <c r="DM12" s="31" t="s">
+      <c r="DF12" s="39"/>
+      <c r="DG12" s="39"/>
+      <c r="DH12" s="39"/>
+      <c r="DI12" s="39"/>
+      <c r="DJ12" s="39"/>
+      <c r="DK12" s="39"/>
+      <c r="DL12" s="40"/>
+      <c r="DM12" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="DN12" s="33"/>
-      <c r="DO12" s="43" t="s">
+      <c r="DN12" s="40"/>
+      <c r="DO12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="DP12" s="43"/>
-      <c r="DQ12" s="43"/>
-      <c r="DR12" s="31" t="s">
+      <c r="DP12" s="33"/>
+      <c r="DQ12" s="33"/>
+      <c r="DR12" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="DS12" s="32"/>
-      <c r="DT12" s="32"/>
-      <c r="DU12" s="32"/>
-      <c r="DV12" s="32"/>
-      <c r="DW12" s="32"/>
-      <c r="DX12" s="32"/>
-      <c r="DY12" s="33"/>
-      <c r="DZ12" s="31" t="s">
+      <c r="DS12" s="39"/>
+      <c r="DT12" s="39"/>
+      <c r="DU12" s="39"/>
+      <c r="DV12" s="39"/>
+      <c r="DW12" s="39"/>
+      <c r="DX12" s="39"/>
+      <c r="DY12" s="40"/>
+      <c r="DZ12" s="38" t="s">
         <v>518</v>
       </c>
-      <c r="EA12" s="32"/>
-      <c r="EB12" s="32"/>
-      <c r="EC12" s="32"/>
-      <c r="ED12" s="32"/>
-      <c r="EE12" s="32"/>
-      <c r="EF12" s="32"/>
-      <c r="EG12" s="32"/>
-      <c r="EH12" s="32"/>
-      <c r="EI12" s="32"/>
-      <c r="EJ12" s="32"/>
-      <c r="EK12" s="32"/>
-      <c r="EL12" s="32"/>
-      <c r="EM12" s="33"/>
-      <c r="EN12" s="31" t="s">
+      <c r="EA12" s="39"/>
+      <c r="EB12" s="39"/>
+      <c r="EC12" s="39"/>
+      <c r="ED12" s="39"/>
+      <c r="EE12" s="39"/>
+      <c r="EF12" s="39"/>
+      <c r="EG12" s="39"/>
+      <c r="EH12" s="39"/>
+      <c r="EI12" s="39"/>
+      <c r="EJ12" s="39"/>
+      <c r="EK12" s="39"/>
+      <c r="EL12" s="39"/>
+      <c r="EM12" s="40"/>
+      <c r="EN12" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="EO12" s="32"/>
-      <c r="EP12" s="33"/>
-      <c r="EQ12" s="31" t="s">
+      <c r="EO12" s="39"/>
+      <c r="EP12" s="40"/>
+      <c r="EQ12" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="ER12" s="32"/>
-      <c r="ES12" s="33"/>
-      <c r="ET12" s="31" t="s">
+      <c r="ER12" s="39"/>
+      <c r="ES12" s="40"/>
+      <c r="ET12" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="EU12" s="32"/>
-      <c r="EV12" s="33"/>
-      <c r="EW12" s="31" t="s">
+      <c r="EU12" s="39"/>
+      <c r="EV12" s="40"/>
+      <c r="EW12" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="EX12" s="32"/>
-      <c r="EY12" s="33"/>
-      <c r="EZ12" s="31" t="s">
+      <c r="EX12" s="39"/>
+      <c r="EY12" s="40"/>
+      <c r="EZ12" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="FA12" s="32"/>
-      <c r="FB12" s="33"/>
-      <c r="FC12" s="31" t="s">
+      <c r="FA12" s="39"/>
+      <c r="FB12" s="40"/>
+      <c r="FC12" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="FD12" s="32"/>
-      <c r="FE12" s="33"/>
-      <c r="FF12" s="31" t="s">
+      <c r="FD12" s="39"/>
+      <c r="FE12" s="40"/>
+      <c r="FF12" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="FG12" s="32"/>
-      <c r="FH12" s="33"/>
-      <c r="FI12" s="31" t="s">
+      <c r="FG12" s="39"/>
+      <c r="FH12" s="40"/>
+      <c r="FI12" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="FJ12" s="32"/>
-      <c r="FK12" s="33"/>
-      <c r="FL12" s="31" t="s">
+      <c r="FJ12" s="39"/>
+      <c r="FK12" s="40"/>
+      <c r="FL12" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="FM12" s="32"/>
-      <c r="FN12" s="33"/>
-      <c r="FO12" s="31" t="s">
+      <c r="FM12" s="39"/>
+      <c r="FN12" s="40"/>
+      <c r="FO12" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="FP12" s="32"/>
-      <c r="FQ12" s="33"/>
-      <c r="FR12" s="31" t="s">
+      <c r="FP12" s="39"/>
+      <c r="FQ12" s="40"/>
+      <c r="FR12" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="FS12" s="32"/>
-      <c r="FT12" s="33"/>
-      <c r="FU12" s="31" t="s">
+      <c r="FS12" s="39"/>
+      <c r="FT12" s="40"/>
+      <c r="FU12" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="FV12" s="32"/>
-      <c r="FW12" s="33"/>
-      <c r="FX12" s="31" t="s">
+      <c r="FV12" s="39"/>
+      <c r="FW12" s="40"/>
+      <c r="FX12" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="FY12" s="32"/>
-      <c r="FZ12" s="33"/>
-      <c r="GA12" s="31" t="s">
+      <c r="FY12" s="39"/>
+      <c r="FZ12" s="40"/>
+      <c r="GA12" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="GB12" s="32"/>
-      <c r="GC12" s="33"/>
-      <c r="GD12" s="31" t="s">
+      <c r="GB12" s="39"/>
+      <c r="GC12" s="40"/>
+      <c r="GD12" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="GE12" s="32"/>
-      <c r="GF12" s="33"/>
-      <c r="GG12" s="31" t="s">
+      <c r="GE12" s="39"/>
+      <c r="GF12" s="40"/>
+      <c r="GG12" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="GH12" s="32"/>
-      <c r="GI12" s="33"/>
-      <c r="GJ12" s="31" t="s">
+      <c r="GH12" s="39"/>
+      <c r="GI12" s="40"/>
+      <c r="GJ12" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="GK12" s="32"/>
-      <c r="GL12" s="33"/>
-      <c r="GM12" s="31" t="s">
+      <c r="GK12" s="39"/>
+      <c r="GL12" s="40"/>
+      <c r="GM12" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="GN12" s="32"/>
-      <c r="GO12" s="33"/>
-      <c r="GP12" s="31" t="s">
+      <c r="GN12" s="39"/>
+      <c r="GO12" s="40"/>
+      <c r="GP12" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="GQ12" s="32"/>
-      <c r="GR12" s="32"/>
-      <c r="GS12" s="33"/>
-      <c r="GT12" s="31" t="s">
+      <c r="GQ12" s="39"/>
+      <c r="GR12" s="39"/>
+      <c r="GS12" s="40"/>
+      <c r="GT12" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="GU12" s="32"/>
-      <c r="GV12" s="32"/>
-      <c r="GW12" s="33"/>
-      <c r="GX12" s="31" t="s">
+      <c r="GU12" s="39"/>
+      <c r="GV12" s="39"/>
+      <c r="GW12" s="40"/>
+      <c r="GX12" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="GY12" s="32"/>
-      <c r="GZ12" s="32"/>
-      <c r="HA12" s="33"/>
-      <c r="HB12" s="31" t="s">
+      <c r="GY12" s="39"/>
+      <c r="GZ12" s="39"/>
+      <c r="HA12" s="40"/>
+      <c r="HB12" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="HC12" s="32"/>
-      <c r="HD12" s="32"/>
-      <c r="HE12" s="33"/>
-      <c r="HF12" s="31" t="s">
+      <c r="HC12" s="39"/>
+      <c r="HD12" s="39"/>
+      <c r="HE12" s="40"/>
+      <c r="HF12" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="HG12" s="32"/>
-      <c r="HH12" s="32"/>
-      <c r="HI12" s="33"/>
-      <c r="HJ12" s="31" t="s">
+      <c r="HG12" s="39"/>
+      <c r="HH12" s="39"/>
+      <c r="HI12" s="40"/>
+      <c r="HJ12" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="HK12" s="32"/>
-      <c r="HL12" s="32"/>
-      <c r="HM12" s="33"/>
-      <c r="HN12" s="31" t="s">
+      <c r="HK12" s="39"/>
+      <c r="HL12" s="39"/>
+      <c r="HM12" s="40"/>
+      <c r="HN12" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="HO12" s="32"/>
-      <c r="HP12" s="32"/>
-      <c r="HQ12" s="33"/>
-      <c r="HR12" s="31" t="s">
+      <c r="HO12" s="39"/>
+      <c r="HP12" s="39"/>
+      <c r="HQ12" s="40"/>
+      <c r="HR12" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="HS12" s="32"/>
-      <c r="HT12" s="32"/>
-      <c r="HU12" s="33"/>
-      <c r="HV12" s="37" t="s">
+      <c r="HS12" s="39"/>
+      <c r="HT12" s="39"/>
+      <c r="HU12" s="40"/>
+      <c r="HV12" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="HW12" s="37" t="s">
+      <c r="HW12" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="HX12" s="44" t="s">
+      <c r="HX12" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="HY12" s="55"/>
-      <c r="HZ12" s="55"/>
-      <c r="IA12" s="55"/>
-      <c r="IB12" s="55"/>
-      <c r="IC12" s="55"/>
-      <c r="ID12" s="55"/>
-      <c r="IE12" s="55"/>
-      <c r="IF12" s="55"/>
-      <c r="IG12" s="55"/>
-      <c r="IH12" s="55"/>
-      <c r="II12" s="55"/>
-      <c r="IJ12" s="55"/>
-      <c r="IK12" s="55"/>
-      <c r="IL12" s="55"/>
-      <c r="IM12" s="55"/>
-      <c r="IN12" s="55"/>
-      <c r="IO12" s="45"/>
-      <c r="IP12" s="53" t="s">
+      <c r="HY12" s="37"/>
+      <c r="HZ12" s="37"/>
+      <c r="IA12" s="37"/>
+      <c r="IB12" s="37"/>
+      <c r="IC12" s="37"/>
+      <c r="ID12" s="37"/>
+      <c r="IE12" s="37"/>
+      <c r="IF12" s="37"/>
+      <c r="IG12" s="37"/>
+      <c r="IH12" s="37"/>
+      <c r="II12" s="37"/>
+      <c r="IJ12" s="37"/>
+      <c r="IK12" s="37"/>
+      <c r="IL12" s="37"/>
+      <c r="IM12" s="37"/>
+      <c r="IN12" s="37"/>
+      <c r="IO12" s="32"/>
+      <c r="IP12" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="IQ12" s="53"/>
-      <c r="IR12" s="53"/>
-      <c r="IS12" s="53"/>
-      <c r="IT12" s="53"/>
-      <c r="IU12" s="43" t="s">
+      <c r="IQ12" s="34"/>
+      <c r="IR12" s="34"/>
+      <c r="IS12" s="34"/>
+      <c r="IT12" s="34"/>
+      <c r="IU12" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="IV12" s="43"/>
-      <c r="IW12" s="53" t="s">
+      <c r="IV12" s="33"/>
+      <c r="IW12" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="IX12" s="53"/>
-      <c r="IY12" s="53"/>
-      <c r="IZ12" s="53"/>
-      <c r="JA12" s="53"/>
-      <c r="JB12" s="53"/>
-      <c r="JC12" s="53"/>
-      <c r="JD12" s="53"/>
-      <c r="JE12" s="53"/>
-      <c r="JF12" s="53"/>
-      <c r="JG12" s="53"/>
-      <c r="JH12" s="43" t="s">
+      <c r="IX12" s="34"/>
+      <c r="IY12" s="34"/>
+      <c r="IZ12" s="34"/>
+      <c r="JA12" s="34"/>
+      <c r="JB12" s="34"/>
+      <c r="JC12" s="34"/>
+      <c r="JD12" s="34"/>
+      <c r="JE12" s="34"/>
+      <c r="JF12" s="34"/>
+      <c r="JG12" s="34"/>
+      <c r="JH12" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="JI12" s="43"/>
-      <c r="JJ12" s="43"/>
-      <c r="JK12" s="43"/>
-      <c r="JL12" s="43" t="s">
+      <c r="JI12" s="33"/>
+      <c r="JJ12" s="33"/>
+      <c r="JK12" s="33"/>
+      <c r="JL12" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="JM12" s="43"/>
-      <c r="JN12" s="43"/>
-      <c r="JO12" s="43"/>
-      <c r="JP12" s="43"/>
-      <c r="JQ12" s="43"/>
-      <c r="JR12" s="43"/>
-      <c r="JS12" s="43"/>
-      <c r="JT12" s="43"/>
-      <c r="JU12" s="43"/>
-      <c r="JV12" s="43"/>
-      <c r="JW12" s="43"/>
-      <c r="JX12" s="43"/>
-      <c r="JY12" s="43"/>
-      <c r="JZ12" s="43"/>
-      <c r="KA12" s="43"/>
-      <c r="KB12" s="43" t="s">
+      <c r="JM12" s="33"/>
+      <c r="JN12" s="33"/>
+      <c r="JO12" s="33"/>
+      <c r="JP12" s="33"/>
+      <c r="JQ12" s="33"/>
+      <c r="JR12" s="33"/>
+      <c r="JS12" s="33"/>
+      <c r="JT12" s="33"/>
+      <c r="JU12" s="33"/>
+      <c r="JV12" s="33"/>
+      <c r="JW12" s="33"/>
+      <c r="JX12" s="33"/>
+      <c r="JY12" s="33"/>
+      <c r="JZ12" s="33"/>
+      <c r="KA12" s="33"/>
+      <c r="KB12" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="KC12" s="43"/>
-      <c r="KD12" s="43"/>
-      <c r="KE12" s="43"/>
-      <c r="KF12" s="43"/>
-      <c r="KG12" s="43"/>
-      <c r="KH12" s="43"/>
-      <c r="KI12" s="43"/>
-      <c r="KJ12" s="43"/>
-      <c r="KK12" s="43"/>
-      <c r="KL12" s="43"/>
-      <c r="KM12" s="43"/>
-      <c r="KN12" s="43"/>
-      <c r="KO12" s="43"/>
-      <c r="KP12" s="43"/>
-      <c r="KQ12" s="43"/>
-      <c r="KR12" s="43" t="s">
+      <c r="KC12" s="33"/>
+      <c r="KD12" s="33"/>
+      <c r="KE12" s="33"/>
+      <c r="KF12" s="33"/>
+      <c r="KG12" s="33"/>
+      <c r="KH12" s="33"/>
+      <c r="KI12" s="33"/>
+      <c r="KJ12" s="33"/>
+      <c r="KK12" s="33"/>
+      <c r="KL12" s="33"/>
+      <c r="KM12" s="33"/>
+      <c r="KN12" s="33"/>
+      <c r="KO12" s="33"/>
+      <c r="KP12" s="33"/>
+      <c r="KQ12" s="33"/>
+      <c r="KR12" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="KS12" s="43"/>
-      <c r="KT12" s="43"/>
-      <c r="KU12" s="43"/>
-      <c r="KV12" s="43"/>
-      <c r="KW12" s="43"/>
-      <c r="KX12" s="43"/>
-      <c r="KY12" s="43"/>
-      <c r="KZ12" s="43"/>
-      <c r="LA12" s="43"/>
-      <c r="LB12" s="43"/>
-      <c r="LC12" s="43"/>
-      <c r="LD12" s="43"/>
-      <c r="LE12" s="43"/>
-      <c r="LF12" s="43"/>
-      <c r="LG12" s="43"/>
-      <c r="LH12" s="43"/>
-      <c r="LI12" s="43" t="s">
+      <c r="KS12" s="33"/>
+      <c r="KT12" s="33"/>
+      <c r="KU12" s="33"/>
+      <c r="KV12" s="33"/>
+      <c r="KW12" s="33"/>
+      <c r="KX12" s="33"/>
+      <c r="KY12" s="33"/>
+      <c r="KZ12" s="33"/>
+      <c r="LA12" s="33"/>
+      <c r="LB12" s="33"/>
+      <c r="LC12" s="33"/>
+      <c r="LD12" s="33"/>
+      <c r="LE12" s="33"/>
+      <c r="LF12" s="33"/>
+      <c r="LG12" s="33"/>
+      <c r="LH12" s="33"/>
+      <c r="LI12" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="LJ12" s="43"/>
-      <c r="LK12" s="43"/>
-      <c r="LL12" s="43"/>
-      <c r="LM12" s="43"/>
-      <c r="LN12" s="43"/>
-      <c r="LO12" s="43"/>
-      <c r="LP12" s="43"/>
-      <c r="LQ12" s="43"/>
-      <c r="LR12" s="43"/>
-      <c r="LS12" s="43" t="s">
+      <c r="LJ12" s="33"/>
+      <c r="LK12" s="33"/>
+      <c r="LL12" s="33"/>
+      <c r="LM12" s="33"/>
+      <c r="LN12" s="33"/>
+      <c r="LO12" s="33"/>
+      <c r="LP12" s="33"/>
+      <c r="LQ12" s="33"/>
+      <c r="LR12" s="33"/>
+      <c r="LS12" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="LT12" s="43"/>
-      <c r="LU12" s="43"/>
-      <c r="LV12" s="43"/>
-      <c r="LW12" s="43"/>
-      <c r="LX12" s="43" t="s">
+      <c r="LT12" s="33"/>
+      <c r="LU12" s="33"/>
+      <c r="LV12" s="33"/>
+      <c r="LW12" s="33"/>
+      <c r="LX12" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="LY12" s="43"/>
-      <c r="LZ12" s="43"/>
-      <c r="MA12" s="43"/>
-      <c r="MB12" s="43"/>
-      <c r="MC12" s="43"/>
-      <c r="MD12" s="43"/>
-      <c r="ME12" s="43" t="s">
+      <c r="LY12" s="33"/>
+      <c r="LZ12" s="33"/>
+      <c r="MA12" s="33"/>
+      <c r="MB12" s="33"/>
+      <c r="MC12" s="33"/>
+      <c r="MD12" s="33"/>
+      <c r="ME12" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="MF12" s="43"/>
-      <c r="MG12" s="43"/>
-      <c r="MH12" s="43"/>
-      <c r="MI12" s="43"/>
-      <c r="MJ12" s="43"/>
-      <c r="MK12" s="43"/>
-      <c r="ML12" s="43"/>
-      <c r="MM12" s="43" t="s">
+      <c r="MF12" s="33"/>
+      <c r="MG12" s="33"/>
+      <c r="MH12" s="33"/>
+      <c r="MI12" s="33"/>
+      <c r="MJ12" s="33"/>
+      <c r="MK12" s="33"/>
+      <c r="ML12" s="33"/>
+      <c r="MM12" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="MN12" s="43"/>
-      <c r="MO12" s="43"/>
-      <c r="MP12" s="43"/>
-      <c r="MQ12" s="43"/>
-      <c r="MR12" s="43"/>
-      <c r="MS12" s="43"/>
-      <c r="MT12" s="43"/>
-      <c r="MU12" s="43"/>
-      <c r="MV12" s="43"/>
-      <c r="MW12" s="43"/>
-      <c r="MX12" s="43"/>
-      <c r="MY12" s="43"/>
-      <c r="MZ12" s="43"/>
-      <c r="NA12" s="43"/>
-      <c r="NB12" s="43"/>
-      <c r="NC12" s="43"/>
-      <c r="ND12" s="43"/>
-      <c r="NE12" s="43"/>
-      <c r="NF12" s="43"/>
-      <c r="NG12" s="43"/>
-      <c r="NH12" s="43"/>
-      <c r="NI12" s="43"/>
-      <c r="NJ12" s="43"/>
+      <c r="MN12" s="33"/>
+      <c r="MO12" s="33"/>
+      <c r="MP12" s="33"/>
+      <c r="MQ12" s="33"/>
+      <c r="MR12" s="33"/>
+      <c r="MS12" s="33"/>
+      <c r="MT12" s="33"/>
+      <c r="MU12" s="33"/>
+      <c r="MV12" s="33"/>
+      <c r="MW12" s="33"/>
+      <c r="MX12" s="33"/>
+      <c r="MY12" s="33"/>
+      <c r="MZ12" s="33"/>
+      <c r="NA12" s="33"/>
+      <c r="NB12" s="33"/>
+      <c r="NC12" s="33"/>
+      <c r="ND12" s="33"/>
+      <c r="NE12" s="33"/>
+      <c r="NF12" s="33"/>
+      <c r="NG12" s="33"/>
+      <c r="NH12" s="33"/>
+      <c r="NI12" s="33"/>
+      <c r="NJ12" s="33"/>
       <c r="NK12" s="5"/>
       <c r="NL12" s="5"/>
       <c r="NM12" s="5"/>
@@ -4444,638 +4488,638 @@
       <c r="NX12" s="5"/>
     </row>
     <row r="13" spans="1:388" s="6" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="37" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="37" t="s">
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="AE13" s="37" t="s">
+      <c r="AE13" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="AF13" s="37" t="s">
+      <c r="AF13" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="AG13" s="37" t="s">
+      <c r="AG13" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="AH13" s="37" t="s">
+      <c r="AH13" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="AI13" s="37" t="s">
+      <c r="AI13" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="AJ13" s="37" t="s">
+      <c r="AJ13" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="AK13" s="37" t="s">
+      <c r="AK13" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AL13" s="37" t="s">
+      <c r="AL13" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="AM13" s="37" t="s">
+      <c r="AM13" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="AN13" s="37" t="s">
+      <c r="AN13" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="AO13" s="37" t="s">
+      <c r="AO13" s="48" t="s">
         <v>425</v>
       </c>
-      <c r="AP13" s="37" t="s">
+      <c r="AP13" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="AQ13" s="37" t="s">
+      <c r="AQ13" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AR13" s="37" t="s">
+      <c r="AR13" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="AS13" s="37" t="s">
+      <c r="AS13" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="AT13" s="37" t="s">
+      <c r="AT13" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AU13" s="37" t="s">
+      <c r="AU13" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AV13" s="37" t="s">
+      <c r="AV13" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AW13" s="37" t="s">
+      <c r="AW13" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="AX13" s="37" t="s">
+      <c r="AX13" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AY13" s="37" t="s">
+      <c r="AY13" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="AZ13" s="37" t="s">
+      <c r="AZ13" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="BA13" s="37" t="s">
+      <c r="BA13" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="BB13" s="37" t="s">
+      <c r="BB13" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="BC13" s="37" t="s">
+      <c r="BC13" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="BD13" s="37" t="s">
+      <c r="BD13" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="BE13" s="37" t="s">
+      <c r="BE13" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="BF13" s="37" t="s">
+      <c r="BF13" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="BG13" s="37" t="s">
+      <c r="BG13" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="BH13" s="37" t="s">
+      <c r="BH13" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="BI13" s="37" t="s">
+      <c r="BI13" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="BJ13" s="37" t="s">
+      <c r="BJ13" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="BK13" s="37" t="s">
+      <c r="BK13" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="BL13" s="37" t="s">
+      <c r="BL13" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="BM13" s="37" t="s">
+      <c r="BM13" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="BN13" s="37" t="s">
+      <c r="BN13" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="BO13" s="37" t="s">
+      <c r="BO13" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="BP13" s="37" t="s">
+      <c r="BP13" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="BQ13" s="37" t="s">
+      <c r="BQ13" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="BR13" s="37" t="s">
+      <c r="BR13" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="BS13" s="37" t="s">
+      <c r="BS13" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="BT13" s="37" t="s">
+      <c r="BT13" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="BU13" s="62" t="s">
+      <c r="BU13" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="BV13" s="62"/>
-      <c r="BW13" s="62" t="s">
+      <c r="BV13" s="44"/>
+      <c r="BW13" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="BX13" s="62"/>
-      <c r="BY13" s="34"/>
-      <c r="BZ13" s="36"/>
-      <c r="CA13" s="34"/>
-      <c r="CB13" s="36"/>
-      <c r="CC13" s="34"/>
-      <c r="CD13" s="36"/>
-      <c r="CE13" s="34"/>
-      <c r="CF13" s="36"/>
-      <c r="CG13" s="51" t="s">
+      <c r="BX13" s="44"/>
+      <c r="BY13" s="41"/>
+      <c r="BZ13" s="43"/>
+      <c r="CA13" s="41"/>
+      <c r="CB13" s="43"/>
+      <c r="CC13" s="41"/>
+      <c r="CD13" s="43"/>
+      <c r="CE13" s="41"/>
+      <c r="CF13" s="43"/>
+      <c r="CG13" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="CH13" s="63"/>
-      <c r="CI13" s="63"/>
-      <c r="CJ13" s="52"/>
-      <c r="CK13" s="37" t="s">
+      <c r="CH13" s="46"/>
+      <c r="CI13" s="46"/>
+      <c r="CJ13" s="47"/>
+      <c r="CK13" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="CL13" s="34"/>
-      <c r="CM13" s="36"/>
-      <c r="CN13" s="34"/>
-      <c r="CO13" s="36"/>
-      <c r="CP13" s="34"/>
-      <c r="CQ13" s="36"/>
-      <c r="CR13" s="34"/>
-      <c r="CS13" s="36"/>
-      <c r="CT13" s="34"/>
-      <c r="CU13" s="36"/>
-      <c r="CV13" s="34"/>
-      <c r="CW13" s="36"/>
-      <c r="CX13" s="62" t="s">
+      <c r="CL13" s="41"/>
+      <c r="CM13" s="43"/>
+      <c r="CN13" s="41"/>
+      <c r="CO13" s="43"/>
+      <c r="CP13" s="41"/>
+      <c r="CQ13" s="43"/>
+      <c r="CR13" s="41"/>
+      <c r="CS13" s="43"/>
+      <c r="CT13" s="41"/>
+      <c r="CU13" s="43"/>
+      <c r="CV13" s="41"/>
+      <c r="CW13" s="43"/>
+      <c r="CX13" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="CY13" s="62"/>
-      <c r="CZ13" s="62" t="s">
+      <c r="CY13" s="44"/>
+      <c r="CZ13" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="DA13" s="62"/>
-      <c r="DB13" s="59"/>
-      <c r="DC13" s="60"/>
-      <c r="DD13" s="61"/>
-      <c r="DE13" s="34"/>
-      <c r="DF13" s="35"/>
-      <c r="DG13" s="35"/>
-      <c r="DH13" s="35"/>
-      <c r="DI13" s="35"/>
-      <c r="DJ13" s="35"/>
-      <c r="DK13" s="35"/>
-      <c r="DL13" s="36"/>
-      <c r="DM13" s="34"/>
-      <c r="DN13" s="36"/>
+      <c r="DA13" s="44"/>
+      <c r="DB13" s="53"/>
+      <c r="DC13" s="54"/>
+      <c r="DD13" s="55"/>
+      <c r="DE13" s="41"/>
+      <c r="DF13" s="42"/>
+      <c r="DG13" s="42"/>
+      <c r="DH13" s="42"/>
+      <c r="DI13" s="42"/>
+      <c r="DJ13" s="42"/>
+      <c r="DK13" s="42"/>
+      <c r="DL13" s="43"/>
+      <c r="DM13" s="41"/>
+      <c r="DN13" s="43"/>
       <c r="DO13" s="7" t="s">
         <v>179</v>
       </c>
       <c r="DP13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="DQ13" s="37" t="s">
+      <c r="DQ13" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="DR13" s="34"/>
-      <c r="DS13" s="35"/>
-      <c r="DT13" s="35"/>
-      <c r="DU13" s="35"/>
-      <c r="DV13" s="35"/>
-      <c r="DW13" s="35"/>
-      <c r="DX13" s="35"/>
-      <c r="DY13" s="36"/>
-      <c r="DZ13" s="34"/>
-      <c r="EA13" s="35"/>
-      <c r="EB13" s="35"/>
-      <c r="EC13" s="35"/>
-      <c r="ED13" s="35"/>
-      <c r="EE13" s="35"/>
-      <c r="EF13" s="35"/>
-      <c r="EG13" s="35"/>
-      <c r="EH13" s="35"/>
-      <c r="EI13" s="35"/>
-      <c r="EJ13" s="35"/>
-      <c r="EK13" s="35"/>
-      <c r="EL13" s="35"/>
-      <c r="EM13" s="36"/>
-      <c r="EN13" s="34"/>
-      <c r="EO13" s="35"/>
-      <c r="EP13" s="36"/>
-      <c r="EQ13" s="34"/>
-      <c r="ER13" s="35"/>
-      <c r="ES13" s="36"/>
-      <c r="ET13" s="34"/>
-      <c r="EU13" s="35"/>
-      <c r="EV13" s="36"/>
-      <c r="EW13" s="34"/>
-      <c r="EX13" s="35"/>
-      <c r="EY13" s="36"/>
-      <c r="EZ13" s="34"/>
-      <c r="FA13" s="35"/>
-      <c r="FB13" s="36"/>
-      <c r="FC13" s="34"/>
-      <c r="FD13" s="35"/>
-      <c r="FE13" s="36"/>
-      <c r="FF13" s="34"/>
-      <c r="FG13" s="35"/>
-      <c r="FH13" s="36"/>
-      <c r="FI13" s="34"/>
-      <c r="FJ13" s="35"/>
-      <c r="FK13" s="36"/>
-      <c r="FL13" s="34"/>
-      <c r="FM13" s="35"/>
-      <c r="FN13" s="36"/>
-      <c r="FO13" s="34"/>
-      <c r="FP13" s="35"/>
-      <c r="FQ13" s="36"/>
-      <c r="FR13" s="34"/>
-      <c r="FS13" s="35"/>
-      <c r="FT13" s="36"/>
-      <c r="FU13" s="34"/>
-      <c r="FV13" s="35"/>
-      <c r="FW13" s="36"/>
-      <c r="FX13" s="34"/>
-      <c r="FY13" s="35"/>
-      <c r="FZ13" s="36"/>
-      <c r="GA13" s="34"/>
-      <c r="GB13" s="35"/>
-      <c r="GC13" s="36"/>
-      <c r="GD13" s="34"/>
-      <c r="GE13" s="35"/>
-      <c r="GF13" s="36"/>
-      <c r="GG13" s="34"/>
-      <c r="GH13" s="35"/>
-      <c r="GI13" s="36"/>
-      <c r="GJ13" s="34"/>
-      <c r="GK13" s="35"/>
-      <c r="GL13" s="36"/>
-      <c r="GM13" s="34"/>
-      <c r="GN13" s="35"/>
-      <c r="GO13" s="36"/>
-      <c r="GP13" s="34"/>
-      <c r="GQ13" s="35"/>
-      <c r="GR13" s="35"/>
-      <c r="GS13" s="36"/>
-      <c r="GT13" s="34"/>
-      <c r="GU13" s="35"/>
-      <c r="GV13" s="35"/>
-      <c r="GW13" s="36"/>
-      <c r="GX13" s="34"/>
-      <c r="GY13" s="35"/>
-      <c r="GZ13" s="35"/>
-      <c r="HA13" s="36"/>
-      <c r="HB13" s="34"/>
-      <c r="HC13" s="35"/>
-      <c r="HD13" s="35"/>
-      <c r="HE13" s="36"/>
-      <c r="HF13" s="34"/>
-      <c r="HG13" s="35"/>
-      <c r="HH13" s="35"/>
-      <c r="HI13" s="36"/>
-      <c r="HJ13" s="34"/>
-      <c r="HK13" s="35"/>
-      <c r="HL13" s="35"/>
-      <c r="HM13" s="36"/>
-      <c r="HN13" s="34"/>
-      <c r="HO13" s="35"/>
-      <c r="HP13" s="35"/>
-      <c r="HQ13" s="36"/>
-      <c r="HR13" s="34"/>
-      <c r="HS13" s="35"/>
-      <c r="HT13" s="35"/>
-      <c r="HU13" s="36"/>
-      <c r="HV13" s="39"/>
-      <c r="HW13" s="39"/>
-      <c r="HX13" s="43" t="s">
+      <c r="DR13" s="41"/>
+      <c r="DS13" s="42"/>
+      <c r="DT13" s="42"/>
+      <c r="DU13" s="42"/>
+      <c r="DV13" s="42"/>
+      <c r="DW13" s="42"/>
+      <c r="DX13" s="42"/>
+      <c r="DY13" s="43"/>
+      <c r="DZ13" s="41"/>
+      <c r="EA13" s="42"/>
+      <c r="EB13" s="42"/>
+      <c r="EC13" s="42"/>
+      <c r="ED13" s="42"/>
+      <c r="EE13" s="42"/>
+      <c r="EF13" s="42"/>
+      <c r="EG13" s="42"/>
+      <c r="EH13" s="42"/>
+      <c r="EI13" s="42"/>
+      <c r="EJ13" s="42"/>
+      <c r="EK13" s="42"/>
+      <c r="EL13" s="42"/>
+      <c r="EM13" s="43"/>
+      <c r="EN13" s="41"/>
+      <c r="EO13" s="42"/>
+      <c r="EP13" s="43"/>
+      <c r="EQ13" s="41"/>
+      <c r="ER13" s="42"/>
+      <c r="ES13" s="43"/>
+      <c r="ET13" s="41"/>
+      <c r="EU13" s="42"/>
+      <c r="EV13" s="43"/>
+      <c r="EW13" s="41"/>
+      <c r="EX13" s="42"/>
+      <c r="EY13" s="43"/>
+      <c r="EZ13" s="41"/>
+      <c r="FA13" s="42"/>
+      <c r="FB13" s="43"/>
+      <c r="FC13" s="41"/>
+      <c r="FD13" s="42"/>
+      <c r="FE13" s="43"/>
+      <c r="FF13" s="41"/>
+      <c r="FG13" s="42"/>
+      <c r="FH13" s="43"/>
+      <c r="FI13" s="41"/>
+      <c r="FJ13" s="42"/>
+      <c r="FK13" s="43"/>
+      <c r="FL13" s="41"/>
+      <c r="FM13" s="42"/>
+      <c r="FN13" s="43"/>
+      <c r="FO13" s="41"/>
+      <c r="FP13" s="42"/>
+      <c r="FQ13" s="43"/>
+      <c r="FR13" s="41"/>
+      <c r="FS13" s="42"/>
+      <c r="FT13" s="43"/>
+      <c r="FU13" s="41"/>
+      <c r="FV13" s="42"/>
+      <c r="FW13" s="43"/>
+      <c r="FX13" s="41"/>
+      <c r="FY13" s="42"/>
+      <c r="FZ13" s="43"/>
+      <c r="GA13" s="41"/>
+      <c r="GB13" s="42"/>
+      <c r="GC13" s="43"/>
+      <c r="GD13" s="41"/>
+      <c r="GE13" s="42"/>
+      <c r="GF13" s="43"/>
+      <c r="GG13" s="41"/>
+      <c r="GH13" s="42"/>
+      <c r="GI13" s="43"/>
+      <c r="GJ13" s="41"/>
+      <c r="GK13" s="42"/>
+      <c r="GL13" s="43"/>
+      <c r="GM13" s="41"/>
+      <c r="GN13" s="42"/>
+      <c r="GO13" s="43"/>
+      <c r="GP13" s="41"/>
+      <c r="GQ13" s="42"/>
+      <c r="GR13" s="42"/>
+      <c r="GS13" s="43"/>
+      <c r="GT13" s="41"/>
+      <c r="GU13" s="42"/>
+      <c r="GV13" s="42"/>
+      <c r="GW13" s="43"/>
+      <c r="GX13" s="41"/>
+      <c r="GY13" s="42"/>
+      <c r="GZ13" s="42"/>
+      <c r="HA13" s="43"/>
+      <c r="HB13" s="41"/>
+      <c r="HC13" s="42"/>
+      <c r="HD13" s="42"/>
+      <c r="HE13" s="43"/>
+      <c r="HF13" s="41"/>
+      <c r="HG13" s="42"/>
+      <c r="HH13" s="42"/>
+      <c r="HI13" s="43"/>
+      <c r="HJ13" s="41"/>
+      <c r="HK13" s="42"/>
+      <c r="HL13" s="42"/>
+      <c r="HM13" s="43"/>
+      <c r="HN13" s="41"/>
+      <c r="HO13" s="42"/>
+      <c r="HP13" s="42"/>
+      <c r="HQ13" s="43"/>
+      <c r="HR13" s="41"/>
+      <c r="HS13" s="42"/>
+      <c r="HT13" s="42"/>
+      <c r="HU13" s="43"/>
+      <c r="HV13" s="56"/>
+      <c r="HW13" s="56"/>
+      <c r="HX13" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="HY13" s="43"/>
-      <c r="HZ13" s="43"/>
-      <c r="IA13" s="43"/>
-      <c r="IB13" s="43"/>
-      <c r="IC13" s="43"/>
-      <c r="ID13" s="43" t="s">
+      <c r="HY13" s="33"/>
+      <c r="HZ13" s="33"/>
+      <c r="IA13" s="33"/>
+      <c r="IB13" s="33"/>
+      <c r="IC13" s="33"/>
+      <c r="ID13" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="IE13" s="43"/>
-      <c r="IF13" s="43"/>
-      <c r="IG13" s="43"/>
-      <c r="IH13" s="43" t="s">
+      <c r="IE13" s="33"/>
+      <c r="IF13" s="33"/>
+      <c r="IG13" s="33"/>
+      <c r="IH13" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="II13" s="43"/>
-      <c r="IJ13" s="43" t="s">
+      <c r="II13" s="33"/>
+      <c r="IJ13" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="IK13" s="43"/>
-      <c r="IL13" s="43"/>
-      <c r="IM13" s="43"/>
-      <c r="IN13" s="43"/>
-      <c r="IO13" s="43"/>
-      <c r="IP13" s="54" t="s">
+      <c r="IK13" s="33"/>
+      <c r="IL13" s="33"/>
+      <c r="IM13" s="33"/>
+      <c r="IN13" s="33"/>
+      <c r="IO13" s="33"/>
+      <c r="IP13" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="IQ13" s="54"/>
-      <c r="IR13" s="54"/>
-      <c r="IS13" s="54"/>
-      <c r="IT13" s="54"/>
-      <c r="IU13" s="37" t="s">
+      <c r="IQ13" s="36"/>
+      <c r="IR13" s="36"/>
+      <c r="IS13" s="36"/>
+      <c r="IT13" s="36"/>
+      <c r="IU13" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="IV13" s="37" t="s">
+      <c r="IV13" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="IW13" s="43" t="s">
+      <c r="IW13" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="IX13" s="43"/>
-      <c r="IY13" s="43"/>
-      <c r="IZ13" s="43"/>
-      <c r="JA13" s="43" t="s">
+      <c r="IX13" s="33"/>
+      <c r="IY13" s="33"/>
+      <c r="IZ13" s="33"/>
+      <c r="JA13" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="JB13" s="43"/>
-      <c r="JC13" s="43"/>
-      <c r="JD13" s="43"/>
-      <c r="JE13" s="43" t="s">
+      <c r="JB13" s="33"/>
+      <c r="JC13" s="33"/>
+      <c r="JD13" s="33"/>
+      <c r="JE13" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="JF13" s="43"/>
-      <c r="JG13" s="43"/>
-      <c r="JH13" s="44" t="s">
+      <c r="JF13" s="33"/>
+      <c r="JG13" s="33"/>
+      <c r="JH13" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="JI13" s="45"/>
-      <c r="JJ13" s="43" t="s">
+      <c r="JI13" s="32"/>
+      <c r="JJ13" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="JK13" s="43"/>
-      <c r="JL13" s="43" t="s">
+      <c r="JK13" s="33"/>
+      <c r="JL13" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="JM13" s="43"/>
-      <c r="JN13" s="43"/>
-      <c r="JO13" s="43" t="s">
+      <c r="JM13" s="33"/>
+      <c r="JN13" s="33"/>
+      <c r="JO13" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="JP13" s="43"/>
-      <c r="JQ13" s="43"/>
-      <c r="JR13" s="43"/>
-      <c r="JS13" s="43"/>
-      <c r="JT13" s="43"/>
-      <c r="JU13" s="43"/>
-      <c r="JV13" s="43"/>
-      <c r="JW13" s="43" t="s">
+      <c r="JP13" s="33"/>
+      <c r="JQ13" s="33"/>
+      <c r="JR13" s="33"/>
+      <c r="JS13" s="33"/>
+      <c r="JT13" s="33"/>
+      <c r="JU13" s="33"/>
+      <c r="JV13" s="33"/>
+      <c r="JW13" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="JX13" s="43"/>
-      <c r="JY13" s="43"/>
-      <c r="JZ13" s="43" t="s">
+      <c r="JX13" s="33"/>
+      <c r="JY13" s="33"/>
+      <c r="JZ13" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="KA13" s="43"/>
-      <c r="KB13" s="43" t="s">
+      <c r="KA13" s="33"/>
+      <c r="KB13" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="KC13" s="43"/>
+      <c r="KC13" s="33"/>
       <c r="KD13" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="KE13" s="43" t="s">
+      <c r="KE13" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="KF13" s="43"/>
-      <c r="KG13" s="43"/>
-      <c r="KH13" s="43"/>
-      <c r="KI13" s="43"/>
-      <c r="KJ13" s="43"/>
-      <c r="KK13" s="43"/>
-      <c r="KL13" s="43" t="s">
+      <c r="KF13" s="33"/>
+      <c r="KG13" s="33"/>
+      <c r="KH13" s="33"/>
+      <c r="KI13" s="33"/>
+      <c r="KJ13" s="33"/>
+      <c r="KK13" s="33"/>
+      <c r="KL13" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="KM13" s="43"/>
-      <c r="KN13" s="43" t="s">
+      <c r="KM13" s="33"/>
+      <c r="KN13" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="KO13" s="43"/>
-      <c r="KP13" s="43"/>
-      <c r="KQ13" s="43"/>
-      <c r="KR13" s="43" t="s">
+      <c r="KO13" s="33"/>
+      <c r="KP13" s="33"/>
+      <c r="KQ13" s="33"/>
+      <c r="KR13" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="KS13" s="43"/>
-      <c r="KT13" s="43" t="s">
+      <c r="KS13" s="33"/>
+      <c r="KT13" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="KU13" s="43"/>
-      <c r="KV13" s="43"/>
-      <c r="KW13" s="43"/>
-      <c r="KX13" s="43"/>
-      <c r="KY13" s="43"/>
-      <c r="KZ13" s="43"/>
-      <c r="LA13" s="43"/>
-      <c r="LB13" s="43" t="s">
+      <c r="KU13" s="33"/>
+      <c r="KV13" s="33"/>
+      <c r="KW13" s="33"/>
+      <c r="KX13" s="33"/>
+      <c r="KY13" s="33"/>
+      <c r="KZ13" s="33"/>
+      <c r="LA13" s="33"/>
+      <c r="LB13" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="LC13" s="43"/>
-      <c r="LD13" s="43"/>
-      <c r="LE13" s="43"/>
+      <c r="LC13" s="33"/>
+      <c r="LD13" s="33"/>
+      <c r="LE13" s="33"/>
       <c r="LF13" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="LG13" s="44" t="s">
+      <c r="LG13" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="LH13" s="45"/>
-      <c r="LI13" s="43" t="s">
+      <c r="LH13" s="32"/>
+      <c r="LI13" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="LJ13" s="43"/>
-      <c r="LK13" s="43" t="s">
+      <c r="LJ13" s="33"/>
+      <c r="LK13" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="LL13" s="43"/>
-      <c r="LM13" s="43"/>
-      <c r="LN13" s="43"/>
-      <c r="LO13" s="43" t="s">
+      <c r="LL13" s="33"/>
+      <c r="LM13" s="33"/>
+      <c r="LN13" s="33"/>
+      <c r="LO13" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="LP13" s="43"/>
-      <c r="LQ13" s="43"/>
-      <c r="LR13" s="43"/>
-      <c r="LS13" s="43" t="s">
+      <c r="LP13" s="33"/>
+      <c r="LQ13" s="33"/>
+      <c r="LR13" s="33"/>
+      <c r="LS13" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="LT13" s="43"/>
+      <c r="LT13" s="33"/>
       <c r="LU13" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="LV13" s="44" t="s">
+      <c r="LV13" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="LW13" s="45"/>
-      <c r="LX13" s="43" t="s">
+      <c r="LW13" s="32"/>
+      <c r="LX13" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="LY13" s="43"/>
+      <c r="LY13" s="33"/>
       <c r="LZ13" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="MA13" s="43" t="s">
+      <c r="MA13" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="MB13" s="43"/>
-      <c r="MC13" s="43"/>
-      <c r="MD13" s="43"/>
-      <c r="ME13" s="51" t="s">
+      <c r="MB13" s="33"/>
+      <c r="MC13" s="33"/>
+      <c r="MD13" s="33"/>
+      <c r="ME13" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="MF13" s="52"/>
+      <c r="MF13" s="47"/>
       <c r="MG13" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="MH13" s="43" t="s">
+      <c r="MH13" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="MI13" s="43"/>
-      <c r="MJ13" s="43"/>
-      <c r="MK13" s="43"/>
-      <c r="ML13" s="43"/>
-      <c r="MM13" s="37" t="s">
+      <c r="MI13" s="33"/>
+      <c r="MJ13" s="33"/>
+      <c r="MK13" s="33"/>
+      <c r="ML13" s="33"/>
+      <c r="MM13" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="MN13" s="29" t="s">
+      <c r="MN13" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="MO13" s="29" t="s">
+      <c r="MO13" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="MP13" s="29" t="s">
+      <c r="MP13" s="57" t="s">
         <v>355</v>
       </c>
-      <c r="MQ13" s="29" t="s">
+      <c r="MQ13" s="57" t="s">
         <v>356</v>
       </c>
-      <c r="MR13" s="29" t="s">
+      <c r="MR13" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="MS13" s="29" t="s">
+      <c r="MS13" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="MT13" s="29" t="s">
+      <c r="MT13" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="MU13" s="29" t="s">
+      <c r="MU13" s="57" t="s">
         <v>360</v>
       </c>
-      <c r="MV13" s="29" t="s">
+      <c r="MV13" s="57" t="s">
         <v>361</v>
       </c>
-      <c r="MW13" s="29" t="s">
+      <c r="MW13" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="MX13" s="29" t="s">
+      <c r="MX13" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="MY13" s="29" t="s">
+      <c r="MY13" s="57" t="s">
         <v>364</v>
       </c>
-      <c r="MZ13" s="29" t="s">
+      <c r="MZ13" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="NA13" s="29" t="s">
+      <c r="NA13" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="NB13" s="29" t="s">
+      <c r="NB13" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="NC13" s="29" t="s">
+      <c r="NC13" s="57" t="s">
         <v>368</v>
       </c>
-      <c r="ND13" s="29" t="s">
+      <c r="ND13" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="NE13" s="29" t="s">
+      <c r="NE13" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="NF13" s="29" t="s">
+      <c r="NF13" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="NG13" s="43" t="s">
+      <c r="NG13" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="NH13" s="43"/>
-      <c r="NI13" s="43" t="s">
+      <c r="NH13" s="33"/>
+      <c r="NI13" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="NJ13" s="43"/>
-      <c r="NK13" s="64" t="s">
+      <c r="NJ13" s="33"/>
+      <c r="NK13" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="NL13" s="43" t="s">
+      <c r="NL13" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="NM13" s="43"/>
-      <c r="NN13" s="43" t="s">
+      <c r="NM13" s="33"/>
+      <c r="NN13" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="NO13" s="43"/>
-      <c r="NP13" s="43"/>
-      <c r="NQ13" s="43"/>
-      <c r="NR13" s="43" t="s">
+      <c r="NO13" s="33"/>
+      <c r="NP13" s="33"/>
+      <c r="NQ13" s="33"/>
+      <c r="NR13" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="NS13" s="43"/>
-      <c r="NT13" s="43"/>
-      <c r="NU13" s="44" t="s">
+      <c r="NS13" s="33"/>
+      <c r="NT13" s="33"/>
+      <c r="NU13" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="NV13" s="45"/>
+      <c r="NV13" s="32"/>
       <c r="NW13" s="7" t="s">
         <v>264</v>
       </c>
@@ -5084,78 +5128,78 @@
       </c>
     </row>
     <row r="14" spans="1:388" s="6" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
-      <c r="AX14" s="38"/>
-      <c r="AY14" s="38"/>
-      <c r="AZ14" s="38"/>
-      <c r="BA14" s="38"/>
-      <c r="BB14" s="38"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="38"/>
-      <c r="BE14" s="38"/>
-      <c r="BF14" s="38"/>
-      <c r="BG14" s="38"/>
-      <c r="BH14" s="38"/>
-      <c r="BI14" s="38"/>
-      <c r="BJ14" s="38"/>
-      <c r="BK14" s="38"/>
-      <c r="BL14" s="38"/>
-      <c r="BM14" s="38"/>
-      <c r="BN14" s="38"/>
-      <c r="BO14" s="38"/>
-      <c r="BP14" s="38"/>
-      <c r="BQ14" s="38"/>
-      <c r="BR14" s="38"/>
-      <c r="BS14" s="38"/>
-      <c r="BT14" s="38"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="49"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
+      <c r="BB14" s="49"/>
+      <c r="BC14" s="49"/>
+      <c r="BD14" s="49"/>
+      <c r="BE14" s="49"/>
+      <c r="BF14" s="49"/>
+      <c r="BG14" s="49"/>
+      <c r="BH14" s="49"/>
+      <c r="BI14" s="49"/>
+      <c r="BJ14" s="49"/>
+      <c r="BK14" s="49"/>
+      <c r="BL14" s="49"/>
+      <c r="BM14" s="49"/>
+      <c r="BN14" s="49"/>
+      <c r="BO14" s="49"/>
+      <c r="BP14" s="49"/>
+      <c r="BQ14" s="49"/>
+      <c r="BR14" s="49"/>
+      <c r="BS14" s="49"/>
+      <c r="BT14" s="49"/>
       <c r="BU14" s="7" t="s">
         <v>127</v>
       </c>
@@ -5204,7 +5248,7 @@
       <c r="CJ14" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="CK14" s="38"/>
+      <c r="CK14" s="49"/>
       <c r="CL14" s="7" t="s">
         <v>161</v>
       </c>
@@ -5298,7 +5342,7 @@
       <c r="DP14" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="DQ14" s="38"/>
+      <c r="DQ14" s="49"/>
       <c r="DR14" s="7" t="s">
         <v>181</v>
       </c>
@@ -5623,8 +5667,8 @@
       <c r="HU14" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="HV14" s="38"/>
-      <c r="HW14" s="38"/>
+      <c r="HV14" s="49"/>
+      <c r="HW14" s="49"/>
       <c r="HX14" s="7" t="s">
         <v>274</v>
       </c>
@@ -5694,8 +5738,8 @@
       <c r="IT14" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="IU14" s="38"/>
-      <c r="IV14" s="38"/>
+      <c r="IU14" s="49"/>
+      <c r="IV14" s="49"/>
       <c r="IW14" s="8" t="s">
         <v>294</v>
       </c>
@@ -5970,26 +6014,26 @@
       <c r="ML14" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="MM14" s="38"/>
-      <c r="MN14" s="30"/>
-      <c r="MO14" s="30"/>
-      <c r="MP14" s="30"/>
-      <c r="MQ14" s="30"/>
-      <c r="MR14" s="30"/>
-      <c r="MS14" s="30"/>
-      <c r="MT14" s="30"/>
-      <c r="MU14" s="30"/>
-      <c r="MV14" s="30"/>
-      <c r="MW14" s="30"/>
-      <c r="MX14" s="30"/>
-      <c r="MY14" s="30"/>
-      <c r="MZ14" s="30"/>
-      <c r="NA14" s="30"/>
-      <c r="NB14" s="30"/>
-      <c r="NC14" s="30"/>
-      <c r="ND14" s="30"/>
-      <c r="NE14" s="30"/>
-      <c r="NF14" s="30"/>
+      <c r="MM14" s="49"/>
+      <c r="MN14" s="58"/>
+      <c r="MO14" s="58"/>
+      <c r="MP14" s="58"/>
+      <c r="MQ14" s="58"/>
+      <c r="MR14" s="58"/>
+      <c r="MS14" s="58"/>
+      <c r="MT14" s="58"/>
+      <c r="MU14" s="58"/>
+      <c r="MV14" s="58"/>
+      <c r="MW14" s="58"/>
+      <c r="MX14" s="58"/>
+      <c r="MY14" s="58"/>
+      <c r="MZ14" s="58"/>
+      <c r="NA14" s="58"/>
+      <c r="NB14" s="58"/>
+      <c r="NC14" s="58"/>
+      <c r="ND14" s="58"/>
+      <c r="NE14" s="58"/>
+      <c r="NF14" s="58"/>
       <c r="NG14" s="11" t="s">
         <v>161</v>
       </c>
@@ -6002,7 +6046,7 @@
       <c r="NJ14" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="NK14" s="65"/>
+      <c r="NK14" s="29"/>
       <c r="NL14" s="11" t="s">
         <v>336</v>
       </c>
@@ -6100,7 +6144,7 @@
       <c r="T15" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="U15" s="21" t="s">
+      <c r="U15" s="68" t="s">
         <v>408</v>
       </c>
       <c r="V15" s="21" t="s">
@@ -6244,7 +6288,7 @@
       <c r="BP15" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="BQ15" s="25" t="s">
+      <c r="BQ15" s="68" t="s">
         <v>458</v>
       </c>
       <c r="BR15" s="25" t="s">
@@ -6256,16 +6300,16 @@
       <c r="BT15" s="25" t="s">
         <v>461</v>
       </c>
-      <c r="BU15" s="67" t="s">
+      <c r="BU15" s="27" t="s">
         <v>781</v>
       </c>
-      <c r="BV15" s="67" t="s">
+      <c r="BV15" s="27" t="s">
         <v>782</v>
       </c>
-      <c r="BW15" s="67" t="s">
+      <c r="BW15" s="27" t="s">
         <v>783</v>
       </c>
-      <c r="BX15" s="67" t="s">
+      <c r="BX15" s="27" t="s">
         <v>784</v>
       </c>
       <c r="BY15" s="25" t="s">
@@ -6337,10 +6381,10 @@
       <c r="CU15" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="CV15" s="25" t="s">
+      <c r="CV15" s="68" t="s">
         <v>486</v>
       </c>
-      <c r="CW15" s="25" t="s">
+      <c r="CW15" s="68" t="s">
         <v>487</v>
       </c>
       <c r="CX15" s="25" t="s">
@@ -6349,10 +6393,10 @@
       <c r="CY15" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="CZ15" s="25" t="s">
+      <c r="CZ15" s="68" t="s">
         <v>489</v>
       </c>
-      <c r="DA15" s="25" t="s">
+      <c r="DA15" s="68" t="s">
         <v>490</v>
       </c>
       <c r="DB15" s="25" t="s">
@@ -6364,7 +6408,7 @@
       <c r="DD15" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="DE15" s="25" t="s">
+      <c r="DE15" s="68" t="s">
         <v>496</v>
       </c>
       <c r="DF15" s="25" t="s">
@@ -6394,7 +6438,7 @@
       <c r="DN15" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="DO15" s="25" t="s">
+      <c r="DO15" s="68" t="s">
         <v>506</v>
       </c>
       <c r="DP15" s="25" t="s">
@@ -6403,7 +6447,7 @@
       <c r="DQ15" s="25" t="s">
         <v>507</v>
       </c>
-      <c r="DR15" s="26" t="s">
+      <c r="DR15" s="68" t="s">
         <v>509</v>
       </c>
       <c r="DS15" s="26" t="s">
@@ -6427,7 +6471,7 @@
       <c r="DY15" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="DZ15" s="26" t="s">
+      <c r="DZ15" s="68" t="s">
         <v>520</v>
       </c>
       <c r="EA15" s="26" t="s">
@@ -6469,7 +6513,7 @@
       <c r="EM15" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="EN15" s="26" t="s">
+      <c r="EN15" s="68" t="s">
         <v>534</v>
       </c>
       <c r="EO15" s="26" t="s">
@@ -6478,7 +6522,7 @@
       <c r="EP15" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="EQ15" s="26" t="s">
+      <c r="EQ15" s="68" t="s">
         <v>537</v>
       </c>
       <c r="ER15" s="26" t="s">
@@ -6487,7 +6531,7 @@
       <c r="ES15" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="ET15" s="26" t="s">
+      <c r="ET15" s="68" t="s">
         <v>540</v>
       </c>
       <c r="EU15" s="26" t="s">
@@ -6496,7 +6540,7 @@
       <c r="EV15" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="EW15" s="26" t="s">
+      <c r="EW15" s="68" t="s">
         <v>543</v>
       </c>
       <c r="EX15" s="26" t="s">
@@ -6505,7 +6549,7 @@
       <c r="EY15" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="EZ15" s="26" t="s">
+      <c r="EZ15" s="68" t="s">
         <v>546</v>
       </c>
       <c r="FA15" s="26" t="s">
@@ -6535,13 +6579,13 @@
       <c r="FI15" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="FJ15" s="26" t="s">
+      <c r="FJ15" s="68" t="s">
         <v>556</v>
       </c>
       <c r="FK15" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="FL15" s="26" t="s">
+      <c r="FL15" s="68" t="s">
         <v>558</v>
       </c>
       <c r="FM15" s="26" t="s">
@@ -6631,7 +6675,7 @@
       <c r="GO15" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="GP15" s="26" t="s">
+      <c r="GP15" s="68" t="s">
         <v>588</v>
       </c>
       <c r="GQ15" s="26" t="s">
@@ -7207,6 +7251,221 @@
     </row>
   </sheetData>
   <mergeCells count="239">
+    <mergeCell ref="KB10:KL10"/>
+    <mergeCell ref="MM10:MZ10"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="NC13:NC14"/>
+    <mergeCell ref="ND13:ND14"/>
+    <mergeCell ref="NE13:NE14"/>
+    <mergeCell ref="NF13:NF14"/>
+    <mergeCell ref="DR12:DY13"/>
+    <mergeCell ref="DZ12:EM13"/>
+    <mergeCell ref="MX13:MX14"/>
+    <mergeCell ref="MY13:MY14"/>
+    <mergeCell ref="MZ13:MZ14"/>
+    <mergeCell ref="NA13:NA14"/>
+    <mergeCell ref="NB13:NB14"/>
+    <mergeCell ref="BR13:BR14"/>
+    <mergeCell ref="BS13:BS14"/>
+    <mergeCell ref="BT13:BT14"/>
+    <mergeCell ref="BY12:BZ13"/>
+    <mergeCell ref="CA12:CB13"/>
+    <mergeCell ref="BM13:BM14"/>
+    <mergeCell ref="BN13:BN14"/>
+    <mergeCell ref="BO13:BO14"/>
+    <mergeCell ref="BP13:BP14"/>
+    <mergeCell ref="BQ13:BQ14"/>
+    <mergeCell ref="BH13:BH14"/>
+    <mergeCell ref="BI13:BI14"/>
+    <mergeCell ref="BJ13:BJ14"/>
+    <mergeCell ref="BK13:BK14"/>
+    <mergeCell ref="BL13:BL14"/>
+    <mergeCell ref="BC13:BC14"/>
+    <mergeCell ref="BD13:BD14"/>
+    <mergeCell ref="BE13:BE14"/>
+    <mergeCell ref="BF13:BF14"/>
+    <mergeCell ref="BG13:BG14"/>
+    <mergeCell ref="AX13:AX14"/>
+    <mergeCell ref="AY13:AY14"/>
+    <mergeCell ref="AZ13:AZ14"/>
+    <mergeCell ref="BA13:BA14"/>
+    <mergeCell ref="BB13:BB14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="AT13:AT14"/>
+    <mergeCell ref="AU13:AU14"/>
+    <mergeCell ref="AV13:AV14"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AP13:AP14"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AR13:AR14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AJ13:AJ14"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AL13:AL14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="Y12:Y14"/>
+    <mergeCell ref="Z12:Z14"/>
+    <mergeCell ref="AA12:AA14"/>
+    <mergeCell ref="AB12:AB14"/>
+    <mergeCell ref="AC12:AC14"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="AD13:AD14"/>
+    <mergeCell ref="NK10:NX10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="NR13:NT13"/>
+    <mergeCell ref="NU13:NV13"/>
+    <mergeCell ref="NG13:NH13"/>
+    <mergeCell ref="NI13:NJ13"/>
+    <mergeCell ref="NL13:NM13"/>
+    <mergeCell ref="NN13:NQ13"/>
+    <mergeCell ref="MM13:MM14"/>
+    <mergeCell ref="MN13:MN14"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="AG10:AJ10"/>
+    <mergeCell ref="BY10:CF10"/>
+    <mergeCell ref="HX10:II10"/>
+    <mergeCell ref="MH13:ML13"/>
+    <mergeCell ref="LS13:LT13"/>
+    <mergeCell ref="LV13:LW13"/>
+    <mergeCell ref="LX13:LY13"/>
+    <mergeCell ref="MA13:MD13"/>
+    <mergeCell ref="ME13:MF13"/>
+    <mergeCell ref="LB13:LE13"/>
+    <mergeCell ref="LG13:LH13"/>
+    <mergeCell ref="LI13:LJ13"/>
+    <mergeCell ref="LK13:LN13"/>
+    <mergeCell ref="LO13:LR13"/>
+    <mergeCell ref="KE13:KK13"/>
+    <mergeCell ref="KL13:KM13"/>
+    <mergeCell ref="KN13:KQ13"/>
+    <mergeCell ref="KR13:KS13"/>
+    <mergeCell ref="KT13:LA13"/>
+    <mergeCell ref="MO13:MO14"/>
+    <mergeCell ref="MP13:MP14"/>
+    <mergeCell ref="MQ13:MQ14"/>
+    <mergeCell ref="MR13:MR14"/>
+    <mergeCell ref="MS13:MS14"/>
+    <mergeCell ref="MT13:MT14"/>
+    <mergeCell ref="MU13:MU14"/>
+    <mergeCell ref="MV13:MV14"/>
+    <mergeCell ref="MW13:MW14"/>
+    <mergeCell ref="JL13:JN13"/>
+    <mergeCell ref="JO13:JV13"/>
+    <mergeCell ref="JW13:JY13"/>
+    <mergeCell ref="JZ13:KA13"/>
+    <mergeCell ref="KB13:KC13"/>
+    <mergeCell ref="IW13:IZ13"/>
+    <mergeCell ref="JA13:JD13"/>
+    <mergeCell ref="JE13:JG13"/>
+    <mergeCell ref="JH13:JI13"/>
+    <mergeCell ref="JJ13:JK13"/>
+    <mergeCell ref="LI12:LR12"/>
+    <mergeCell ref="LS12:LW12"/>
+    <mergeCell ref="LX12:MD12"/>
+    <mergeCell ref="ME12:ML12"/>
+    <mergeCell ref="MM12:NJ12"/>
+    <mergeCell ref="IW12:JG12"/>
+    <mergeCell ref="JH12:JK12"/>
+    <mergeCell ref="JL12:KA12"/>
+    <mergeCell ref="KB12:KQ12"/>
+    <mergeCell ref="KR12:LH12"/>
+    <mergeCell ref="IU12:IV12"/>
+    <mergeCell ref="HN12:HQ13"/>
+    <mergeCell ref="HR12:HU13"/>
+    <mergeCell ref="HV12:HV14"/>
+    <mergeCell ref="HW12:HW14"/>
+    <mergeCell ref="IU13:IU14"/>
+    <mergeCell ref="IV13:IV14"/>
+    <mergeCell ref="GT12:GW13"/>
+    <mergeCell ref="GX12:HA13"/>
+    <mergeCell ref="HB12:HE13"/>
+    <mergeCell ref="HF12:HI13"/>
+    <mergeCell ref="HJ12:HM13"/>
+    <mergeCell ref="HX13:IC13"/>
+    <mergeCell ref="ID13:IG13"/>
+    <mergeCell ref="IH13:II13"/>
+    <mergeCell ref="IJ13:IO13"/>
+    <mergeCell ref="IP13:IT13"/>
+    <mergeCell ref="HX12:IO12"/>
+    <mergeCell ref="IP12:IT12"/>
+    <mergeCell ref="EW12:EY13"/>
+    <mergeCell ref="DO12:DQ12"/>
+    <mergeCell ref="DB12:DD13"/>
+    <mergeCell ref="DE12:DL13"/>
+    <mergeCell ref="DM12:DN13"/>
+    <mergeCell ref="DQ13:DQ14"/>
+    <mergeCell ref="GM12:GO13"/>
+    <mergeCell ref="GP12:GS13"/>
+    <mergeCell ref="FO12:FQ13"/>
+    <mergeCell ref="FR12:FT13"/>
+    <mergeCell ref="FU12:FW13"/>
+    <mergeCell ref="FX12:FZ13"/>
+    <mergeCell ref="GA12:GC13"/>
+    <mergeCell ref="EZ12:FB13"/>
+    <mergeCell ref="FC12:FE13"/>
+    <mergeCell ref="FF12:FH13"/>
+    <mergeCell ref="FI12:FK13"/>
+    <mergeCell ref="FL12:FN13"/>
+    <mergeCell ref="GD12:GF13"/>
+    <mergeCell ref="GG12:GI13"/>
+    <mergeCell ref="GJ12:GL13"/>
+    <mergeCell ref="BU12:BX12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AS12"/>
+    <mergeCell ref="AT12:BC12"/>
+    <mergeCell ref="EN12:EP13"/>
+    <mergeCell ref="EQ12:ES13"/>
+    <mergeCell ref="ET12:EV13"/>
+    <mergeCell ref="BU13:BV13"/>
+    <mergeCell ref="BW13:BX13"/>
+    <mergeCell ref="CG13:CJ13"/>
+    <mergeCell ref="CX13:CY13"/>
+    <mergeCell ref="CZ13:DA13"/>
+    <mergeCell ref="CC12:CD13"/>
+    <mergeCell ref="CE12:CF13"/>
+    <mergeCell ref="CK13:CK14"/>
+    <mergeCell ref="CL12:CM13"/>
+    <mergeCell ref="CN12:CO13"/>
+    <mergeCell ref="CP12:CQ13"/>
+    <mergeCell ref="CR12:CS13"/>
+    <mergeCell ref="CT12:CU13"/>
+    <mergeCell ref="CV12:CW13"/>
+    <mergeCell ref="AE13:AE14"/>
     <mergeCell ref="NK13:NK14"/>
     <mergeCell ref="A10:AF10"/>
     <mergeCell ref="B11:C11"/>
@@ -7231,221 +7490,6 @@
     <mergeCell ref="BD12:BM12"/>
     <mergeCell ref="BN12:BP12"/>
     <mergeCell ref="BQ12:BT12"/>
-    <mergeCell ref="BU12:BX12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AS12"/>
-    <mergeCell ref="AT12:BC12"/>
-    <mergeCell ref="EN12:EP13"/>
-    <mergeCell ref="EQ12:ES13"/>
-    <mergeCell ref="ET12:EV13"/>
-    <mergeCell ref="BU13:BV13"/>
-    <mergeCell ref="BW13:BX13"/>
-    <mergeCell ref="CG13:CJ13"/>
-    <mergeCell ref="CX13:CY13"/>
-    <mergeCell ref="CZ13:DA13"/>
-    <mergeCell ref="CC12:CD13"/>
-    <mergeCell ref="CE12:CF13"/>
-    <mergeCell ref="CK13:CK14"/>
-    <mergeCell ref="CL12:CM13"/>
-    <mergeCell ref="CN12:CO13"/>
-    <mergeCell ref="CP12:CQ13"/>
-    <mergeCell ref="CR12:CS13"/>
-    <mergeCell ref="CT12:CU13"/>
-    <mergeCell ref="CV12:CW13"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="EW12:EY13"/>
-    <mergeCell ref="DO12:DQ12"/>
-    <mergeCell ref="DB12:DD13"/>
-    <mergeCell ref="DE12:DL13"/>
-    <mergeCell ref="DM12:DN13"/>
-    <mergeCell ref="DQ13:DQ14"/>
-    <mergeCell ref="GM12:GO13"/>
-    <mergeCell ref="GP12:GS13"/>
-    <mergeCell ref="FO12:FQ13"/>
-    <mergeCell ref="FR12:FT13"/>
-    <mergeCell ref="FU12:FW13"/>
-    <mergeCell ref="FX12:FZ13"/>
-    <mergeCell ref="GA12:GC13"/>
-    <mergeCell ref="EZ12:FB13"/>
-    <mergeCell ref="FC12:FE13"/>
-    <mergeCell ref="FF12:FH13"/>
-    <mergeCell ref="FI12:FK13"/>
-    <mergeCell ref="FL12:FN13"/>
-    <mergeCell ref="GD12:GF13"/>
-    <mergeCell ref="GG12:GI13"/>
-    <mergeCell ref="GJ12:GL13"/>
-    <mergeCell ref="IU12:IV12"/>
-    <mergeCell ref="HN12:HQ13"/>
-    <mergeCell ref="HR12:HU13"/>
-    <mergeCell ref="HV12:HV14"/>
-    <mergeCell ref="HW12:HW14"/>
-    <mergeCell ref="IU13:IU14"/>
-    <mergeCell ref="IV13:IV14"/>
-    <mergeCell ref="GT12:GW13"/>
-    <mergeCell ref="GX12:HA13"/>
-    <mergeCell ref="HB12:HE13"/>
-    <mergeCell ref="HF12:HI13"/>
-    <mergeCell ref="HJ12:HM13"/>
-    <mergeCell ref="HX13:IC13"/>
-    <mergeCell ref="ID13:IG13"/>
-    <mergeCell ref="IH13:II13"/>
-    <mergeCell ref="IJ13:IO13"/>
-    <mergeCell ref="IP13:IT13"/>
-    <mergeCell ref="HX12:IO12"/>
-    <mergeCell ref="IP12:IT12"/>
-    <mergeCell ref="LI12:LR12"/>
-    <mergeCell ref="LS12:LW12"/>
-    <mergeCell ref="LX12:MD12"/>
-    <mergeCell ref="ME12:ML12"/>
-    <mergeCell ref="MM12:NJ12"/>
-    <mergeCell ref="IW12:JG12"/>
-    <mergeCell ref="JH12:JK12"/>
-    <mergeCell ref="JL12:KA12"/>
-    <mergeCell ref="KB12:KQ12"/>
-    <mergeCell ref="KR12:LH12"/>
-    <mergeCell ref="JL13:JN13"/>
-    <mergeCell ref="JO13:JV13"/>
-    <mergeCell ref="JW13:JY13"/>
-    <mergeCell ref="JZ13:KA13"/>
-    <mergeCell ref="KB13:KC13"/>
-    <mergeCell ref="IW13:IZ13"/>
-    <mergeCell ref="JA13:JD13"/>
-    <mergeCell ref="JE13:JG13"/>
-    <mergeCell ref="JH13:JI13"/>
-    <mergeCell ref="JJ13:JK13"/>
-    <mergeCell ref="MO13:MO14"/>
-    <mergeCell ref="MP13:MP14"/>
-    <mergeCell ref="MQ13:MQ14"/>
-    <mergeCell ref="MR13:MR14"/>
-    <mergeCell ref="MS13:MS14"/>
-    <mergeCell ref="MT13:MT14"/>
-    <mergeCell ref="MU13:MU14"/>
-    <mergeCell ref="MV13:MV14"/>
-    <mergeCell ref="MW13:MW14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="AG10:AJ10"/>
-    <mergeCell ref="BY10:CF10"/>
-    <mergeCell ref="HX10:II10"/>
-    <mergeCell ref="MH13:ML13"/>
-    <mergeCell ref="LS13:LT13"/>
-    <mergeCell ref="LV13:LW13"/>
-    <mergeCell ref="LX13:LY13"/>
-    <mergeCell ref="MA13:MD13"/>
-    <mergeCell ref="ME13:MF13"/>
-    <mergeCell ref="LB13:LE13"/>
-    <mergeCell ref="LG13:LH13"/>
-    <mergeCell ref="LI13:LJ13"/>
-    <mergeCell ref="LK13:LN13"/>
-    <mergeCell ref="LO13:LR13"/>
-    <mergeCell ref="KE13:KK13"/>
-    <mergeCell ref="KL13:KM13"/>
-    <mergeCell ref="KN13:KQ13"/>
-    <mergeCell ref="KR13:KS13"/>
-    <mergeCell ref="KT13:LA13"/>
-    <mergeCell ref="NK10:NX10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="NR13:NT13"/>
-    <mergeCell ref="NU13:NV13"/>
-    <mergeCell ref="NG13:NH13"/>
-    <mergeCell ref="NI13:NJ13"/>
-    <mergeCell ref="NL13:NM13"/>
-    <mergeCell ref="NN13:NQ13"/>
-    <mergeCell ref="MM13:MM14"/>
-    <mergeCell ref="MN13:MN14"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="W12:W14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="AD13:AD14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="X12:X14"/>
-    <mergeCell ref="Y12:Y14"/>
-    <mergeCell ref="Z12:Z14"/>
-    <mergeCell ref="AA12:AA14"/>
-    <mergeCell ref="AB12:AB14"/>
-    <mergeCell ref="AC12:AC14"/>
-    <mergeCell ref="AN13:AN14"/>
-    <mergeCell ref="AO13:AO14"/>
-    <mergeCell ref="AP13:AP14"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AR13:AR14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AJ13:AJ14"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AX13:AX14"/>
-    <mergeCell ref="AY13:AY14"/>
-    <mergeCell ref="AZ13:AZ14"/>
-    <mergeCell ref="BA13:BA14"/>
-    <mergeCell ref="BB13:BB14"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="AT13:AT14"/>
-    <mergeCell ref="AU13:AU14"/>
-    <mergeCell ref="AV13:AV14"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="BP13:BP14"/>
-    <mergeCell ref="BQ13:BQ14"/>
-    <mergeCell ref="BH13:BH14"/>
-    <mergeCell ref="BI13:BI14"/>
-    <mergeCell ref="BJ13:BJ14"/>
-    <mergeCell ref="BK13:BK14"/>
-    <mergeCell ref="BL13:BL14"/>
-    <mergeCell ref="BC13:BC14"/>
-    <mergeCell ref="BD13:BD14"/>
-    <mergeCell ref="BE13:BE14"/>
-    <mergeCell ref="BF13:BF14"/>
-    <mergeCell ref="BG13:BG14"/>
-    <mergeCell ref="KB10:KL10"/>
-    <mergeCell ref="MM10:MZ10"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="NC13:NC14"/>
-    <mergeCell ref="ND13:ND14"/>
-    <mergeCell ref="NE13:NE14"/>
-    <mergeCell ref="NF13:NF14"/>
-    <mergeCell ref="DR12:DY13"/>
-    <mergeCell ref="DZ12:EM13"/>
-    <mergeCell ref="MX13:MX14"/>
-    <mergeCell ref="MY13:MY14"/>
-    <mergeCell ref="MZ13:MZ14"/>
-    <mergeCell ref="NA13:NA14"/>
-    <mergeCell ref="NB13:NB14"/>
-    <mergeCell ref="BR13:BR14"/>
-    <mergeCell ref="BS13:BS14"/>
-    <mergeCell ref="BT13:BT14"/>
-    <mergeCell ref="BY12:BZ13"/>
-    <mergeCell ref="CA12:CB13"/>
-    <mergeCell ref="BM13:BM14"/>
-    <mergeCell ref="BN13:BN14"/>
-    <mergeCell ref="BO13:BO14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
